--- a/Report/AA/ADM.xlsx
+++ b/Report/AA/ADM.xlsx
@@ -541,7 +541,7 @@
         <v>40939</v>
       </c>
       <c r="B2" t="n">
-        <v>107.1899642944336</v>
+        <v>107.1899795532227</v>
       </c>
       <c r="C2" t="n">
         <v>63.84403991699219</v>
@@ -550,13 +550,13 @@
         <v>93.52176666259766</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2167868735397522</v>
+        <v>0.217</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07691986531197426</v>
+        <v>0.077</v>
       </c>
       <c r="G2" t="n">
-        <v>0.190012751669298</v>
+        <v>0.19</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>107.1899642944336</v>
+        <v>107.1899795532227</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -601,28 +601,28 @@
         <v>111.8426055908203</v>
       </c>
       <c r="C3" t="n">
-        <v>67.94377899169922</v>
+        <v>67.94378662109375</v>
       </c>
       <c r="D3" t="n">
-        <v>91.093017578125</v>
+        <v>91.09299468994141</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3224766870302396</v>
+        <v>0.322</v>
       </c>
       <c r="F3" t="n">
-        <v>0.23790226513338</v>
+        <v>0.238</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05219859620250633</v>
+        <v>0.052</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04340556811462926</v>
+        <v>0.04340541958297051</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06421490682665709</v>
+        <v>0.06421502632715459</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.02596988028717373</v>
+        <v>-0.02597012502360685</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -638,19 +638,19 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>4.340556811462926</v>
+        <v>4.340541958297051</v>
       </c>
       <c r="O3" t="n">
-        <v>0.04340556811462926</v>
+        <v>0.04340541958297051</v>
       </c>
       <c r="P3" t="n">
-        <v>0.04248994810200747</v>
+        <v>0.04248980574924086</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.248994810200747</v>
+        <v>4.248980574924086</v>
       </c>
       <c r="R3" t="n">
-        <v>104.3405568114629</v>
+        <v>104.3405419582971</v>
       </c>
       <c r="S3" t="n">
         <v>-0</v>
@@ -661,31 +661,31 @@
         <v>40999</v>
       </c>
       <c r="B4" t="n">
-        <v>115.4398803710938</v>
+        <v>115.4399108886719</v>
       </c>
       <c r="C4" t="n">
-        <v>67.17366790771484</v>
+        <v>67.17366027832031</v>
       </c>
       <c r="D4" t="n">
-        <v>87.23428344726562</v>
+        <v>87.23431396484375</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4169078650164812</v>
+        <v>0.417</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3063389366633235</v>
+        <v>0.306</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1693781703255979</v>
+        <v>-0.169</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03216372473862217</v>
+        <v>0.03216399760045308</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01133453416063979</v>
+        <v>-0.01133475746749657</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.04236037221568567</v>
+        <v>-0.04235979658185218</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>115.4398803710938</v>
+        <v>115.4399108886719</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -701,19 +701,19 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.216372473862217</v>
+        <v>3.216399760045308</v>
       </c>
       <c r="O4" t="n">
-        <v>0.07696537759821398</v>
+        <v>0.07696550899473698</v>
       </c>
       <c r="P4" t="n">
-        <v>0.03165730247864836</v>
+        <v>0.03165756683767231</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.414725058065582</v>
+        <v>7.414737258691318</v>
       </c>
       <c r="R4" t="n">
-        <v>107.6965377598214</v>
+        <v>107.6965508994737</v>
       </c>
       <c r="S4" t="n">
         <v>-0</v>
@@ -724,31 +724,31 @@
         <v>41029</v>
       </c>
       <c r="B5" t="n">
-        <v>114.6692581176758</v>
+        <v>114.6692352294922</v>
       </c>
       <c r="C5" t="n">
-        <v>66.25255584716797</v>
+        <v>66.25254821777344</v>
       </c>
       <c r="D5" t="n">
-        <v>91.45143890380859</v>
+        <v>91.45140838623047</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2033048292875362</v>
+        <v>0.203</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09536421231855008</v>
+        <v>0.095</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0337334085247849</v>
+        <v>0.034</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.006675528863515079</v>
+        <v>-0.006675989727009668</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.01371239786715717</v>
+        <v>-0.01371239942457259</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04834286807768984</v>
+        <v>0.04834215149655718</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>114.6692581176758</v>
+        <v>114.6692352294922</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -764,22 +764,22 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>-0.6675528863515079</v>
+        <v>-0.6675989727009668</v>
       </c>
       <c r="O5" t="n">
-        <v>0.06977606413505066</v>
+        <v>0.06977569832034436</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.006697909865274595</v>
+        <v>-0.006698373826059708</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.744934071538124</v>
+        <v>6.744899876085346</v>
       </c>
       <c r="R5" t="n">
-        <v>106.9776064135051</v>
+        <v>106.9775698320344</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.66755288635151</v>
+        <v>-0.6675989727009681</v>
       </c>
     </row>
     <row r="6">
@@ -787,31 +787,31 @@
         <v>41060</v>
       </c>
       <c r="B6" t="n">
-        <v>107.78271484375</v>
+        <v>107.7827301025391</v>
       </c>
       <c r="C6" t="n">
         <v>58.97420501708984</v>
       </c>
       <c r="D6" t="n">
-        <v>99.70526123046875</v>
+        <v>99.70521545410156</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.03994061544880134</v>
+        <v>-0.04</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2701442351845108</v>
+        <v>-0.27</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2800809637329196</v>
+        <v>0.28</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.06005570618463996</v>
+        <v>-0.06005538550223066</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1098576611424305</v>
+        <v>-0.1098575586369831</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0902536080962244</v>
+        <v>0.09025347136276407</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>99.70526123046875</v>
+        <v>99.70521545410156</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -827,22 +827,22 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>-6.005570618463995</v>
+        <v>-6.005538550223067</v>
       </c>
       <c r="O6" t="n">
-        <v>0.005529907143995594</v>
+        <v>0.005529906356798175</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.0619346673726963</v>
+        <v>-0.06193432620103678</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.5514673342684934</v>
+        <v>0.5514672559816685</v>
       </c>
       <c r="R6" t="n">
-        <v>100.5529907143996</v>
+        <v>100.5529906356798</v>
       </c>
       <c r="S6" t="n">
-        <v>-6.633033144810064</v>
+        <v>-6.633044609257574</v>
       </c>
     </row>
     <row r="7">
@@ -850,31 +850,31 @@
         <v>41090</v>
       </c>
       <c r="B7" t="n">
-        <v>112.1566467285156</v>
+        <v>112.1566314697266</v>
       </c>
       <c r="C7" t="n">
-        <v>61.44312286376953</v>
+        <v>61.44308853149414</v>
       </c>
       <c r="D7" t="n">
-        <v>98.03195190429688</v>
+        <v>98.03199768066406</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1047084110913956</v>
+        <v>0.105</v>
       </c>
       <c r="F7" t="n">
-        <v>0.009823332317813294</v>
+        <v>0.01</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1631436759780536</v>
+        <v>0.163</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04058101422947469</v>
+        <v>0.04058072534464841</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04186436842962493</v>
+        <v>0.04186378627213116</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.01678255796656525</v>
+        <v>-0.01678164743756816</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>112.1566467285156</v>
+        <v>112.1566314697266</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -890,22 +890,22 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>-1.678255796656525</v>
+        <v>-1.678164743756816</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.01134545680976351</v>
+        <v>-0.01134454201961255</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.01692498082111227</v>
+        <v>-0.01692405475070652</v>
       </c>
       <c r="Q7" t="n">
-        <v>-1.141030747842733</v>
+        <v>-1.140938219088983</v>
       </c>
       <c r="R7" t="n">
-        <v>98.86545431902366</v>
+        <v>98.86554579803874</v>
       </c>
       <c r="S7" t="n">
-        <v>-8.199969678219666</v>
+        <v>-8.199895936944168</v>
       </c>
     </row>
     <row r="8">
@@ -916,28 +916,28 @@
         <v>113.4834136962891</v>
       </c>
       <c r="C8" t="n">
-        <v>61.44312286376953</v>
+        <v>61.44308853149414</v>
       </c>
       <c r="D8" t="n">
-        <v>101.7742004394531</v>
+        <v>101.7741012573242</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04617530162061068</v>
+        <v>0.046</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1381721438617997</v>
+        <v>-0.138</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2503419304553269</v>
+        <v>0.25</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0118295884058035</v>
+        <v>0.01182972606413046</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03817376337471678</v>
+        <v>0.03817226686382469</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -953,22 +953,22 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1.18295884058035</v>
+        <v>1.182972606413046</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0003499195117047105</v>
+        <v>0.0003509812201027973</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01176016578257761</v>
+        <v>0.01176030183149254</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.03498583041502759</v>
+        <v>0.03509196406027044</v>
       </c>
       <c r="R8" t="n">
-        <v>100.0349919511705</v>
+        <v>100.0350981220103</v>
       </c>
       <c r="S8" t="n">
-        <v>-7.114013103872721</v>
+        <v>-7.113925853219556</v>
       </c>
     </row>
     <row r="9">
@@ -976,31 +976,31 @@
         <v>41152</v>
       </c>
       <c r="B9" t="n">
-        <v>116.3264617919922</v>
+        <v>116.3264694213867</v>
       </c>
       <c r="C9" t="n">
-        <v>63.35329437255859</v>
+        <v>63.35329818725586</v>
       </c>
       <c r="D9" t="n">
-        <v>100.4318542480469</v>
+        <v>100.4318695068359</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1709833318104648</v>
+        <v>0.171</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06622113263441276</v>
+        <v>0.066</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07834066105366044</v>
+        <v>0.078</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02505254294968484</v>
+        <v>0.02505261017884441</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03108845090807399</v>
+        <v>0.03108908912973329</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.01318945455341436</v>
+        <v>-0.01318834294684268</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>116.3264617919922</v>
+        <v>116.3264694213867</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1016,22 +1016,22 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>2.505254294968484</v>
+        <v>2.505261017884441</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02541122883498548</v>
+        <v>0.02541238439463456</v>
       </c>
       <c r="P9" t="n">
-        <v>0.02474387269087678</v>
+        <v>0.02474393827693656</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.509373099502705</v>
+        <v>2.509485791753927</v>
       </c>
       <c r="R9" t="n">
-        <v>102.5411228834985</v>
+        <v>102.5412384394635</v>
       </c>
       <c r="S9" t="n">
-        <v>-4.786982927733628</v>
+        <v>-4.786887246577026</v>
       </c>
     </row>
     <row r="10">
@@ -1039,31 +1039,31 @@
         <v>41182</v>
       </c>
       <c r="B10" t="n">
-        <v>119.2754974365234</v>
+        <v>119.2754898071289</v>
       </c>
       <c r="C10" t="n">
-        <v>66.59025573730469</v>
+        <v>66.59024810791016</v>
       </c>
       <c r="D10" t="n">
         <v>97.88813781738281</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1195136820160054</v>
+        <v>0.12</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1279359944592435</v>
+        <v>0.128</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1142380739902593</v>
+        <v>0.114</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02535137404767407</v>
+        <v>0.02535124121286203</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05109381282859027</v>
+        <v>0.05109362911283188</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.02532778519035983</v>
+        <v>-0.02532793327400906</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>66.59025573730469</v>
+        <v>66.59024810791016</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1079,22 +1079,22 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>2.535137404767407</v>
+        <v>2.535124121286203</v>
       </c>
       <c r="O10" t="n">
-        <v>0.05140681244986633</v>
+        <v>0.05140786109407891</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0250353577954728</v>
+        <v>0.02503522824493627</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.012908879049985</v>
+        <v>5.013008616247554</v>
       </c>
       <c r="R10" t="n">
-        <v>105.1406812449866</v>
+        <v>105.1407861094079</v>
       </c>
       <c r="S10" t="n">
-        <v>-2.373202117727023</v>
+        <v>-2.373116658537573</v>
       </c>
     </row>
     <row r="11">
@@ -1102,31 +1102,31 @@
         <v>41213</v>
       </c>
       <c r="B11" t="n">
-        <v>117.1047973632812</v>
+        <v>117.1048583984375</v>
       </c>
       <c r="C11" t="n">
         <v>66.47602844238281</v>
       </c>
       <c r="D11" t="n">
-        <v>97.41432952880859</v>
+        <v>97.41428375244141</v>
       </c>
       <c r="E11" t="n">
-        <v>0.06184244639901593</v>
+        <v>0.062</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1086907080837621</v>
+        <v>0.109</v>
       </c>
       <c r="G11" t="n">
-        <v>0.003286293157879538</v>
+        <v>0.003</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.01819904439633468</v>
+        <v>-0.01819846988011842</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.001715375525399687</v>
+        <v>-0.001715261149684455</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.004840303423262027</v>
+        <v>-0.004840771062837201</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1142,22 +1142,22 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>-0.1715375525399687</v>
+        <v>-0.1715261149684455</v>
       </c>
       <c r="O11" t="n">
-        <v>0.04960325493655127</v>
+        <v>0.0496044220374714</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.001716848466668866</v>
+        <v>-0.001716733894425764</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.841224032383099</v>
+        <v>4.841335226804977</v>
       </c>
       <c r="R11" t="n">
-        <v>104.9603254936551</v>
+        <v>104.9604422037471</v>
       </c>
       <c r="S11" t="n">
-        <v>-2.540668737437423</v>
+        <v>-2.540572258697961</v>
       </c>
     </row>
     <row r="12">
@@ -1165,31 +1165,31 @@
         <v>41243</v>
       </c>
       <c r="B12" t="n">
-        <v>117.7676086425781</v>
+        <v>117.7676315307617</v>
       </c>
       <c r="C12" t="n">
-        <v>67.35933685302734</v>
+        <v>67.35932922363281</v>
       </c>
       <c r="D12" t="n">
-        <v>98.54354095458984</v>
+        <v>98.54355621337891</v>
       </c>
       <c r="E12" t="n">
-        <v>0.138907688927751</v>
+        <v>0.139</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2485642093285727</v>
+        <v>0.249</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.04178072534975585</v>
+        <v>-0.042</v>
       </c>
       <c r="H12" t="n">
-        <v>0.005659983999124485</v>
+        <v>0.005659655298580368</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01328762309273834</v>
+        <v>0.01328750832362968</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0115918410694118</v>
+        <v>0.01159247306901445</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>67.35933685302734</v>
+        <v>67.35932922363281</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1205,22 +1205,22 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>1.328762309273834</v>
+        <v>1.328750832362968</v>
       </c>
       <c r="O12" t="n">
-        <v>0.06354998738505957</v>
+        <v>0.06355104953181279</v>
       </c>
       <c r="P12" t="n">
-        <v>0.01320011694252773</v>
+        <v>0.0132000036784233</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.161235726635872</v>
+        <v>6.161335594647306</v>
       </c>
       <c r="R12" t="n">
-        <v>106.354998738506</v>
+        <v>106.3551049531813</v>
       </c>
       <c r="S12" t="n">
-        <v>-1.245665876750155</v>
+        <v>-1.245579301369227</v>
       </c>
     </row>
     <row r="13">
@@ -1228,31 +1228,31 @@
         <v>41274</v>
       </c>
       <c r="B13" t="n">
-        <v>118.81982421875</v>
+        <v>118.8198165893555</v>
       </c>
       <c r="C13" t="n">
-        <v>70.71577453613281</v>
+        <v>70.71575927734375</v>
       </c>
       <c r="D13" t="n">
-        <v>96.09208679199219</v>
+        <v>96.09209442138672</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05077064257988062</v>
+        <v>0.051</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2323424912437091</v>
+        <v>0.232</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.06780058636726571</v>
+        <v>-0.068</v>
       </c>
       <c r="H13" t="n">
-        <v>0.008934677270770797</v>
+        <v>0.008934416400476763</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04982884095829121</v>
+        <v>0.04982873333799986</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.02487686294657621</v>
+        <v>-0.02487693651611245</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>70.71577453613281</v>
+        <v>70.71575927734375</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1268,19 +1268,19 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>4.982884095829121</v>
+        <v>4.982873333799986</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1165454505576624</v>
+        <v>0.1165464511702834</v>
       </c>
       <c r="P13" t="n">
-        <v>0.04862714227093314</v>
+        <v>0.04862703975870193</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.02394995372919</v>
+        <v>11.0240395705175</v>
       </c>
       <c r="R13" t="n">
-        <v>111.6545450557662</v>
+        <v>111.6546451170283</v>
       </c>
       <c r="S13" t="n">
         <v>-0</v>
@@ -1291,31 +1291,31 @@
         <v>41305</v>
       </c>
       <c r="B14" t="n">
-        <v>124.9022445678711</v>
+        <v>124.902229309082</v>
       </c>
       <c r="C14" t="n">
-        <v>72.85536956787109</v>
+        <v>72.85537719726562</v>
       </c>
       <c r="D14" t="n">
-        <v>93.03120422363281</v>
+        <v>93.03121948242188</v>
       </c>
       <c r="E14" t="n">
-        <v>0.203860741188169</v>
+        <v>0.204</v>
       </c>
       <c r="F14" t="n">
-        <v>0.292352983056275</v>
+        <v>0.292</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1397634099330636</v>
+        <v>-0.14</v>
       </c>
       <c r="H14" t="n">
-        <v>0.05119028233809897</v>
+        <v>0.05119022141523377</v>
       </c>
       <c r="I14" t="n">
-        <v>0.03025626242197266</v>
+        <v>0.03025659261509728</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.03185363821877629</v>
+        <v>-0.03185355629300968</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1323,7 +1323,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>72.85536956787109</v>
+        <v>72.85537719726562</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1331,19 +1331,19 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.025626242197266</v>
+        <v>3.025659261509728</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1503279427157946</v>
+        <v>0.1503293422791752</v>
       </c>
       <c r="P14" t="n">
-        <v>0.02980756976427284</v>
+        <v>0.02980789026033168</v>
       </c>
       <c r="Q14" t="n">
-        <v>14.00470693015647</v>
+        <v>14.00482859655067</v>
       </c>
       <c r="R14" t="n">
-        <v>115.0327942715795</v>
+        <v>115.0329342279175</v>
       </c>
       <c r="S14" t="n">
         <v>-0</v>
@@ -1357,28 +1357,28 @@
         <v>126.4958190917969</v>
       </c>
       <c r="C15" t="n">
-        <v>72.68419647216797</v>
+        <v>72.6842041015625</v>
       </c>
       <c r="D15" t="n">
-        <v>94.18358612060547</v>
+        <v>94.18363952636719</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1678402812859083</v>
+        <v>0.168</v>
       </c>
       <c r="F15" t="n">
-        <v>0.222496321690057</v>
+        <v>0.222</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.09086825027177792</v>
+        <v>-0.091</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01275857395068547</v>
+        <v>0.01275869767521409</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.00234949183180877</v>
+        <v>-0.002349491585770691</v>
       </c>
       <c r="J15" t="n">
-        <v>0.01238704697622217</v>
+        <v>0.01238745498937655</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>72.68419647216797</v>
+        <v>72.6842041015625</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1394,22 +1394,22 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>-0.234949183180877</v>
+        <v>-0.2349491585770691</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1476252566104825</v>
+        <v>0.147626653168625</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.002352256218527475</v>
+        <v>-0.00235225597190997</v>
       </c>
       <c r="Q15" t="n">
-        <v>13.76948130830372</v>
+        <v>13.76960299935967</v>
       </c>
       <c r="R15" t="n">
-        <v>114.7625256610483</v>
+        <v>114.7626653168625</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.2349491831808732</v>
+        <v>-0.2349491585770783</v>
       </c>
     </row>
     <row r="16">
@@ -1417,31 +1417,31 @@
         <v>41364</v>
       </c>
       <c r="B16" t="n">
-        <v>131.2990264892578</v>
+        <v>131.2990570068359</v>
       </c>
       <c r="C16" t="n">
-        <v>73.48557281494141</v>
+        <v>73.48558044433594</v>
       </c>
       <c r="D16" t="n">
         <v>93.78858947753906</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2735848145139368</v>
+        <v>0.274</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1773267807960972</v>
+        <v>0.177</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.08799656350895158</v>
+        <v>-0.08799999999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>0.03797127392783861</v>
+        <v>0.037971515181489</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01102545507372144</v>
+        <v>0.01102545391641985</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.004193901074870943</v>
+        <v>-0.004194465735394837</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1449,7 +1449,7 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>131.2990264892578</v>
+        <v>131.2990570068359</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1457,19 +1457,19 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>1.102545507372144</v>
+        <v>1.102545391641985</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1602783473187095</v>
+        <v>0.1602797579463908</v>
       </c>
       <c r="P16" t="n">
-        <v>0.01096511783583331</v>
+        <v>0.01096511669115235</v>
       </c>
       <c r="Q16" t="n">
-        <v>14.86599309188705</v>
+        <v>14.86611466847491</v>
       </c>
       <c r="R16" t="n">
-        <v>116.027834731871</v>
+        <v>116.0279757946391</v>
       </c>
       <c r="S16" t="n">
         <v>-0</v>
@@ -1480,31 +1480,31 @@
         <v>41394</v>
       </c>
       <c r="B17" t="n">
-        <v>133.8216247558594</v>
+        <v>133.8215942382812</v>
       </c>
       <c r="C17" t="n">
-        <v>75.29837799072266</v>
+        <v>75.29838562011719</v>
       </c>
       <c r="D17" t="n">
-        <v>98.18251800537109</v>
+        <v>98.18248748779297</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2188909852675562</v>
+        <v>0.219</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1732447972197479</v>
+        <v>0.173</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1235794225439086</v>
+        <v>0.124</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01921261972805222</v>
+        <v>0.01921215040648749</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02466885820358833</v>
+        <v>0.0246688556424266</v>
       </c>
       <c r="J17" t="n">
-        <v>0.04684928680886391</v>
+        <v>0.04684896142196671</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>133.8216247558594</v>
+        <v>133.8215942382812</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -1520,19 +1520,19 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>1.921261972805222</v>
+        <v>1.921215040648749</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1825703339844367</v>
+        <v>0.1825712271696598</v>
       </c>
       <c r="P17" t="n">
-        <v>0.01903038775287739</v>
+        <v>0.01902992727813082</v>
       </c>
       <c r="Q17" t="n">
-        <v>16.76903186717479</v>
+        <v>16.76910739628799</v>
       </c>
       <c r="R17" t="n">
-        <v>118.2570333984437</v>
+        <v>118.257122716966</v>
       </c>
       <c r="S17" t="n">
         <v>-0</v>
@@ -1543,31 +1543,31 @@
         <v>41425</v>
       </c>
       <c r="B18" t="n">
-        <v>136.9810943603516</v>
+        <v>136.9810638427734</v>
       </c>
       <c r="C18" t="n">
-        <v>73.41554260253906</v>
+        <v>73.41555023193359</v>
       </c>
       <c r="D18" t="n">
-        <v>91.54443359375</v>
+        <v>91.54440307617188</v>
       </c>
       <c r="E18" t="n">
-        <v>0.275141556075325</v>
+        <v>0.275</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08046108547730679</v>
+        <v>0.08</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1814023060194785</v>
+        <v>-0.181</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02360955944344756</v>
+        <v>0.02360956482753052</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.02500499264958367</v>
+        <v>-0.02500499011602397</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.06760963709708434</v>
+        <v>-0.06760965811185426</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>136.9810943603516</v>
+        <v>136.9810638427734</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1583,19 +1583,19 @@
         </is>
       </c>
       <c r="N18" t="n">
-        <v>2.360955944344756</v>
+        <v>2.360956482753052</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2104902985806998</v>
+        <v>0.2104912192206942</v>
       </c>
       <c r="P18" t="n">
-        <v>0.02333516430194317</v>
+        <v>0.02333516956184221</v>
       </c>
       <c r="Q18" t="n">
-        <v>19.10254829736911</v>
+        <v>19.10262435247221</v>
       </c>
       <c r="R18" t="n">
-        <v>121.04902985807</v>
+        <v>121.0491219220694</v>
       </c>
       <c r="S18" t="n">
         <v>-0</v>
@@ -1606,7 +1606,7 @@
         <v>41455</v>
       </c>
       <c r="B19" t="n">
-        <v>135.1530914306641</v>
+        <v>135.1531524658203</v>
       </c>
       <c r="C19" t="n">
         <v>70.07767486572266</v>
@@ -1615,22 +1615,22 @@
         <v>88.54972076416016</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1622340042548936</v>
+        <v>0.162</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0965166631741734</v>
+        <v>-0.097</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1886095644015859</v>
+        <v>-0.189</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.01334492864306247</v>
+        <v>-0.01334426325562199</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.04546540989129688</v>
+        <v>-0.04546550908718872</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.0327132159982505</v>
+        <v>-0.03271289353997886</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>135.1530914306641</v>
+        <v>135.1531524658203</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -1646,22 +1646,22 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>-1.334492864306247</v>
+        <v>-1.334426325562199</v>
       </c>
       <c r="O19" t="n">
-        <v>0.194336391923021</v>
+        <v>0.1943381057227944</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.01343477240429987</v>
+        <v>-0.01343409801743922</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.75907105693912</v>
+        <v>17.75921455072829</v>
       </c>
       <c r="R19" t="n">
-        <v>119.4336391923021</v>
+        <v>119.4338105722794</v>
       </c>
       <c r="S19" t="n">
-        <v>-1.334492864306245</v>
+        <v>-1.334426325562204</v>
       </c>
     </row>
     <row r="20">
@@ -1669,31 +1669,31 @@
         <v>41486</v>
       </c>
       <c r="B20" t="n">
-        <v>142.1374816894531</v>
+        <v>142.1374359130859</v>
       </c>
       <c r="C20" t="n">
-        <v>73.70603942871094</v>
+        <v>73.7060546875</v>
       </c>
       <c r="D20" t="n">
-        <v>86.55030822753906</v>
+        <v>86.55032348632812</v>
       </c>
       <c r="E20" t="n">
-        <v>0.233628673551084</v>
+        <v>0.234</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02434575633868719</v>
+        <v>0.024</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.2082810118466002</v>
+        <v>-0.208</v>
       </c>
       <c r="H20" t="n">
-        <v>0.05167762116911834</v>
+        <v>0.0516768075316032</v>
       </c>
       <c r="I20" t="n">
-        <v>0.05177632633988893</v>
+        <v>0.05177654408097521</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.02257954648943783</v>
+        <v>-0.02257937417055378</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>142.1374816894531</v>
+        <v>142.1374359130859</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -1709,19 +1709,19 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>5.167762116911834</v>
+        <v>5.16768075316032</v>
       </c>
       <c r="O20" t="n">
-        <v>0.2560568555333105</v>
+        <v>0.2560576861398909</v>
       </c>
       <c r="P20" t="n">
-        <v>0.05038662359644482</v>
+        <v>0.05038584993937207</v>
       </c>
       <c r="Q20" t="n">
-        <v>22.7977334165836</v>
+        <v>22.79779954466549</v>
       </c>
       <c r="R20" t="n">
-        <v>125.605685553331</v>
+        <v>125.6057686139891</v>
       </c>
       <c r="S20" t="n">
         <v>-0</v>
@@ -1732,31 +1732,31 @@
         <v>41517</v>
       </c>
       <c r="B21" t="n">
-        <v>137.8743896484375</v>
+        <v>137.8744049072266</v>
       </c>
       <c r="C21" t="n">
         <v>72.96779632568359</v>
       </c>
       <c r="D21" t="n">
-        <v>85.39020538330078</v>
+        <v>85.39019775390625</v>
       </c>
       <c r="E21" t="n">
-        <v>0.06289741364937995</v>
+        <v>0.063</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01360805849156155</v>
+        <v>-0.014</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1789055333227519</v>
+        <v>-0.179</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.02999273654172219</v>
+        <v>-0.02999231679165881</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.01001604629348429</v>
+        <v>-0.01001625124213312</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.01340379795284374</v>
+        <v>-0.01340406003918793</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>137.8743896484375</v>
+        <v>137.8744049072266</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -1772,22 +1772,22 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>-2.999273654172219</v>
+        <v>-2.999231679165881</v>
       </c>
       <c r="O21" t="n">
-        <v>0.2183842731838759</v>
+        <v>0.2183856061085854</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.03045171941142691</v>
+        <v>-0.03045128668273675</v>
       </c>
       <c r="Q21" t="n">
-        <v>19.75256147544091</v>
+        <v>19.75267087639182</v>
       </c>
       <c r="R21" t="n">
-        <v>121.8384273183876</v>
+        <v>121.8385606108585</v>
       </c>
       <c r="S21" t="n">
-        <v>-2.99927365417222</v>
+        <v>-2.999231679165877</v>
       </c>
     </row>
     <row r="22">
@@ -1795,31 +1795,31 @@
         <v>41547</v>
       </c>
       <c r="B22" t="n">
-        <v>142.2376098632812</v>
+        <v>142.2376556396484</v>
       </c>
       <c r="C22" t="n">
-        <v>78.31179809570312</v>
+        <v>78.31180572509766</v>
       </c>
       <c r="D22" t="n">
-        <v>85.94675445556641</v>
+        <v>85.94671630859375</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1722663365843742</v>
+        <v>0.172</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2674862960053617</v>
+        <v>0.267</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.1191107122447164</v>
+        <v>-0.119</v>
       </c>
       <c r="H22" t="n">
-        <v>0.03164634292104163</v>
+        <v>0.03164656076200534</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0732378122832047</v>
+        <v>0.07323791684158421</v>
       </c>
       <c r="J22" t="n">
-        <v>0.00651771558303893</v>
+        <v>0.006517358775668614</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>78.31179809570312</v>
+        <v>78.31180572509766</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -1835,19 +1835,19 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.164634292104163</v>
+        <v>3.164656076200534</v>
       </c>
       <c r="O22" t="n">
-        <v>0.2569416797026569</v>
+        <v>0.2569433202238534</v>
       </c>
       <c r="P22" t="n">
-        <v>0.03115591735941997</v>
+        <v>0.03115612851796496</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.86815321138291</v>
+        <v>22.86828372818831</v>
       </c>
       <c r="R22" t="n">
-        <v>125.6941679702657</v>
+        <v>125.6943320223853</v>
       </c>
       <c r="S22" t="n">
         <v>-0</v>
@@ -1858,31 +1858,31 @@
         <v>41578</v>
       </c>
       <c r="B23" t="n">
-        <v>148.8241424560547</v>
+        <v>148.8242034912109</v>
       </c>
       <c r="C23" t="n">
-        <v>81.11032104492188</v>
+        <v>81.11032867431641</v>
       </c>
       <c r="D23" t="n">
-        <v>87.17617034912109</v>
+        <v>87.17610931396484</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1718750515361096</v>
+        <v>0.172</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1759904098335827</v>
+        <v>0.176</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.06551713404878656</v>
+        <v>-0.066</v>
       </c>
       <c r="H23" t="n">
-        <v>0.04630654718610927</v>
+        <v>0.04630663955998515</v>
       </c>
       <c r="I23" t="n">
-        <v>0.03573564925426354</v>
+        <v>0.03573564577277866</v>
       </c>
       <c r="J23" t="n">
-        <v>0.01430438998357153</v>
+        <v>0.0143041300258282</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>81.11032104492188</v>
+        <v>81.11032867431641</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -1898,19 +1898,19 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.573564925426354</v>
+        <v>3.573564577277866</v>
       </c>
       <c r="O23" t="n">
-        <v>0.301859306701576</v>
+        <v>0.3018610014718333</v>
       </c>
       <c r="P23" t="n">
-        <v>0.03511194646472471</v>
+        <v>0.03511194310336036</v>
       </c>
       <c r="Q23" t="n">
-        <v>26.37934785785539</v>
+        <v>26.37947803852435</v>
       </c>
       <c r="R23" t="n">
-        <v>130.1859306701576</v>
+        <v>130.1861001471833</v>
       </c>
       <c r="S23" t="n">
         <v>-0</v>
@@ -1924,28 +1924,28 @@
         <v>153.2350006103516</v>
       </c>
       <c r="C24" t="n">
-        <v>80.69254302978516</v>
+        <v>80.69251251220703</v>
       </c>
       <c r="D24" t="n">
-        <v>84.81959533691406</v>
+        <v>84.81957244873047</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2567853852068314</v>
+        <v>0.257</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1969427442557604</v>
+        <v>0.197</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1050906945233854</v>
+        <v>-0.105</v>
       </c>
       <c r="H24" t="n">
-        <v>0.02963805523421259</v>
+        <v>0.02963763296338495</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.005150738028830371</v>
+        <v>-0.005151207854021123</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.02703233008251538</v>
+        <v>-0.02703191142365968</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1961,22 +1961,22 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>-0.5150738028830371</v>
+        <v>-0.5151207854021123</v>
       </c>
       <c r="O24" t="n">
-        <v>0.2951537704623615</v>
+        <v>0.2951548448562078</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.005164048806509804</v>
+        <v>-0.005164521064287592</v>
       </c>
       <c r="Q24" t="n">
-        <v>25.8629429772044</v>
+        <v>25.86302593209559</v>
       </c>
       <c r="R24" t="n">
-        <v>129.5153770462362</v>
+        <v>129.5154844856208</v>
       </c>
       <c r="S24" t="n">
-        <v>-0.5150738028830371</v>
+        <v>-0.5151207854021082</v>
       </c>
     </row>
     <row r="25">
@@ -1990,25 +1990,25 @@
         <v>82.44141387939453</v>
       </c>
       <c r="D25" t="n">
-        <v>83.23373413085938</v>
+        <v>83.23372650146484</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2805114838167015</v>
+        <v>0.281</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2295525806618204</v>
+        <v>0.23</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.1072952970504497</v>
+        <v>-0.107</v>
       </c>
       <c r="H25" t="n">
         <v>0.02592644852445258</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02167326476454989</v>
+        <v>0.0216736511571991</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.01869687304867995</v>
+        <v>-0.0186966981969191</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2027,16 +2027,16 @@
         <v>2.592644852445258</v>
       </c>
       <c r="O25" t="n">
-        <v>0.3287325080235046</v>
+        <v>0.3287336102725675</v>
       </c>
       <c r="P25" t="n">
         <v>0.0255960565808997</v>
       </c>
       <c r="Q25" t="n">
-        <v>28.42254863529438</v>
+        <v>28.42263159018556</v>
       </c>
       <c r="R25" t="n">
-        <v>132.8732508023505</v>
+        <v>132.8733610272567</v>
       </c>
       <c r="S25" t="n">
         <v>-0</v>
@@ -2047,31 +2047,31 @@
         <v>41670</v>
       </c>
       <c r="B26" t="n">
-        <v>151.6665496826172</v>
+        <v>151.6665344238281</v>
       </c>
       <c r="C26" t="n">
-        <v>80.30310821533203</v>
+        <v>80.30308532714844</v>
       </c>
       <c r="D26" t="n">
-        <v>88.47972106933594</v>
+        <v>88.47974395751953</v>
       </c>
       <c r="E26" t="n">
-        <v>0.03448105503123344</v>
+        <v>0.034</v>
       </c>
       <c r="F26" t="n">
-        <v>0.03813281457438689</v>
+        <v>0.038</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1201126325371449</v>
+        <v>0.12</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.0352481802714667</v>
+        <v>-0.03524827733271418</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.02593727549591374</v>
+        <v>-0.02593755312559665</v>
       </c>
       <c r="J26" t="n">
-        <v>0.06302717273538239</v>
+        <v>0.06302754516178433</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2079,7 +2079,7 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>80.30310821533203</v>
+        <v>80.30308532714844</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -2087,22 +2087,22 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>-3.52481802714667</v>
+        <v>-3.524827733271418</v>
       </c>
       <c r="O26" t="n">
-        <v>0.281897105048134</v>
+        <v>0.2818980394763815</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.03588439234848034</v>
+        <v>-0.0358844929559634</v>
       </c>
       <c r="Q26" t="n">
-        <v>24.83410940044634</v>
+        <v>24.83418229458922</v>
       </c>
       <c r="R26" t="n">
-        <v>128.1897105048134</v>
+        <v>128.1898039476382</v>
       </c>
       <c r="S26" t="n">
-        <v>-3.524818027146672</v>
+        <v>-3.524827733271421</v>
       </c>
     </row>
     <row r="27">
@@ -2110,31 +2110,31 @@
         <v>41698</v>
       </c>
       <c r="B27" t="n">
-        <v>158.5697326660156</v>
+        <v>158.5697631835938</v>
       </c>
       <c r="C27" t="n">
-        <v>86.06131744384766</v>
+        <v>86.06135559082031</v>
       </c>
       <c r="D27" t="n">
         <v>88.94342803955078</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2353255061430897</v>
+        <v>0.235</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3191807514338456</v>
+        <v>0.319</v>
       </c>
       <c r="G27" t="n">
-        <v>0.09929220300563157</v>
+        <v>0.099</v>
       </c>
       <c r="H27" t="n">
-        <v>0.04551552730542285</v>
+        <v>0.04551583370709023</v>
       </c>
       <c r="I27" t="n">
-        <v>0.07170593214244003</v>
+        <v>0.07170671264015738</v>
       </c>
       <c r="J27" t="n">
-        <v>0.005240827667748471</v>
+        <v>0.005240567629285486</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>86.06131744384766</v>
+        <v>86.06135559082031</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2150,19 +2150,19 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>7.170593214244003</v>
+        <v>7.170671264015738</v>
       </c>
       <c r="O27" t="n">
-        <v>0.3738167318763059</v>
+        <v>0.3738187338270955</v>
       </c>
       <c r="P27" t="n">
-        <v>0.06925170798550528</v>
+        <v>0.06925243626124747</v>
       </c>
       <c r="Q27" t="n">
-        <v>31.75928019899687</v>
+        <v>31.75942592071397</v>
       </c>
       <c r="R27" t="n">
-        <v>137.3816731876306</v>
+        <v>137.3818733827096</v>
       </c>
       <c r="S27" t="n">
         <v>-0</v>
@@ -2176,28 +2176,28 @@
         <v>159.8851470947266</v>
       </c>
       <c r="C28" t="n">
-        <v>85.58084106445312</v>
+        <v>85.58081817626953</v>
       </c>
       <c r="D28" t="n">
-        <v>89.59459686279297</v>
+        <v>89.59463500976562</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1416228167455535</v>
+        <v>0.142</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1131361083379988</v>
+        <v>0.113</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1277802382345197</v>
+        <v>0.128</v>
       </c>
       <c r="H28" t="n">
-        <v>0.008295495026667599</v>
+        <v>0.008295300974939579</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.005582954034000553</v>
+        <v>-0.005583660764484133</v>
       </c>
       <c r="J28" t="n">
-        <v>0.007321157252367483</v>
+        <v>0.007321586142657655</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2213,22 +2213,22 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>-0.5582954034000553</v>
+        <v>-0.5583660764484133</v>
       </c>
       <c r="O28" t="n">
-        <v>0.3661467762110997</v>
+        <v>0.366147796065512</v>
       </c>
       <c r="P28" t="n">
-        <v>-0.005598596971576489</v>
+        <v>-0.005599307670108441</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.19942050183922</v>
+        <v>31.19949515370312</v>
       </c>
       <c r="R28" t="n">
-        <v>136.61467762111</v>
+        <v>136.6147796065512</v>
       </c>
       <c r="S28" t="n">
-        <v>-0.5582954034000518</v>
+        <v>-0.5583660764484089</v>
       </c>
     </row>
     <row r="29">
@@ -2242,25 +2242,25 @@
         <v>86.45378112792969</v>
       </c>
       <c r="D29" t="n">
-        <v>91.47184753417969</v>
+        <v>91.47183227539062</v>
       </c>
       <c r="E29" t="n">
-        <v>0.141461682510877</v>
+        <v>0.141</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1481990079649202</v>
+        <v>0.148</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1224476997619584</v>
+        <v>0.122</v>
       </c>
       <c r="H29" t="n">
         <v>0.006951553759111828</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01020018093558028</v>
+        <v>0.01020045110882362</v>
       </c>
       <c r="J29" t="n">
-        <v>0.02095272189528985</v>
+        <v>0.02095211689204812</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2279,16 +2279,16 @@
         <v>0.6951553759111828</v>
       </c>
       <c r="O29" t="n">
-        <v>0.3756436189687684</v>
+        <v>0.3756446459127536</v>
       </c>
       <c r="P29" t="n">
         <v>0.006927503104561144</v>
       </c>
       <c r="Q29" t="n">
-        <v>31.89217081229533</v>
+        <v>31.89224546415923</v>
       </c>
       <c r="R29" t="n">
-        <v>137.5643618968768</v>
+        <v>137.5644645912754</v>
       </c>
       <c r="S29" t="n">
         <v>-0</v>
@@ -2299,31 +2299,31 @@
         <v>41790</v>
       </c>
       <c r="B30" t="n">
-        <v>164.7327575683594</v>
+        <v>164.7327728271484</v>
       </c>
       <c r="C30" t="n">
-        <v>87.60702514648438</v>
+        <v>87.60701751708984</v>
       </c>
       <c r="D30" t="n">
-        <v>94.16979217529297</v>
+        <v>94.16985321044922</v>
       </c>
       <c r="E30" t="n">
-        <v>0.137106283875835</v>
+        <v>0.137</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1169892009225855</v>
+        <v>0.117</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1984916338424862</v>
+        <v>0.198</v>
       </c>
       <c r="H30" t="n">
-        <v>0.02320645492643258</v>
+        <v>0.02320654970352298</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01333942834551305</v>
+        <v>0.01333934009726723</v>
       </c>
       <c r="J30" t="n">
-        <v>0.02949480866345411</v>
+        <v>0.02949564765397694</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>164.7327575683594</v>
+        <v>164.7327728271484</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -2339,19 +2339,19 @@
         </is>
       </c>
       <c r="N30" t="n">
-        <v>1.333942834551305</v>
+        <v>1.333934009726723</v>
       </c>
       <c r="O30" t="n">
-        <v>0.3939939184529646</v>
+        <v>0.3939948376975686</v>
       </c>
       <c r="P30" t="n">
-        <v>0.01325124154658275</v>
+        <v>0.01325115446001807</v>
       </c>
       <c r="Q30" t="n">
-        <v>33.21729496695361</v>
+        <v>33.21736091016104</v>
       </c>
       <c r="R30" t="n">
-        <v>139.3993918452965</v>
+        <v>139.3994837697569</v>
       </c>
       <c r="S30" t="n">
         <v>-0</v>
@@ -2362,31 +2362,31 @@
         <v>41820</v>
       </c>
       <c r="B31" t="n">
-        <v>168.1336822509766</v>
+        <v>168.1336669921875</v>
       </c>
       <c r="C31" t="n">
-        <v>89.62921142578125</v>
+        <v>89.62921905517578</v>
       </c>
       <c r="D31" t="n">
-        <v>93.93319702148438</v>
+        <v>93.93318939208984</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1348076822566027</v>
+        <v>0.135</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1479604425818233</v>
+        <v>0.148</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1834963905930297</v>
+        <v>0.183</v>
       </c>
       <c r="H31" t="n">
-        <v>0.02064510260629793</v>
+        <v>0.02064491543894276</v>
       </c>
       <c r="I31" t="n">
-        <v>0.02308246714136963</v>
+        <v>0.02308264332467957</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.002512431516979219</v>
+        <v>-0.002513159044970403</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>89.62921142578125</v>
+        <v>89.62921905517578</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -2402,19 +2402,19 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>2.064510260629793</v>
+        <v>2.064491543894276</v>
       </c>
       <c r="O31" t="n">
-        <v>0.4227730659319813</v>
+        <v>0.4227737432441576</v>
       </c>
       <c r="P31" t="n">
-        <v>0.02043488091731521</v>
+        <v>0.02043469753587159</v>
       </c>
       <c r="Q31" t="n">
-        <v>35.26078305868513</v>
+        <v>35.2608306637482</v>
       </c>
       <c r="R31" t="n">
-        <v>142.2773065931981</v>
+        <v>142.2773743244158</v>
       </c>
       <c r="S31" t="n">
         <v>-0</v>
@@ -2428,28 +2428,28 @@
         <v>165.8743438720703</v>
       </c>
       <c r="C32" t="n">
-        <v>86.91999816894531</v>
+        <v>86.92000579833984</v>
       </c>
       <c r="D32" t="n">
-        <v>94.55702209472656</v>
+        <v>94.55703735351562</v>
       </c>
       <c r="E32" t="n">
-        <v>0.105347690786859</v>
+        <v>0.105</v>
       </c>
       <c r="F32" t="n">
-        <v>0.04380207900758182</v>
+        <v>0.044</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1003212884124924</v>
+        <v>0.1</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.01343774994194014</v>
+        <v>-0.01343766040755046</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.03022690051311383</v>
+        <v>-0.03022689794014766</v>
       </c>
       <c r="J32" t="n">
-        <v>0.006641156620055266</v>
+        <v>0.006641400823959698</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2465,22 +2465,22 @@
         </is>
       </c>
       <c r="N32" t="n">
-        <v>-3.022690051311383</v>
+        <v>-3.022689794014766</v>
       </c>
       <c r="O32" t="n">
-        <v>0.3797670460153173</v>
+        <v>0.3797677065151945</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.03069315290256047</v>
+        <v>-0.03069315024939741</v>
       </c>
       <c r="Q32" t="n">
-        <v>32.19146776842909</v>
+        <v>32.19151563880846</v>
       </c>
       <c r="R32" t="n">
-        <v>137.9767046015317</v>
+        <v>137.9767706515194</v>
       </c>
       <c r="S32" t="n">
-        <v>-3.022690051311385</v>
+        <v>-3.022689794014771</v>
       </c>
     </row>
     <row r="33">
@@ -2488,31 +2488,31 @@
         <v>41882</v>
       </c>
       <c r="B33" t="n">
-        <v>172.4202880859375</v>
+        <v>172.4203491210938</v>
       </c>
       <c r="C33" t="n">
-        <v>88.18592834472656</v>
+        <v>88.1859130859375</v>
       </c>
       <c r="D33" t="n">
         <v>99.02368927001953</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1529491510346266</v>
+        <v>0.153</v>
       </c>
       <c r="F33" t="n">
-        <v>0.02874169178846786</v>
+        <v>0.029</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2090007502907281</v>
+        <v>0.209</v>
       </c>
       <c r="H33" t="n">
-        <v>0.03946327117902992</v>
+        <v>0.03946363913922712</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0145643143401899</v>
+        <v>0.01456404973711867</v>
       </c>
       <c r="J33" t="n">
-        <v>0.04723781562006346</v>
+        <v>0.04723764662596874</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -2520,7 +2520,7 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>172.4202880859375</v>
+        <v>172.4203491210938</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -2528,19 +2528,19 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.946327117902992</v>
+        <v>3.946363913922712</v>
       </c>
       <c r="O33" t="n">
-        <v>0.4342171671161088</v>
+        <v>0.4342183613810693</v>
       </c>
       <c r="P33" t="n">
-        <v>0.03870449453059335</v>
+        <v>0.03870484852110198</v>
       </c>
       <c r="Q33" t="n">
-        <v>36.06191722148841</v>
+        <v>36.06200049091866</v>
       </c>
       <c r="R33" t="n">
-        <v>143.4217167116109</v>
+        <v>143.4218361381069</v>
       </c>
       <c r="S33" t="n">
         <v>-0</v>
@@ -2551,31 +2551,31 @@
         <v>41912</v>
       </c>
       <c r="B34" t="n">
-        <v>170.0415802001953</v>
+        <v>170.0415649414062</v>
       </c>
       <c r="C34" t="n">
-        <v>82.65610504150391</v>
+        <v>82.65611267089844</v>
       </c>
       <c r="D34" t="n">
-        <v>96.93198394775391</v>
+        <v>96.9320068359375</v>
       </c>
       <c r="E34" t="n">
-        <v>0.04419783641548969</v>
+        <v>0.044</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.1928392439736166</v>
+        <v>-0.193</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1234967498507737</v>
+        <v>0.123</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.01379598603011611</v>
+        <v>-0.01379642363452616</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.06270641367640983</v>
+        <v>-0.06270616498181802</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.0211232820922469</v>
+        <v>-0.02112305095378131</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>170.0415802001953</v>
+        <v>170.0415649414062</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -2591,22 +2591,22 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>-1.379598603011611</v>
+        <v>-1.379642363452616</v>
       </c>
       <c r="O34" t="n">
-        <v>0.4144307271144223</v>
+        <v>0.4144312772830401</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.01389203506260898</v>
+        <v>-0.01389247878875583</v>
       </c>
       <c r="Q34" t="n">
-        <v>34.67271371522752</v>
+        <v>34.67275261204307</v>
       </c>
       <c r="R34" t="n">
-        <v>141.4430727114422</v>
+        <v>141.443127728304</v>
       </c>
       <c r="S34" t="n">
-        <v>-1.379598603011608</v>
+        <v>-1.379642363452619</v>
       </c>
     </row>
     <row r="35">
@@ -2617,28 +2617,28 @@
         <v>174.0461883544922</v>
       </c>
       <c r="C35" t="n">
-        <v>81.42594146728516</v>
+        <v>81.42591857910156</v>
       </c>
       <c r="D35" t="n">
-        <v>99.66407012939453</v>
+        <v>99.66408538818359</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1725861170369631</v>
+        <v>0.173</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.1241693874072858</v>
+        <v>-0.124</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1259363241223728</v>
+        <v>0.126</v>
       </c>
       <c r="H35" t="n">
-        <v>0.02355075828854414</v>
+        <v>0.02355085013752878</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.01488291244308027</v>
+        <v>-0.0148832802807336</v>
       </c>
       <c r="J35" t="n">
-        <v>0.02818560056619912</v>
+        <v>0.02818551520211776</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -2654,19 +2654,19 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>2.355075828854414</v>
+        <v>2.355085013752878</v>
       </c>
       <c r="O35" t="n">
-        <v>0.4477416432845838</v>
+        <v>0.4477423363241664</v>
       </c>
       <c r="P35" t="n">
-        <v>0.02327771774594043</v>
+        <v>0.02327780748157862</v>
       </c>
       <c r="Q35" t="n">
-        <v>37.00048548982156</v>
+        <v>37.00053336020094</v>
       </c>
       <c r="R35" t="n">
-        <v>144.7741643284584</v>
+        <v>144.7742336324166</v>
       </c>
       <c r="S35" t="n">
         <v>-0</v>
@@ -2677,31 +2677,31 @@
         <v>41973</v>
       </c>
       <c r="B36" t="n">
-        <v>178.8275909423828</v>
+        <v>178.8276062011719</v>
       </c>
       <c r="C36" t="n">
-        <v>79.88820648193359</v>
+        <v>79.88824462890625</v>
       </c>
       <c r="D36" t="n">
-        <v>102.6215286254883</v>
+        <v>102.6214828491211</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1686062278159031</v>
+        <v>0.169</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.1898414371129601</v>
+        <v>-0.19</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1539472334134881</v>
+        <v>0.154</v>
       </c>
       <c r="H36" t="n">
-        <v>0.02747203275806309</v>
+        <v>0.02747212042898073</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.01888507467818945</v>
+        <v>-0.01888433040766413</v>
       </c>
       <c r="J36" t="n">
-        <v>0.02967426969673292</v>
+        <v>0.02967365274480449</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -2709,7 +2709,7 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>178.8275909423828</v>
+        <v>178.8276062011719</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -2717,19 +2717,19 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>2.747203275806309</v>
+        <v>2.747212042898073</v>
       </c>
       <c r="O36" t="n">
-        <v>0.4875140491341099</v>
+        <v>0.4875148881377978</v>
       </c>
       <c r="P36" t="n">
-        <v>0.02710144829087045</v>
+        <v>0.02710153361768335</v>
       </c>
       <c r="Q36" t="n">
-        <v>39.71063031890861</v>
+        <v>39.71068672196927</v>
       </c>
       <c r="R36" t="n">
-        <v>148.751404913411</v>
+        <v>148.7514888137798</v>
       </c>
       <c r="S36" t="n">
         <v>-0</v>
@@ -2740,31 +2740,31 @@
         <v>42004</v>
       </c>
       <c r="B37" t="n">
-        <v>178.3739624023438</v>
+        <v>178.3739776611328</v>
       </c>
       <c r="C37" t="n">
-        <v>78.27326965332031</v>
+        <v>78.27327728271484</v>
       </c>
       <c r="D37" t="n">
-        <v>105.9580764770508</v>
+        <v>105.9580688476562</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1153241283232975</v>
+        <v>0.115</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.189674267342961</v>
+        <v>-0.19</v>
       </c>
       <c r="G37" t="n">
-        <v>0.27430445185247</v>
+        <v>0.274</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.002536680931888302</v>
+        <v>-0.002536680715441442</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.02021495912514315</v>
+        <v>-0.02021533147577836</v>
       </c>
       <c r="J37" t="n">
-        <v>0.03251313731389693</v>
+        <v>0.03251352354205173</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>178.3739624023438</v>
+        <v>178.3739776611328</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -2780,22 +2780,22 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>-0.2536680931888302</v>
+        <v>-0.2536680715441442</v>
       </c>
       <c r="O37" t="n">
-        <v>0.4837407006097554</v>
+        <v>0.4837415378071266</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.002539903758305294</v>
+        <v>-0.002539903541307981</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.45663994307807</v>
+        <v>39.45669636783848</v>
       </c>
       <c r="R37" t="n">
-        <v>148.3740700609755</v>
+        <v>148.3741537807126</v>
       </c>
       <c r="S37" t="n">
-        <v>-0.2536680931888342</v>
+        <v>-0.2536680715441429</v>
       </c>
     </row>
     <row r="38">
@@ -2803,31 +2803,31 @@
         <v>42035</v>
       </c>
       <c r="B38" t="n">
-        <v>173.0888824462891</v>
+        <v>173.0888977050781</v>
       </c>
       <c r="C38" t="n">
-        <v>77.78876495361328</v>
+        <v>77.78872680664062</v>
       </c>
       <c r="D38" t="n">
-        <v>116.3586807250977</v>
+        <v>116.3587265014648</v>
       </c>
       <c r="E38" t="n">
-        <v>0.01156279712328345</v>
+        <v>0.012</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.1507347248187283</v>
+        <v>-0.151</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4867798939064574</v>
+        <v>0.487</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.02962921204908575</v>
+        <v>-0.02962920951449011</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.00618991262091062</v>
+        <v>-0.006190496845099203</v>
       </c>
       <c r="J38" t="n">
-        <v>0.09815772986686411</v>
+        <v>0.09815824096192616</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>173.0888824462891</v>
+        <v>173.0888977050781</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -2843,22 +2843,22 @@
         </is>
       </c>
       <c r="N38" t="n">
-        <v>-2.962921204908575</v>
+        <v>-2.962920951449011</v>
       </c>
       <c r="O38" t="n">
-        <v>0.43977863276553</v>
+        <v>0.4397794489180875</v>
       </c>
       <c r="P38" t="n">
-        <v>-0.03007702490627566</v>
+        <v>-0.03007702229428891</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.44893745245051</v>
+        <v>36.44899413840958</v>
       </c>
       <c r="R38" t="n">
-        <v>143.977863276553</v>
+        <v>143.9779448918088</v>
       </c>
       <c r="S38" t="n">
-        <v>-3.209073312374223</v>
+        <v>-3.209073038554234</v>
       </c>
     </row>
     <row r="39">
@@ -2866,31 +2866,31 @@
         <v>42063</v>
       </c>
       <c r="B39" t="n">
-        <v>182.8173217773438</v>
+        <v>182.8172760009766</v>
       </c>
       <c r="C39" t="n">
-        <v>82.67520141601562</v>
+        <v>82.67517852783203</v>
       </c>
       <c r="D39" t="n">
         <v>109.2161560058594</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1351745472652444</v>
+        <v>0.135</v>
       </c>
       <c r="F39" t="n">
-        <v>0.03566210245442991</v>
+        <v>0.036</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1161703889356843</v>
+        <v>0.116</v>
       </c>
       <c r="H39" t="n">
-        <v>0.05620487690232512</v>
+        <v>0.05620451932436699</v>
       </c>
       <c r="I39" t="n">
-        <v>0.06281673793530729</v>
+        <v>0.06281696489695299</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.06138368598482824</v>
+        <v>-0.06138405524329582</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>182.8173217773438</v>
+        <v>182.8172760009766</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -2906,19 +2906,19 @@
         </is>
       </c>
       <c r="N39" t="n">
-        <v>5.620487690232512</v>
+        <v>5.620451932436699</v>
       </c>
       <c r="O39" t="n">
-        <v>0.5207012135867146</v>
+        <v>0.5207015607776306</v>
       </c>
       <c r="P39" t="n">
-        <v>0.05468217868424415</v>
+        <v>0.05468184013437898</v>
       </c>
       <c r="Q39" t="n">
-        <v>41.91715532087492</v>
+        <v>41.91717815184748</v>
       </c>
       <c r="R39" t="n">
-        <v>152.0701213586715</v>
+        <v>152.0701560777631</v>
       </c>
       <c r="S39" t="n">
         <v>-0</v>
@@ -2929,31 +2929,31 @@
         <v>42094</v>
       </c>
       <c r="B40" t="n">
-        <v>179.9460296630859</v>
+        <v>179.9459991455078</v>
       </c>
       <c r="C40" t="n">
-        <v>81.57051086425781</v>
+        <v>81.57054138183594</v>
       </c>
       <c r="D40" t="n">
-        <v>110.4090194702148</v>
+        <v>110.409065246582</v>
       </c>
       <c r="E40" t="n">
-        <v>0.06572751303784974</v>
+        <v>0.066</v>
       </c>
       <c r="F40" t="n">
-        <v>0.03343446432330288</v>
+        <v>0.033</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1801172491949858</v>
+        <v>0.18</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.01570579902573355</v>
+        <v>-0.01570571949367305</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.01336181264559722</v>
+        <v>-0.0133611703738169</v>
       </c>
       <c r="J40" t="n">
-        <v>0.01092204219576698</v>
+        <v>0.01092246133125818</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>179.9460296630859</v>
+        <v>179.9459991455078</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -2969,22 +2969,22 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>-1.570579902573355</v>
+        <v>-1.570571949367305</v>
       </c>
       <c r="O40" t="n">
-        <v>0.4968173859479326</v>
+        <v>0.4968178486304664</v>
       </c>
       <c r="P40" t="n">
-        <v>-0.01583044188696548</v>
+        <v>-0.01583036108586231</v>
       </c>
       <c r="Q40" t="n">
-        <v>40.33411113217837</v>
+        <v>40.33414204326125</v>
       </c>
       <c r="R40" t="n">
-        <v>149.6817385947932</v>
+        <v>149.6817848630466</v>
       </c>
       <c r="S40" t="n">
-        <v>-1.570579902573355</v>
+        <v>-1.570571949367302</v>
       </c>
     </row>
     <row r="41">
@@ -2992,31 +2992,31 @@
         <v>42124</v>
       </c>
       <c r="B41" t="n">
-        <v>181.7155609130859</v>
+        <v>181.7156066894531</v>
       </c>
       <c r="C41" t="n">
-        <v>86.12323760986328</v>
+        <v>86.12321472167969</v>
       </c>
       <c r="D41" t="n">
-        <v>106.6273498535156</v>
+        <v>106.6273727416992</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1037384216216584</v>
+        <v>0.104</v>
       </c>
       <c r="F41" t="n">
-        <v>0.220643716550762</v>
+        <v>0.221</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.04801613880676425</v>
+        <v>-0.048</v>
       </c>
       <c r="H41" t="n">
-        <v>0.009833677649421446</v>
+        <v>0.009834103299592556</v>
       </c>
       <c r="I41" t="n">
-        <v>0.05581339012552844</v>
+        <v>0.05581271452560865</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.03425145549562103</v>
+        <v>-0.03425164859821039</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>86.12323760986328</v>
+        <v>86.12321472167969</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3032,22 +3032,22 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>0.9833677649421446</v>
+        <v>0.9834103299592556</v>
       </c>
       <c r="O41" t="n">
-        <v>0.5115366056213941</v>
+        <v>0.5115377099745724</v>
       </c>
       <c r="P41" t="n">
-        <v>0.009785641698021373</v>
+        <v>0.009786063203157143</v>
       </c>
       <c r="Q41" t="n">
-        <v>41.31267530198051</v>
+        <v>41.31274836357697</v>
       </c>
       <c r="R41" t="n">
-        <v>151.1536605621394</v>
+        <v>151.1537709974572</v>
       </c>
       <c r="S41" t="n">
-        <v>-0.6026567141157798</v>
+        <v>-0.602606786197563</v>
       </c>
     </row>
     <row r="42">
@@ -3055,31 +3055,31 @@
         <v>42155</v>
       </c>
       <c r="B42" t="n">
-        <v>184.0518035888672</v>
+        <v>184.0517730712891</v>
       </c>
       <c r="C42" t="n">
-        <v>86.27936553955078</v>
+        <v>86.27935028076172</v>
       </c>
       <c r="D42" t="n">
-        <v>104.09765625</v>
+        <v>104.0976333618164</v>
       </c>
       <c r="E42" t="n">
-        <v>0.03867308178548723</v>
+        <v>0.039</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1190446898605575</v>
+        <v>0.119</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.0544977965944915</v>
+        <v>-0.054</v>
       </c>
       <c r="H42" t="n">
-        <v>0.01285659116941917</v>
+        <v>0.01285616807712264</v>
       </c>
       <c r="I42" t="n">
-        <v>0.001812843246729257</v>
+        <v>0.001812932315480964</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.02372462231304551</v>
+        <v>-0.02372504653201024</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>86.27936553955078</v>
+        <v>86.27935028076172</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -3095,22 +3095,22 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>0.1812843246729257</v>
+        <v>0.1812932315480964</v>
       </c>
       <c r="O42" t="n">
-        <v>0.514276784549079</v>
+        <v>0.5142780255350534</v>
       </c>
       <c r="P42" t="n">
-        <v>0.001811202029624187</v>
+        <v>0.001811290937196443</v>
       </c>
       <c r="Q42" t="n">
-        <v>41.49379550494293</v>
+        <v>41.49387745729661</v>
       </c>
       <c r="R42" t="n">
-        <v>151.4276784549079</v>
+        <v>151.4278025535053</v>
       </c>
       <c r="S42" t="n">
-        <v>-0.4224649115971319</v>
+        <v>-0.4224060399656891</v>
       </c>
     </row>
     <row r="43">
@@ -3118,31 +3118,31 @@
         <v>42185</v>
       </c>
       <c r="B43" t="n">
-        <v>180.3132629394531</v>
+        <v>180.3132934570312</v>
       </c>
       <c r="C43" t="n">
         <v>84.31671905517578</v>
       </c>
       <c r="D43" t="n">
-        <v>99.85879516601562</v>
+        <v>99.85880279541016</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.003843304108892776</v>
+        <v>-0.004</v>
       </c>
       <c r="F43" t="n">
-        <v>0.08017208006765753</v>
+        <v>0.08</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.2055645964647181</v>
+        <v>-0.206</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.02031243691458284</v>
+        <v>-0.02031210866308675</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.0227475766899945</v>
+        <v>-0.02274740385966445</v>
       </c>
       <c r="J43" t="n">
-        <v>-0.04072004343502567</v>
+        <v>-0.04071975922519944</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -3158,22 +3158,22 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>-2.27475766899945</v>
+        <v>-2.274740385966445</v>
       </c>
       <c r="O43" t="n">
-        <v>0.4798306572626705</v>
+        <v>0.4798321317323924</v>
       </c>
       <c r="P43" t="n">
-        <v>-0.02301029458842723</v>
+        <v>-0.0230101177351285</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.19276604610021</v>
+        <v>39.19286568378376</v>
       </c>
       <c r="R43" t="n">
-        <v>147.9830657262671</v>
+        <v>147.9832131732392</v>
       </c>
       <c r="S43" t="n">
-        <v>-2.687612527621198</v>
+        <v>-2.687537785148268</v>
       </c>
     </row>
     <row r="44">
@@ -3181,31 +3181,31 @@
         <v>42216</v>
       </c>
       <c r="B44" t="n">
-        <v>184.3864288330078</v>
+        <v>184.3863983154297</v>
       </c>
       <c r="C44" t="n">
         <v>81.85140991210938</v>
       </c>
       <c r="D44" t="n">
-        <v>104.3983535766602</v>
+        <v>104.3984069824219</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0835434642951749</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.03009721514913599</v>
+        <v>-0.03</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.05056860620059633</v>
+        <v>-0.051</v>
       </c>
       <c r="H44" t="n">
-        <v>0.02258938597834814</v>
+        <v>0.02258904366010639</v>
       </c>
       <c r="I44" t="n">
         <v>-0.02923867497089327</v>
       </c>
       <c r="J44" t="n">
-        <v>0.04545977550697966</v>
+        <v>0.04546023044470515</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>184.3864288330078</v>
+        <v>184.3863983154297</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -3224,19 +3224,19 @@
         <v>-2.923867497089327</v>
       </c>
       <c r="O44" t="n">
-        <v>0.4365623696630039</v>
+        <v>0.4365638010211847</v>
       </c>
       <c r="P44" t="n">
         <v>-0.0296746441709817</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.22530162900204</v>
+        <v>36.22540126668559</v>
       </c>
       <c r="R44" t="n">
-        <v>143.6562369663004</v>
+        <v>143.6563801021185</v>
       </c>
       <c r="S44" t="n">
-        <v>-5.53289779556771</v>
+        <v>-5.532825238465655</v>
       </c>
     </row>
     <row r="45">
@@ -3244,31 +3244,31 @@
         <v>42247</v>
       </c>
       <c r="B45" t="n">
-        <v>173.1480407714844</v>
+        <v>173.1480102539062</v>
       </c>
       <c r="C45" t="n">
-        <v>77.20207214355469</v>
+        <v>77.20207977294922</v>
       </c>
       <c r="D45" t="n">
-        <v>103.6785354614258</v>
+        <v>103.6785507202148</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.1721252482477753</v>
+        <v>-0.172</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.2268782348847569</v>
+        <v>-0.227</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.01532781092690239</v>
+        <v>-0.015</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.06095019103440436</v>
+        <v>-0.06095020112219951</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.05680217083061934</v>
+        <v>-0.05680207762031864</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.00689491826809141</v>
+        <v>-0.006895280138979887</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>103.6785354614258</v>
+        <v>103.6785507202148</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -3284,22 +3284,22 @@
         </is>
       </c>
       <c r="N45" t="n">
-        <v>-6.095019103440436</v>
+        <v>-6.095020112219951</v>
       </c>
       <c r="O45" t="n">
-        <v>0.3490036187992072</v>
+        <v>0.349004948424072</v>
       </c>
       <c r="P45" t="n">
-        <v>-0.06288675648889891</v>
+        <v>-0.06288676723145496</v>
       </c>
       <c r="Q45" t="n">
-        <v>29.93662598011215</v>
+        <v>29.93672454354009</v>
       </c>
       <c r="R45" t="n">
-        <v>134.9003618799207</v>
+        <v>134.9004948424072</v>
       </c>
       <c r="S45" t="n">
-        <v>-11.29068572139446</v>
+        <v>-11.29061853962715</v>
       </c>
     </row>
     <row r="46">
@@ -3307,31 +3307,31 @@
         <v>42277</v>
       </c>
       <c r="B46" t="n">
-        <v>168.7299957275391</v>
+        <v>168.7300109863281</v>
       </c>
       <c r="C46" t="n">
-        <v>75.41107177734375</v>
+        <v>75.41107940673828</v>
       </c>
       <c r="D46" t="n">
-        <v>105.7177886962891</v>
+        <v>105.7178192138672</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.1587210391706405</v>
+        <v>-0.159</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.22276049339551</v>
+        <v>-0.223</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04452937611040764</v>
+        <v>0.045</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.0255159978955587</v>
+        <v>-0.0255157380156984</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.02319886392272774</v>
+        <v>-0.02319886163013041</v>
       </c>
       <c r="J46" t="n">
-        <v>0.01966900116583914</v>
+        <v>0.01966914544509279</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -3339,7 +3339,7 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>105.7177886962891</v>
+        <v>105.7178192138672</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -3347,22 +3347,22 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>1.966900116583914</v>
+        <v>1.966914544509279</v>
       </c>
       <c r="O46" t="n">
-        <v>0.37553717255009</v>
+        <v>0.375538722960775</v>
       </c>
       <c r="P46" t="n">
-        <v>0.01947806597090852</v>
+        <v>0.01947820746706392</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.884432577203</v>
+        <v>31.88454529024648</v>
       </c>
       <c r="R46" t="n">
-        <v>137.553717255009</v>
+        <v>137.5538722960775</v>
       </c>
       <c r="S46" t="n">
-        <v>-9.545862115427775</v>
+        <v>-9.545780813338862</v>
       </c>
     </row>
     <row r="47">
@@ -3370,31 +3370,31 @@
         <v>42308</v>
       </c>
       <c r="B47" t="n">
-        <v>183.0820922851562</v>
+        <v>183.0821228027344</v>
       </c>
       <c r="C47" t="n">
-        <v>78.95297241210938</v>
+        <v>78.95298767089844</v>
       </c>
       <c r="D47" t="n">
-        <v>105.2855911254883</v>
+        <v>105.2856140136719</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0747000249854487</v>
+        <v>0.075</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.07414157730699855</v>
+        <v>-0.074</v>
       </c>
       <c r="G47" t="n">
-        <v>0.005300352784721851</v>
+        <v>0.005</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0850595443669222</v>
+        <v>0.08505962710788406</v>
       </c>
       <c r="I47" t="n">
-        <v>0.04696791268559775</v>
+        <v>0.04696800910455701</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.004088219930918346</v>
+        <v>-0.004088290918307314</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>183.0820922851562</v>
+        <v>183.0821228027344</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -3410,22 +3410,22 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>-0.4088219930918346</v>
+        <v>-0.4088290918307314</v>
       </c>
       <c r="O47" t="n">
-        <v>0.3699136740655518</v>
+        <v>0.3699151204919144</v>
       </c>
       <c r="P47" t="n">
-        <v>-0.00409659954829705</v>
+        <v>-0.004096670827091937</v>
       </c>
       <c r="Q47" t="n">
-        <v>31.47477262237329</v>
+        <v>31.47487820753729</v>
       </c>
       <c r="R47" t="n">
-        <v>136.9913674065552</v>
+        <v>136.9915120491914</v>
       </c>
       <c r="S47" t="n">
-        <v>-9.915658524761515</v>
+        <v>-9.915583976162264</v>
       </c>
     </row>
     <row r="48">
@@ -3433,31 +3433,31 @@
         <v>42338</v>
       </c>
       <c r="B48" t="n">
-        <v>183.7513580322266</v>
+        <v>183.7513122558594</v>
       </c>
       <c r="C48" t="n">
-        <v>79.1192626953125</v>
+        <v>79.11924743652344</v>
       </c>
       <c r="D48" t="n">
-        <v>104.3720397949219</v>
+        <v>104.3720779418945</v>
       </c>
       <c r="E48" t="n">
-        <v>0.09223721740374646</v>
+        <v>0.092</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.03743088564212005</v>
+        <v>-0.037</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03547262876067248</v>
+        <v>0.035</v>
       </c>
       <c r="H48" t="n">
-        <v>0.003655550025219778</v>
+        <v>0.003655132696085417</v>
       </c>
       <c r="I48" t="n">
-        <v>0.002106194081397561</v>
+        <v>0.002105807145867944</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.008676888459291265</v>
+        <v>-0.008676741645432307</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>183.7513580322266</v>
+        <v>183.7513122558594</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -3473,22 +3473,22 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>0.3655550025219778</v>
+        <v>0.3655132696085417</v>
       </c>
       <c r="O48" t="n">
-        <v>0.374921462031331</v>
+        <v>0.3749223420396863</v>
       </c>
       <c r="P48" t="n">
-        <v>0.00364888474080811</v>
+        <v>0.003648468931598351</v>
       </c>
       <c r="Q48" t="n">
-        <v>31.8396610964541</v>
+        <v>31.83972510069712</v>
       </c>
       <c r="R48" t="n">
-        <v>137.4921462031331</v>
+        <v>137.4922342039686</v>
       </c>
       <c r="S48" t="n">
-        <v>-9.586350708009798</v>
+        <v>-9.586313481745767</v>
       </c>
     </row>
     <row r="49">
@@ -3496,31 +3496,31 @@
         <v>42369</v>
       </c>
       <c r="B49" t="n">
-        <v>180.5756530761719</v>
+        <v>180.5756225585938</v>
       </c>
       <c r="C49" t="n">
         <v>78.27223205566406</v>
       </c>
       <c r="D49" t="n">
-        <v>104.0618896484375</v>
+        <v>104.0619049072266</v>
       </c>
       <c r="E49" t="n">
-        <v>0.01954726707789334</v>
+        <v>0.02</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.07705359110570498</v>
+        <v>-0.077</v>
       </c>
       <c r="G49" t="n">
-        <v>0.01088229813055075</v>
+        <v>0.011</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.01728262033033645</v>
+        <v>-0.01728254159536957</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.01070574485647502</v>
+        <v>-0.01070555406304807</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.002971582687219532</v>
+        <v>-0.002971800895260945</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>180.5756530761719</v>
+        <v>180.5756225585938</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -3536,22 +3536,22 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>-1.728262033033645</v>
+        <v>-1.728254159536957</v>
       </c>
       <c r="O49" t="n">
-        <v>0.3511592164190125</v>
+        <v>0.3511601894729826</v>
       </c>
       <c r="P49" t="n">
-        <v>-0.01743370813906355</v>
+        <v>-0.01743362801942249</v>
       </c>
       <c r="Q49" t="n">
-        <v>30.09629028254775</v>
+        <v>30.09636229875488</v>
       </c>
       <c r="R49" t="n">
-        <v>135.1159216419013</v>
+        <v>135.1160189472982</v>
       </c>
       <c r="S49" t="n">
-        <v>-11.14893548140345</v>
+        <v>-11.1488917797882</v>
       </c>
     </row>
     <row r="50">
@@ -3559,31 +3559,31 @@
         <v>42400</v>
       </c>
       <c r="B50" t="n">
-        <v>171.5853576660156</v>
+        <v>171.5853729248047</v>
       </c>
       <c r="C50" t="n">
-        <v>73.02993011474609</v>
+        <v>73.02991485595703</v>
       </c>
       <c r="D50" t="n">
-        <v>109.8613433837891</v>
+        <v>109.8613739013672</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.1915127818925938</v>
+        <v>-0.192</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.2578368634986272</v>
+        <v>-0.258</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1562686415661558</v>
+        <v>0.156</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.04978686360538254</v>
+        <v>-0.04978661851696997</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.0669752452848138</v>
+        <v>-0.06697544022992608</v>
       </c>
       <c r="J50" t="n">
-        <v>0.05573081322032913</v>
+        <v>0.05573095168026154</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>109.8613433837891</v>
+        <v>109.8613739013672</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -3599,22 +3599,22 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>-4.978686360538253</v>
+        <v>-4.978661851696997</v>
       </c>
       <c r="O50" t="n">
-        <v>0.2838892368020036</v>
+        <v>0.2838904925643744</v>
       </c>
       <c r="P50" t="n">
-        <v>-0.05106896545157057</v>
+        <v>-0.05106870752166877</v>
       </c>
       <c r="Q50" t="n">
-        <v>24.98939373739069</v>
+        <v>24.989491546588</v>
       </c>
       <c r="R50" t="n">
-        <v>128.3889236802003</v>
+        <v>128.3890492564374</v>
       </c>
       <c r="S50" t="n">
-        <v>-15.57255131178386</v>
+        <v>-15.57248800955789</v>
       </c>
     </row>
     <row r="51">
@@ -3622,31 +3622,31 @@
         <v>42429</v>
       </c>
       <c r="B51" t="n">
-        <v>171.4436492919922</v>
+        <v>171.4436645507812</v>
       </c>
       <c r="C51" t="n">
-        <v>73.3670654296875</v>
+        <v>73.36703491210938</v>
       </c>
       <c r="D51" t="n">
-        <v>113.251579284668</v>
+        <v>113.2516098022461</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.07501076613428115</v>
+        <v>-0.075</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.1105981628161253</v>
+        <v>-0.111</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1954054790853015</v>
+        <v>0.195</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.0008258768460841504</v>
+        <v>-0.0008258767726404548</v>
       </c>
       <c r="I51" t="n">
-        <v>0.004616399254548043</v>
+        <v>0.004616191280207183</v>
       </c>
       <c r="J51" t="n">
-        <v>0.03085922487799442</v>
+        <v>0.03085921630583854</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>113.251579284668</v>
+        <v>113.2516098022461</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
@@ -3662,22 +3662,22 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.085922487799442</v>
+        <v>3.085921630583854</v>
       </c>
       <c r="O51" t="n">
-        <v>0.3235090634789133</v>
+        <v>0.3235103469874281</v>
       </c>
       <c r="P51" t="n">
-        <v>0.03039265340168928</v>
+        <v>0.03039264508614463</v>
       </c>
       <c r="Q51" t="n">
-        <v>28.02865907755962</v>
+        <v>28.02875605520246</v>
       </c>
       <c r="R51" t="n">
-        <v>132.3509063478913</v>
+        <v>132.3510346987428</v>
       </c>
       <c r="S51" t="n">
-        <v>-12.96718568683886</v>
+        <v>-12.96712115488106</v>
       </c>
     </row>
     <row r="52">
@@ -3685,31 +3685,31 @@
         <v>42460</v>
       </c>
       <c r="B52" t="n">
-        <v>182.9759979248047</v>
+        <v>182.9759826660156</v>
       </c>
       <c r="C52" t="n">
         <v>78.72519683837891</v>
       </c>
       <c r="D52" t="n">
-        <v>113.1459121704102</v>
+        <v>113.1459274291992</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1217364182022607</v>
+        <v>0.122</v>
       </c>
       <c r="F52" t="n">
-        <v>0.07755685533472856</v>
+        <v>0.078</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1635691532182739</v>
+        <v>0.164</v>
       </c>
       <c r="H52" t="n">
-        <v>0.06726611735364618</v>
+        <v>0.06726593336330922</v>
       </c>
       <c r="I52" t="n">
-        <v>0.07303183488818221</v>
+        <v>0.07303228122396366</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.0009330299402907638</v>
+        <v>-0.000933164422398991</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>182.9759979248047</v>
+        <v>182.9759826660156</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
@@ -3725,22 +3725,22 @@
         </is>
       </c>
       <c r="N52" t="n">
-        <v>-0.09330299402907638</v>
+        <v>-0.0933164422398991</v>
       </c>
       <c r="O52" t="n">
-        <v>0.3222741898964412</v>
+        <v>0.3222752942189424</v>
       </c>
       <c r="P52" t="n">
-        <v>-0.0009334654836632495</v>
+        <v>-0.0009336000913735517</v>
       </c>
       <c r="Q52" t="n">
-        <v>27.9353125291933</v>
+        <v>27.93539604606511</v>
       </c>
       <c r="R52" t="n">
-        <v>132.2274189896441</v>
+        <v>132.2275294218942</v>
       </c>
       <c r="S52" t="n">
-        <v>-13.04838990838081</v>
+        <v>-13.04833714099829</v>
       </c>
     </row>
     <row r="53">
@@ -3748,31 +3748,31 @@
         <v>42490</v>
       </c>
       <c r="B53" t="n">
-        <v>183.6971282958984</v>
+        <v>183.6971588134766</v>
       </c>
       <c r="C53" t="n">
-        <v>81.10263061523438</v>
+        <v>81.10265350341797</v>
       </c>
       <c r="D53" t="n">
-        <v>112.3125534057617</v>
+        <v>112.3125762939453</v>
       </c>
       <c r="E53" t="n">
-        <v>0.07545135523325253</v>
+        <v>0.075</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1617151727031818</v>
+        <v>0.162</v>
       </c>
       <c r="G53" t="n">
-        <v>0.08872978065713732</v>
+        <v>0.089</v>
       </c>
       <c r="H53" t="n">
-        <v>0.00394112003362368</v>
+        <v>0.00394137053919974</v>
       </c>
       <c r="I53" t="n">
-        <v>0.03019914680856606</v>
+        <v>0.03019943754373755</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.007365345761615405</v>
+        <v>-0.007365277338641896</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>81.10263061523438</v>
+        <v>81.10265350341797</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -3788,22 +3788,22 @@
         </is>
       </c>
       <c r="N53" t="n">
-        <v>0.394112003362368</v>
+        <v>0.394137053919974</v>
       </c>
       <c r="O53" t="n">
-        <v>0.3274854311961857</v>
+        <v>0.3274868711082886</v>
       </c>
       <c r="P53" t="n">
-        <v>0.003933374164992664</v>
+        <v>0.003933623687140734</v>
       </c>
       <c r="Q53" t="n">
-        <v>28.32864994569256</v>
+        <v>28.32875841477918</v>
       </c>
       <c r="R53" t="n">
-        <v>132.7485431196186</v>
+        <v>132.7486871108289</v>
       </c>
       <c r="S53" t="n">
-        <v>-12.70570317589289</v>
+        <v>-12.70562841867139</v>
       </c>
     </row>
     <row r="54">
@@ -3814,28 +3814,28 @@
         <v>186.8220977783203</v>
       </c>
       <c r="C54" t="n">
-        <v>80.80755615234375</v>
+        <v>80.80756378173828</v>
       </c>
       <c r="D54" t="n">
-        <v>113.2171783447266</v>
+        <v>113.2172164916992</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1088644063594884</v>
+        <v>0.109</v>
       </c>
       <c r="F54" t="n">
-        <v>0.08614136994353716</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="G54" t="n">
-        <v>0.121324589815454</v>
+        <v>0.121</v>
       </c>
       <c r="H54" t="n">
-        <v>0.01701153148887657</v>
+        <v>0.01701136253292179</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.003638284734443609</v>
+        <v>-0.003638471849348957</v>
       </c>
       <c r="J54" t="n">
-        <v>0.008054530963218509</v>
+        <v>0.008054665181807197</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -3851,22 +3851,22 @@
         </is>
       </c>
       <c r="N54" t="n">
-        <v>-0.3638284734443609</v>
+        <v>-0.3638471849348957</v>
       </c>
       <c r="O54" t="n">
-        <v>0.3226556612166682</v>
+        <v>0.3226568474973808</v>
       </c>
       <c r="P54" t="n">
-        <v>-0.003644919389746708</v>
+        <v>-0.003645107187932899</v>
       </c>
       <c r="Q54" t="n">
-        <v>27.96415800671789</v>
+        <v>27.96424769598589</v>
       </c>
       <c r="R54" t="n">
-        <v>132.2655661216668</v>
+        <v>132.2656847497381</v>
       </c>
       <c r="S54" t="n">
-        <v>-13.02330468343204</v>
+        <v>-13.02324653227666</v>
       </c>
     </row>
     <row r="55">
@@ -3874,31 +3874,31 @@
         <v>42551</v>
       </c>
       <c r="B55" t="n">
-        <v>187.4714813232422</v>
+        <v>187.4714660644531</v>
       </c>
       <c r="C55" t="n">
-        <v>79.14875793457031</v>
+        <v>79.14875030517578</v>
       </c>
       <c r="D55" t="n">
-        <v>121.0678558349609</v>
+        <v>121.0678634643555</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0593006412878645</v>
+        <v>0.059</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.002439532301404812</v>
+        <v>-0.002</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2999946591569693</v>
+        <v>0.3</v>
       </c>
       <c r="H55" t="n">
-        <v>0.003475946114749329</v>
+        <v>0.003475864439244969</v>
       </c>
       <c r="I55" t="n">
-        <v>-0.02052776122379152</v>
+        <v>-0.02052794811439884</v>
       </c>
       <c r="J55" t="n">
-        <v>0.06934175188795488</v>
+        <v>0.06934145897529498</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>187.4714813232422</v>
+        <v>187.4714660644531</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -3914,22 +3914,22 @@
         </is>
       </c>
       <c r="N55" t="n">
-        <v>0.3475946114749329</v>
+        <v>0.3475864439244969</v>
       </c>
       <c r="O55" t="n">
-        <v>0.3272531410234254</v>
+        <v>0.3272542233989209</v>
       </c>
       <c r="P55" t="n">
-        <v>0.003469918976686297</v>
+        <v>0.003469837584094875</v>
       </c>
       <c r="Q55" t="n">
-        <v>28.31114990438653</v>
+        <v>28.31123145439538</v>
       </c>
       <c r="R55" t="n">
-        <v>132.7253141023425</v>
+        <v>132.7254223398921</v>
       </c>
       <c r="S55" t="n">
-        <v>-12.72097837727268</v>
+        <v>-12.72092712785722</v>
       </c>
     </row>
     <row r="56">
@@ -3940,28 +3940,28 @@
         <v>194.3088073730469</v>
       </c>
       <c r="C56" t="n">
-        <v>83.07686614990234</v>
+        <v>83.07685852050781</v>
       </c>
       <c r="D56" t="n">
-        <v>123.6132659912109</v>
+        <v>123.6132583618164</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2408138284575831</v>
+        <v>0.241</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2208729620860643</v>
+        <v>0.221</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2505810760690566</v>
+        <v>0.251</v>
       </c>
       <c r="H56" t="n">
-        <v>0.03647128620067619</v>
+        <v>0.03647137056176364</v>
       </c>
       <c r="I56" t="n">
-        <v>0.04962943598659209</v>
+        <v>0.049629440770528</v>
       </c>
       <c r="J56" t="n">
-        <v>0.02102465711228829</v>
+        <v>0.02102452975235947</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -3977,22 +3977,22 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.647128620067619</v>
+        <v>3.647137056176364</v>
       </c>
       <c r="O56" t="n">
-        <v>0.3756597701904372</v>
+        <v>0.3756610040101687</v>
       </c>
       <c r="P56" t="n">
-        <v>0.03582194985746437</v>
+        <v>0.03582203125005588</v>
       </c>
       <c r="Q56" t="n">
-        <v>31.89334489013296</v>
+        <v>31.89343457940097</v>
       </c>
       <c r="R56" t="n">
-        <v>137.5659770190437</v>
+        <v>137.5661004010169</v>
       </c>
       <c r="S56" t="n">
-        <v>-9.537800200355189</v>
+        <v>-9.537739718850133</v>
       </c>
     </row>
     <row r="57">
@@ -4000,31 +4000,31 @@
         <v>42613</v>
       </c>
       <c r="B57" t="n">
-        <v>194.5415191650391</v>
+        <v>194.5414733886719</v>
       </c>
       <c r="C57" t="n">
         <v>82.64323425292969</v>
       </c>
       <c r="D57" t="n">
-        <v>122.3606185913086</v>
+        <v>122.3605422973633</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1338961363466971</v>
+        <v>0.134</v>
       </c>
       <c r="F57" t="n">
-        <v>0.09530184991459567</v>
+        <v>0.095</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1677500205133164</v>
+        <v>0.168</v>
       </c>
       <c r="H57" t="n">
-        <v>0.001197638929178346</v>
+        <v>0.001197403343525805</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.005219646780972975</v>
+        <v>-0.005219555424945233</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.01013360006191732</v>
+        <v>-0.01013415616621338</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>194.5415191650391</v>
+        <v>194.5414733886719</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -4040,22 +4040,22 @@
         </is>
       </c>
       <c r="N57" t="n">
-        <v>0.1197638929178346</v>
+        <v>0.1197403343525805</v>
       </c>
       <c r="O57" t="n">
-        <v>0.3773073138845218</v>
+        <v>0.3773082250959285</v>
       </c>
       <c r="P57" t="n">
-        <v>0.001196922331768908</v>
+        <v>0.001196687027897726</v>
       </c>
       <c r="Q57" t="n">
-        <v>32.01303712330985</v>
+        <v>32.01310328219074</v>
       </c>
       <c r="R57" t="n">
-        <v>137.7307313884522</v>
+        <v>137.7308225095929</v>
       </c>
       <c r="S57" t="n">
-        <v>-9.429459148256026</v>
+        <v>-9.429419905926579</v>
       </c>
     </row>
     <row r="58">
@@ -4063,31 +4063,31 @@
         <v>42643</v>
       </c>
       <c r="B58" t="n">
-        <v>194.5527954101562</v>
+        <v>194.5527801513672</v>
       </c>
       <c r="C58" t="n">
-        <v>85.0283203125</v>
+        <v>85.02832794189453</v>
       </c>
       <c r="D58" t="n">
-        <v>120.5147476196289</v>
+        <v>120.5148315429688</v>
       </c>
       <c r="E58" t="n">
-        <v>0.09173105135677773</v>
+        <v>0.092</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1763593533937919</v>
+        <v>0.176</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02906925819135076</v>
+        <v>0.029</v>
       </c>
       <c r="H58" t="n">
-        <v>5.796318012518675e-05</v>
+        <v>5.8120063030076e-05</v>
       </c>
       <c r="I58" t="n">
-        <v>0.02886002806074539</v>
+        <v>0.02886012037797636</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.01508549885519128</v>
+        <v>-0.0150841988744137</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>85.0283203125</v>
+        <v>85.02832794189453</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
@@ -4103,22 +4103,22 @@
         </is>
       </c>
       <c r="N58" t="n">
-        <v>0.005796318012518675</v>
+        <v>0.0058120063030076</v>
       </c>
       <c r="O58" t="n">
-        <v>0.3773871469964443</v>
+        <v>0.3773882743367829</v>
       </c>
       <c r="P58" t="n">
-        <v>5.796150032497237e-05</v>
+        <v>5.811837412465189e-05</v>
       </c>
       <c r="Q58" t="n">
-        <v>32.01883327334235</v>
+        <v>32.01891511960321</v>
       </c>
       <c r="R58" t="n">
-        <v>137.7387146996444</v>
+        <v>137.7388274336783</v>
       </c>
       <c r="S58" t="n">
-        <v>-9.424209391682595</v>
+        <v>-9.424155938102846</v>
       </c>
     </row>
     <row r="59">
@@ -4129,28 +4129,28 @@
         <v>191.1798248291016</v>
       </c>
       <c r="C59" t="n">
-        <v>82.51670074462891</v>
+        <v>82.51668548583984</v>
       </c>
       <c r="D59" t="n">
-        <v>115.2354965209961</v>
+        <v>115.2355422973633</v>
       </c>
       <c r="E59" t="n">
-        <v>0.02116109347030282</v>
+        <v>0.021</v>
       </c>
       <c r="F59" t="n">
-        <v>0.01106544682663646</v>
+        <v>0.011</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.07356801476018515</v>
+        <v>-0.074</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.01733704506246636</v>
+        <v>-0.01733696799213758</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.0295386238213371</v>
+        <v>-0.02953889035394253</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.0438058511751217</v>
+        <v>-0.04380613720331317</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -4166,22 +4166,22 @@
         </is>
       </c>
       <c r="N59" t="n">
-        <v>-2.95386238213371</v>
+        <v>-2.953889035394253</v>
       </c>
       <c r="O59" t="n">
-        <v>0.3367010262049717</v>
+        <v>0.3367017531263425</v>
       </c>
       <c r="P59" t="n">
-        <v>-0.02998367502318047</v>
+        <v>-0.02998394966846629</v>
       </c>
       <c r="Q59" t="n">
-        <v>29.02046577102431</v>
+        <v>29.02052015275658</v>
       </c>
       <c r="R59" t="n">
-        <v>133.6701026204972</v>
+        <v>133.6701753126343</v>
       </c>
       <c r="S59" t="n">
-        <v>-12.09969359778187</v>
+        <v>-12.09966586456302</v>
       </c>
     </row>
     <row r="60">
@@ -4189,31 +4189,31 @@
         <v>42704</v>
       </c>
       <c r="B60" t="n">
-        <v>198.2225494384766</v>
+        <v>198.2226104736328</v>
       </c>
       <c r="C60" t="n">
         <v>80.72266387939453</v>
       </c>
       <c r="D60" t="n">
-        <v>105.7703628540039</v>
+        <v>105.770378112793</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1145155781283578</v>
+        <v>0.115</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.07029083702386707</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3078483399045444</v>
+        <v>-0.308</v>
       </c>
       <c r="H60" t="n">
-        <v>0.03683822085134025</v>
+        <v>0.03683854010655629</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.02174150019383991</v>
+        <v>-0.02174131929660661</v>
       </c>
       <c r="J60" t="n">
-        <v>-0.08213730970706257</v>
+        <v>-0.08213754190652067</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>198.2225494384766</v>
+        <v>198.2226104736328</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
@@ -4229,22 +4229,22 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.683822085134025</v>
+        <v>3.683854010655629</v>
       </c>
       <c r="O60" t="n">
-        <v>0.3859427138205236</v>
+        <v>0.3859438942693914</v>
       </c>
       <c r="P60" t="n">
-        <v>0.03617591018345239</v>
+        <v>0.03617621809568062</v>
       </c>
       <c r="Q60" t="n">
-        <v>32.63805678936954</v>
+        <v>32.63814196232464</v>
       </c>
       <c r="R60" t="n">
-        <v>138.5942713820524</v>
+        <v>138.5943894269391</v>
       </c>
       <c r="S60" t="n">
-        <v>-8.861602697636481</v>
+        <v>-8.861545880135035</v>
       </c>
     </row>
     <row r="61">
@@ -4258,25 +4258,25 @@
         <v>81.59098052978516</v>
       </c>
       <c r="D61" t="n">
-        <v>105.2810745239258</v>
+        <v>105.2810821533203</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1363097922540462</v>
+        <v>0.136</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.006942636817725556</v>
+        <v>-0.007</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.273336151293411</v>
+        <v>-0.273</v>
       </c>
       <c r="H61" t="n">
-        <v>0.02027194350302408</v>
+        <v>0.02027162934886495</v>
       </c>
       <c r="I61" t="n">
         <v>0.01075678884542208</v>
       </c>
       <c r="J61" t="n">
-        <v>-0.004625949243962535</v>
+        <v>-0.004626020708282552</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -4292,22 +4292,22 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>2.027194350302408</v>
+        <v>2.027162934886495</v>
       </c>
       <c r="O61" t="n">
-        <v>0.414038466213521</v>
+        <v>0.414039235192343</v>
       </c>
       <c r="P61" t="n">
-        <v>0.02006920303918345</v>
+        <v>0.02006889512695525</v>
       </c>
       <c r="Q61" t="n">
-        <v>34.64497709328789</v>
+        <v>34.64503147502017</v>
       </c>
       <c r="R61" t="n">
-        <v>141.4038466213521</v>
+        <v>141.4039235192343</v>
       </c>
       <c r="S61" t="n">
-        <v>-7.014050256566813</v>
+        <v>-7.014020918788594</v>
       </c>
     </row>
     <row r="62">
@@ -4315,31 +4315,31 @@
         <v>42766</v>
       </c>
       <c r="B62" t="n">
-        <v>205.8599548339844</v>
+        <v>205.8599700927734</v>
       </c>
       <c r="C62" t="n">
         <v>85.50437164306641</v>
       </c>
       <c r="D62" t="n">
-        <v>106.1383209228516</v>
+        <v>106.138313293457</v>
       </c>
       <c r="E62" t="n">
-        <v>0.1720316552021497</v>
+        <v>0.172</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1282703111672299</v>
+        <v>0.128</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.204826400451148</v>
+        <v>-0.205</v>
       </c>
       <c r="H62" t="n">
-        <v>0.01789474319566975</v>
+        <v>0.01789481864424936</v>
       </c>
       <c r="I62" t="n">
         <v>0.04796352596660669</v>
       </c>
       <c r="J62" t="n">
-        <v>0.008142454879019656</v>
+        <v>0.008142309355144484</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>205.8599548339844</v>
+        <v>205.8599700927734</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
@@ -4355,22 +4355,22 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>1.789474319566975</v>
+        <v>1.789481864424936</v>
       </c>
       <c r="O62" t="n">
-        <v>0.4393423214352108</v>
+        <v>0.439343210861963</v>
       </c>
       <c r="P62" t="n">
-        <v>0.01773651710057569</v>
+        <v>0.01773659122275513</v>
       </c>
       <c r="Q62" t="n">
-        <v>36.41862880334546</v>
+        <v>36.41869059729568</v>
       </c>
       <c r="R62" t="n">
-        <v>143.9342321435211</v>
+        <v>143.9343210861963</v>
       </c>
       <c r="S62" t="n">
-        <v>-5.350090565102618</v>
+        <v>-5.35005368667235</v>
       </c>
     </row>
     <row r="63">
@@ -4378,31 +4378,31 @@
         <v>42794</v>
       </c>
       <c r="B63" t="n">
-        <v>213.9485015869141</v>
+        <v>213.9484710693359</v>
       </c>
       <c r="C63" t="n">
-        <v>86.90138244628906</v>
+        <v>86.90139007568359</v>
       </c>
       <c r="D63" t="n">
-        <v>107.8202056884766</v>
+        <v>107.8202438354492</v>
       </c>
       <c r="E63" t="n">
-        <v>0.2117972446878227</v>
+        <v>0.212</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1356965856565586</v>
+        <v>0.136</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.0805856563249514</v>
+        <v>-0.081</v>
       </c>
       <c r="H63" t="n">
-        <v>0.03929150163980499</v>
+        <v>0.03929127636090346</v>
       </c>
       <c r="I63" t="n">
-        <v>0.01633847224858176</v>
+        <v>0.01633856147670398</v>
       </c>
       <c r="J63" t="n">
-        <v>0.01584615953033119</v>
+        <v>0.0158465919591344</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>213.9485015869141</v>
+        <v>213.9484710693359</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
@@ -4418,22 +4418,22 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.929150163980499</v>
+        <v>3.929127636090346</v>
       </c>
       <c r="O63" t="n">
-        <v>0.495896242618123</v>
+        <v>0.4958968427381305</v>
       </c>
       <c r="P63" t="n">
-        <v>0.03853923257486689</v>
+        <v>0.03853901581284623</v>
       </c>
       <c r="Q63" t="n">
-        <v>40.27255206083215</v>
+        <v>40.2725921785803</v>
       </c>
       <c r="R63" t="n">
-        <v>149.5896242618123</v>
+        <v>149.589684273813</v>
       </c>
       <c r="S63" t="n">
-        <v>-1.631153493333957</v>
+        <v>-1.631136488530722</v>
       </c>
     </row>
     <row r="64">
@@ -4441,31 +4441,31 @@
         <v>42825</v>
       </c>
       <c r="B64" t="n">
-        <v>214.2159118652344</v>
+        <v>214.2159271240234</v>
       </c>
       <c r="C64" t="n">
         <v>89.135498046875</v>
       </c>
       <c r="D64" t="n">
-        <v>107.1138610839844</v>
+        <v>107.1138534545898</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1477081254281837</v>
+        <v>0.148</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1571431267205285</v>
+        <v>0.157</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.08340929911418049</v>
+        <v>-0.083</v>
       </c>
       <c r="H64" t="n">
-        <v>0.00124988151979033</v>
+        <v>0.001250095657850281</v>
       </c>
       <c r="I64" t="n">
-        <v>0.02570863129785961</v>
+        <v>0.02570854124710431</v>
       </c>
       <c r="J64" t="n">
-        <v>-0.006551133899085793</v>
+        <v>-0.006551556143180703</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -4481,22 +4481,22 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>0.124988151979033</v>
+        <v>0.1250095657850281</v>
       </c>
       <c r="O64" t="n">
-        <v>0.4977659356872952</v>
+        <v>0.4977668568858293</v>
       </c>
       <c r="P64" t="n">
-        <v>0.001249101068130622</v>
+        <v>0.001249314938854608</v>
       </c>
       <c r="Q64" t="n">
-        <v>40.39746216764522</v>
+        <v>40.39752367246577</v>
       </c>
       <c r="R64" t="n">
-        <v>149.7765935687295</v>
+        <v>149.7766856885829</v>
       </c>
       <c r="S64" t="n">
-        <v>-1.508204089962184</v>
+        <v>-1.508165999387371</v>
       </c>
     </row>
     <row r="65">
@@ -4504,31 +4504,31 @@
         <v>42855</v>
       </c>
       <c r="B65" t="n">
-        <v>216.3423004150391</v>
+        <v>216.3422698974609</v>
       </c>
       <c r="C65" t="n">
         <v>91.59291076660156</v>
       </c>
       <c r="D65" t="n">
-        <v>108.7989807128906</v>
+        <v>108.7989730834961</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1867647005482911</v>
+        <v>0.187</v>
       </c>
       <c r="F65" t="n">
-        <v>0.2046765231712491</v>
+        <v>0.205</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.01051193118191451</v>
+        <v>-0.011</v>
       </c>
       <c r="H65" t="n">
-        <v>0.00992638003073476</v>
+        <v>0.009926165631028994</v>
       </c>
       <c r="I65" t="n">
         <v>0.02756940583239076</v>
       </c>
       <c r="J65" t="n">
-        <v>0.01573204076347312</v>
+        <v>0.01573204188401878</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -4547,16 +4547,16 @@
         <v>2.756940583239076</v>
       </c>
       <c r="O65" t="n">
-        <v>0.5390584526101887</v>
+        <v>0.5390593992056192</v>
       </c>
       <c r="P65" t="n">
         <v>0.02719621336234009</v>
       </c>
       <c r="Q65" t="n">
-        <v>43.11708350387922</v>
+        <v>43.11714500869977</v>
       </c>
       <c r="R65" t="n">
-        <v>153.9058452610189</v>
+        <v>153.9059399205619</v>
       </c>
       <c r="S65" t="n">
         <v>-0</v>
@@ -4567,31 +4567,31 @@
         <v>42886</v>
       </c>
       <c r="B66" t="n">
-        <v>219.3954925537109</v>
+        <v>219.3954620361328</v>
       </c>
       <c r="C66" t="n">
-        <v>93.49460601806641</v>
+        <v>93.49458312988281</v>
       </c>
       <c r="D66" t="n">
-        <v>110.8529510498047</v>
+        <v>110.8529434204102</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1396170147215003</v>
+        <v>0.14</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2570762706598668</v>
+        <v>0.257</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1283778156467588</v>
+        <v>0.128</v>
       </c>
       <c r="H66" t="n">
-        <v>0.01411278392073356</v>
+        <v>0.01411278591150489</v>
       </c>
       <c r="I66" t="n">
-        <v>0.02076247206850734</v>
+        <v>0.02076222217816759</v>
       </c>
       <c r="J66" t="n">
-        <v>0.01887858069492654</v>
+        <v>0.0188785820187638</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>93.49460601806641</v>
+        <v>93.49458312988281</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -4607,19 +4607,19 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>2.076247206850734</v>
+        <v>2.076222217816759</v>
       </c>
       <c r="O66" t="n">
-        <v>0.5710131107443079</v>
+        <v>0.5710136923973235</v>
       </c>
       <c r="P66" t="n">
-        <v>0.02054986967683075</v>
+        <v>0.02054962486927053</v>
       </c>
       <c r="Q66" t="n">
-        <v>45.1720704715623</v>
+        <v>45.17210749562683</v>
       </c>
       <c r="R66" t="n">
-        <v>157.1013110744308</v>
+        <v>157.1013692397323</v>
       </c>
       <c r="S66" t="n">
         <v>-0</v>
@@ -4630,31 +4630,31 @@
         <v>42916</v>
       </c>
       <c r="B67" t="n">
-        <v>220.7941131591797</v>
+        <v>220.7941284179688</v>
       </c>
       <c r="C67" t="n">
         <v>94.60832214355469</v>
       </c>
       <c r="D67" t="n">
-        <v>111.7308044433594</v>
+        <v>111.7307662963867</v>
       </c>
       <c r="E67" t="n">
-        <v>0.1288213130010059</v>
+        <v>0.129</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2328548984858991</v>
+        <v>0.233</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1122842233569588</v>
+        <v>0.112</v>
       </c>
       <c r="H67" t="n">
-        <v>0.006374883044264701</v>
+        <v>0.006375092578740693</v>
       </c>
       <c r="I67" t="n">
-        <v>0.01191208961587664</v>
+        <v>0.01191233733963681</v>
       </c>
       <c r="J67" t="n">
-        <v>0.007919080053721661</v>
+        <v>0.007918805300887843</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -4670,19 +4670,19 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>1.191208961587664</v>
+        <v>1.191233733963681</v>
       </c>
       <c r="O67" t="n">
-        <v>0.5897271597072113</v>
+        <v>0.5897281374663488</v>
       </c>
       <c r="P67" t="n">
-        <v>0.01184169912353197</v>
+        <v>0.01184194393109222</v>
       </c>
       <c r="Q67" t="n">
-        <v>46.35624038391549</v>
+        <v>46.35630188873605</v>
       </c>
       <c r="R67" t="n">
-        <v>158.9727159707211</v>
+        <v>158.9728137466349</v>
       </c>
       <c r="S67" t="n">
         <v>-0</v>
@@ -4693,31 +4693,31 @@
         <v>42947</v>
       </c>
       <c r="B68" t="n">
-        <v>225.3323516845703</v>
+        <v>225.3323822021484</v>
       </c>
       <c r="C68" t="n">
-        <v>98.02968597412109</v>
+        <v>98.02967834472656</v>
       </c>
       <c r="D68" t="n">
-        <v>110.9952239990234</v>
+        <v>110.9952545166016</v>
       </c>
       <c r="E68" t="n">
-        <v>0.1532568415925757</v>
+        <v>0.153</v>
       </c>
       <c r="F68" t="n">
-        <v>0.2362658568035034</v>
+        <v>0.236</v>
       </c>
       <c r="G68" t="n">
-        <v>0.06918010597260849</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="H68" t="n">
-        <v>0.02055416451306757</v>
+        <v>0.02055423220126884</v>
       </c>
       <c r="I68" t="n">
-        <v>0.03616345531817977</v>
+        <v>0.03616337467628328</v>
       </c>
       <c r="J68" t="n">
-        <v>-0.006583506204941303</v>
+        <v>-0.00658289389901856</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>98.02968597412109</v>
+        <v>98.02967834472656</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
@@ -4733,19 +4733,19 @@
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.616345531817977</v>
+        <v>3.616337467628328</v>
       </c>
       <c r="O68" t="n">
-        <v>0.64721718681538</v>
+        <v>0.6472180717349743</v>
       </c>
       <c r="P68" t="n">
-        <v>0.03552490679570976</v>
+        <v>0.03552482896831755</v>
       </c>
       <c r="Q68" t="n">
-        <v>49.90873106348646</v>
+        <v>49.9087847855678</v>
       </c>
       <c r="R68" t="n">
-        <v>164.721718681538</v>
+        <v>164.7218071734974</v>
       </c>
       <c r="S68" t="n">
         <v>-0</v>
@@ -4759,28 +4759,28 @@
         <v>225.9898376464844</v>
       </c>
       <c r="C69" t="n">
-        <v>98.94846343994141</v>
+        <v>98.94847106933594</v>
       </c>
       <c r="D69" t="n">
-        <v>114.7787246704102</v>
+        <v>114.7787475585938</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0668699409104816</v>
+        <v>0.067</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1853573107740163</v>
+        <v>0.185</v>
       </c>
       <c r="G69" t="n">
-        <v>0.1338362924300793</v>
+        <v>0.134</v>
       </c>
       <c r="H69" t="n">
-        <v>0.002917849820492924</v>
+        <v>0.002917713991707371</v>
       </c>
       <c r="I69" t="n">
-        <v>0.009372441181366931</v>
+        <v>0.009372597565590279</v>
       </c>
       <c r="J69" t="n">
-        <v>0.03408705829919323</v>
+        <v>0.03408698019090806</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>98.94846343994141</v>
+        <v>98.94847106933594</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -4796,19 +4796,19 @@
         </is>
       </c>
       <c r="N69" t="n">
-        <v>0.9372441181366931</v>
+        <v>0.9372597565590279</v>
       </c>
       <c r="O69" t="n">
-        <v>0.6626556330117439</v>
+        <v>0.6626567838241137</v>
       </c>
       <c r="P69" t="n">
-        <v>0.009328792373155323</v>
+        <v>0.009328947305274385</v>
       </c>
       <c r="Q69" t="n">
-        <v>50.841610300802</v>
+        <v>50.84167951609524</v>
       </c>
       <c r="R69" t="n">
-        <v>166.2655633011744</v>
+        <v>166.2656783824114</v>
       </c>
       <c r="S69" t="n">
         <v>-0</v>
@@ -4819,31 +4819,31 @@
         <v>43008</v>
       </c>
       <c r="B70" t="n">
-        <v>230.5433959960938</v>
+        <v>230.5433502197266</v>
       </c>
       <c r="C70" t="n">
-        <v>100.9793853759766</v>
+        <v>100.9793930053711</v>
       </c>
       <c r="D70" t="n">
-        <v>112.1125411987305</v>
+        <v>112.1125030517578</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1466619770109037</v>
+        <v>0.147</v>
       </c>
       <c r="F70" t="n">
-        <v>0.2309504970877607</v>
+        <v>0.231</v>
       </c>
       <c r="G70" t="n">
-        <v>0.02976309670531596</v>
+        <v>0.03</v>
       </c>
       <c r="H70" t="n">
-        <v>0.02014939431361729</v>
+        <v>0.02014919175421181</v>
       </c>
       <c r="I70" t="n">
-        <v>0.02052504774132102</v>
+        <v>0.02052504615874295</v>
       </c>
       <c r="J70" t="n">
-        <v>-0.02322889960082497</v>
+        <v>-0.02322942673228634</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>100.9793853759766</v>
+        <v>100.9793930053711</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="N70" t="n">
-        <v>2.052504774132102</v>
+        <v>2.052504615874295</v>
       </c>
       <c r="O70" t="n">
-        <v>0.6967817192566863</v>
+        <v>0.6967828910582508</v>
       </c>
       <c r="P70" t="n">
-        <v>0.02031724754403185</v>
+        <v>0.02031724599328297</v>
       </c>
       <c r="Q70" t="n">
-        <v>52.87333505520518</v>
+        <v>52.87340411542354</v>
       </c>
       <c r="R70" t="n">
-        <v>169.6781719256686</v>
+        <v>169.6782891058251</v>
       </c>
       <c r="S70" t="n">
         <v>-0</v>
@@ -4882,31 +4882,31 @@
         <v>43039</v>
       </c>
       <c r="B71" t="n">
-        <v>235.9758758544922</v>
+        <v>235.9758911132812</v>
       </c>
       <c r="C71" t="n">
-        <v>102.473030090332</v>
+        <v>102.4730072021484</v>
       </c>
       <c r="D71" t="n">
-        <v>112.0693206787109</v>
+        <v>112.0692825317383</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1556087543059861</v>
+        <v>0.156</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1712384361472392</v>
+        <v>0.171</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03952531354590072</v>
+        <v>0.04</v>
       </c>
       <c r="H71" t="n">
-        <v>0.02356380600245211</v>
+        <v>0.0235640754260622</v>
       </c>
       <c r="I71" t="n">
-        <v>0.01479158056660945</v>
+        <v>0.01479127723314688</v>
       </c>
       <c r="J71" t="n">
-        <v>-0.0003855101272115524</v>
+        <v>-0.0003855102583837366</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>102.473030090332</v>
+        <v>102.4730072021484</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
@@ -4922,19 +4922,19 @@
         </is>
       </c>
       <c r="N71" t="n">
-        <v>1.479158056660945</v>
+        <v>1.479127723314688</v>
       </c>
       <c r="O71" t="n">
-        <v>0.7218798027610216</v>
+        <v>0.7218804772043539</v>
       </c>
       <c r="P71" t="n">
-        <v>0.01468325206549936</v>
+        <v>0.01468295315337423</v>
       </c>
       <c r="Q71" t="n">
-        <v>54.34166026175512</v>
+        <v>54.34169943076096</v>
       </c>
       <c r="R71" t="n">
-        <v>172.1879802761022</v>
+        <v>172.1880477204354</v>
       </c>
       <c r="S71" t="n">
         <v>-0</v>
@@ -4945,31 +4945,31 @@
         <v>43069</v>
       </c>
       <c r="B72" t="n">
-        <v>243.1887512207031</v>
+        <v>243.188720703125</v>
       </c>
       <c r="C72" t="n">
         <v>103.3604354858398</v>
       </c>
       <c r="D72" t="n">
-        <v>112.9021453857422</v>
+        <v>112.9021530151367</v>
       </c>
       <c r="E72" t="n">
-        <v>0.2012072983453768</v>
+        <v>0.201</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1364243976336492</v>
+        <v>0.136</v>
       </c>
       <c r="G72" t="n">
-        <v>0.005125635233698911</v>
+        <v>0.005</v>
       </c>
       <c r="H72" t="n">
-        <v>0.03056615571440258</v>
+        <v>0.03056595975044418</v>
       </c>
       <c r="I72" t="n">
-        <v>0.008659892214815335</v>
+        <v>0.00866011750724538</v>
       </c>
       <c r="J72" t="n">
-        <v>0.007431335373387915</v>
+        <v>0.007431746367811076</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>243.1887512207031</v>
+        <v>243.188720703125</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
@@ -4985,19 +4985,19 @@
         </is>
       </c>
       <c r="N72" t="n">
-        <v>0.8659892214815335</v>
+        <v>0.866011750724538</v>
       </c>
       <c r="O72" t="n">
-        <v>0.7367910962597994</v>
+        <v>0.7367921644703754</v>
       </c>
       <c r="P72" t="n">
-        <v>0.008622610431100547</v>
+        <v>0.00862283378924795</v>
       </c>
       <c r="Q72" t="n">
-        <v>55.20392130486518</v>
+        <v>55.20398280968576</v>
       </c>
       <c r="R72" t="n">
-        <v>173.6791096259799</v>
+        <v>173.6792164470375</v>
       </c>
       <c r="S72" t="n">
         <v>-0</v>
@@ -5008,31 +5008,31 @@
         <v>43100</v>
       </c>
       <c r="B73" t="n">
-        <v>246.1380462646484</v>
+        <v>246.1380920410156</v>
       </c>
       <c r="C73" t="n">
-        <v>106.5655288696289</v>
+        <v>106.5655212402344</v>
       </c>
       <c r="D73" t="n">
         <v>114.9486312866211</v>
       </c>
       <c r="E73" t="n">
-        <v>0.2034172944007677</v>
+        <v>0.203</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2149987386041077</v>
+        <v>0.215</v>
       </c>
       <c r="G73" t="n">
-        <v>0.06881667746410569</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="H73" t="n">
-        <v>0.01212759648273654</v>
+        <v>0.01212791172782679</v>
       </c>
       <c r="I73" t="n">
-        <v>0.03100889976637289</v>
+        <v>0.03100882595288224</v>
       </c>
       <c r="J73" t="n">
-        <v>0.01812619143672478</v>
+        <v>0.01812612263656299</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>106.5655288696289</v>
+        <v>106.5655212402344</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -5048,19 +5048,19 @@
         </is>
       </c>
       <c r="N73" t="n">
-        <v>1.212759648273654</v>
+        <v>1.212791172782679</v>
       </c>
       <c r="O73" t="n">
-        <v>0.7578541978500479</v>
+        <v>0.7578558265306534</v>
       </c>
       <c r="P73" t="n">
-        <v>0.01205464639838473</v>
+        <v>0.01205495786607146</v>
       </c>
       <c r="Q73" t="n">
-        <v>56.40938594470365</v>
+        <v>56.40947859629291</v>
       </c>
       <c r="R73" t="n">
-        <v>175.7854197850048</v>
+        <v>175.7855826530653</v>
       </c>
       <c r="S73" t="n">
         <v>-0</v>
@@ -5074,28 +5074,28 @@
         <v>260.01025390625</v>
       </c>
       <c r="C74" t="n">
-        <v>111.2846832275391</v>
+        <v>111.2846908569336</v>
       </c>
       <c r="D74" t="n">
-        <v>111.206413269043</v>
+        <v>111.2063903808594</v>
       </c>
       <c r="E74" t="n">
-        <v>0.3072399787636979</v>
+        <v>0.307</v>
       </c>
       <c r="F74" t="n">
-        <v>0.2602244785783856</v>
+        <v>0.26</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.05638231832336082</v>
+        <v>-0.056</v>
       </c>
       <c r="H74" t="n">
-        <v>0.05635946109154588</v>
+        <v>0.0563592646315092</v>
       </c>
       <c r="I74" t="n">
-        <v>0.04428406078370339</v>
+        <v>0.04428420714107539</v>
       </c>
       <c r="J74" t="n">
-        <v>-0.03255556830639428</v>
+        <v>-0.03255576742302002</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -5111,19 +5111,19 @@
         </is>
       </c>
       <c r="N74" t="n">
-        <v>4.428406078370339</v>
+        <v>4.428420714107539</v>
       </c>
       <c r="O74" t="n">
-        <v>0.8356991199965276</v>
+        <v>0.8357010780768832</v>
       </c>
       <c r="P74" t="n">
-        <v>0.0433315413242617</v>
+        <v>0.04333168147517201</v>
       </c>
       <c r="Q74" t="n">
-        <v>60.74254007712982</v>
+        <v>60.74264674381011</v>
       </c>
       <c r="R74" t="n">
-        <v>183.5699119996528</v>
+        <v>183.5701078076883</v>
       </c>
       <c r="S74" t="n">
         <v>-0</v>
@@ -5134,31 +5134,31 @@
         <v>43159</v>
       </c>
       <c r="B75" t="n">
-        <v>250.55615234375</v>
+        <v>250.5561370849609</v>
       </c>
       <c r="C75" t="n">
         <v>106.3599395751953</v>
       </c>
       <c r="D75" t="n">
-        <v>107.8241195678711</v>
+        <v>107.8241424560547</v>
       </c>
       <c r="E75" t="n">
-        <v>0.09166427871481464</v>
+        <v>0.092</v>
       </c>
       <c r="F75" t="n">
-        <v>0.04513559146937973</v>
+        <v>0.045</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.1287421934698584</v>
+        <v>-0.129</v>
       </c>
       <c r="H75" t="n">
-        <v>-0.03636049509766182</v>
+        <v>-0.03636055378299763</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.04425356221102172</v>
+        <v>-0.04425362773455954</v>
       </c>
       <c r="J75" t="n">
-        <v>-0.03041455615503985</v>
+        <v>-0.03041415078055476</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>250.55615234375</v>
+        <v>250.5561370849609</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
@@ -5174,22 +5174,22 @@
         </is>
       </c>
       <c r="N75" t="n">
-        <v>-3.636049509766182</v>
+        <v>-3.636055378299763</v>
       </c>
       <c r="O75" t="n">
-        <v>0.7689521911431116</v>
+        <v>0.768953970297962</v>
       </c>
       <c r="P75" t="n">
-        <v>-0.03703801188134902</v>
+        <v>-0.03703807278102914</v>
       </c>
       <c r="Q75" t="n">
-        <v>57.03873888899492</v>
+        <v>57.03883946570719</v>
       </c>
       <c r="R75" t="n">
-        <v>176.8952191143112</v>
+        <v>176.8953970297962</v>
       </c>
       <c r="S75" t="n">
-        <v>-3.636049509766186</v>
+        <v>-3.636055378299762</v>
       </c>
     </row>
     <row r="76">
@@ -5197,7 +5197,7 @@
         <v>43190</v>
       </c>
       <c r="B76" t="n">
-        <v>243.6882934570312</v>
+        <v>243.6883087158203</v>
       </c>
       <c r="C76" t="n">
         <v>106.6110153198242</v>
@@ -5206,22 +5206,22 @@
         <v>110.9075393676758</v>
       </c>
       <c r="E76" t="n">
-        <v>0.009801377513280141</v>
+        <v>0.01</v>
       </c>
       <c r="F76" t="n">
-        <v>0.04945947473509615</v>
+        <v>0.049</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.01076957649674348</v>
+        <v>-0.011</v>
       </c>
       <c r="H76" t="n">
-        <v>-0.02741045798506836</v>
+        <v>-0.02741033785499258</v>
       </c>
       <c r="I76" t="n">
         <v>0.002360623234948234</v>
       </c>
       <c r="J76" t="n">
-        <v>0.02859675378906101</v>
+        <v>0.02859653544546181</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -5237,22 +5237,22 @@
         </is>
       </c>
       <c r="N76" t="n">
-        <v>-2.741045798506836</v>
+        <v>-2.741033785499258</v>
       </c>
       <c r="O76" t="n">
-        <v>0.7204644014301889</v>
+        <v>0.7204663443221644</v>
       </c>
       <c r="P76" t="n">
-        <v>-0.0277931336767474</v>
+        <v>-0.02779301016105741</v>
       </c>
       <c r="Q76" t="n">
-        <v>54.25942552132018</v>
+        <v>54.25953844960145</v>
       </c>
       <c r="R76" t="n">
-        <v>172.0464401430189</v>
+        <v>172.0466344322165</v>
       </c>
       <c r="S76" t="n">
-        <v>-6.277429525953942</v>
+        <v>-6.277423657420359</v>
       </c>
     </row>
     <row r="77">
@@ -5260,31 +5260,31 @@
         <v>43220</v>
       </c>
       <c r="B77" t="n">
-        <v>244.9477081298828</v>
+        <v>244.9476928710938</v>
       </c>
       <c r="C77" t="n">
-        <v>106.9418258666992</v>
+        <v>106.9418106079102</v>
       </c>
       <c r="D77" t="n">
-        <v>108.5916366577148</v>
+        <v>108.5916442871094</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.01564500557283754</v>
+        <v>-0.016</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004761495725862819</v>
+        <v>0.005</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.07395812306622884</v>
+        <v>-0.074</v>
       </c>
       <c r="H77" t="n">
-        <v>0.005168137767248338</v>
+        <v>0.005168012211624218</v>
       </c>
       <c r="I77" t="n">
-        <v>0.003102967792611322</v>
+        <v>0.003102824666790571</v>
       </c>
       <c r="J77" t="n">
-        <v>-0.02088138212392721</v>
+        <v>-0.02088131333334209</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>106.9418258666992</v>
+        <v>106.9418106079102</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
@@ -5300,22 +5300,22 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>0.3102967792611322</v>
+        <v>0.3102824666790571</v>
       </c>
       <c r="O77" t="n">
-        <v>0.7258029470561611</v>
+        <v>0.7258046497337103</v>
       </c>
       <c r="P77" t="n">
-        <v>0.003098163523812283</v>
+        <v>0.003098020840722354</v>
       </c>
       <c r="Q77" t="n">
-        <v>54.56924187370142</v>
+        <v>54.56934053367368</v>
       </c>
       <c r="R77" t="n">
-        <v>172.5802947056161</v>
+        <v>172.580464973371</v>
       </c>
       <c r="S77" t="n">
-        <v>-5.98661140833223</v>
+        <v>-5.986618935709434</v>
       </c>
     </row>
     <row r="78">
@@ -5323,31 +5323,31 @@
         <v>43251</v>
       </c>
       <c r="B78" t="n">
-        <v>250.9021759033203</v>
+        <v>250.9022064208984</v>
       </c>
       <c r="C78" t="n">
-        <v>106.7987670898438</v>
+        <v>106.7987747192383</v>
       </c>
       <c r="D78" t="n">
-        <v>110.7682723999023</v>
+        <v>110.7682495117188</v>
       </c>
       <c r="E78" t="n">
-        <v>0.06730104530165426</v>
+        <v>0.067</v>
       </c>
       <c r="F78" t="n">
-        <v>0.05048392283251646</v>
+        <v>0.05</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02046993627471749</v>
+        <v>0.02</v>
       </c>
       <c r="H78" t="n">
-        <v>0.02430913854593064</v>
+        <v>0.02430932694245991</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.001337725213648278</v>
+        <v>-0.001337511379869039</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0200442300086916</v>
+        <v>0.02004394756980177</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -5355,7 +5355,7 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>250.9021759033203</v>
+        <v>250.9022064208984</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
@@ -5363,22 +5363,22 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>-0.1337725213648278</v>
+        <v>-0.1337511379869039</v>
       </c>
       <c r="O78" t="n">
-        <v>0.7234942969400955</v>
+        <v>0.7234963663752605</v>
       </c>
       <c r="P78" t="n">
-        <v>-0.001338620766780326</v>
+        <v>-0.001338406646590003</v>
       </c>
       <c r="Q78" t="n">
-        <v>54.43537979702337</v>
+        <v>54.43549986901468</v>
       </c>
       <c r="R78" t="n">
-        <v>172.3494296940096</v>
+        <v>172.3496366375261</v>
       </c>
       <c r="S78" t="n">
-        <v>-6.112375488671822</v>
+        <v>-6.11236290274289</v>
       </c>
     </row>
     <row r="79">
@@ -5386,31 +5386,31 @@
         <v>43281</v>
       </c>
       <c r="B79" t="n">
-        <v>252.3450622558594</v>
+        <v>252.3450775146484</v>
       </c>
       <c r="C79" t="n">
-        <v>103.8120422363281</v>
+        <v>103.8120574951172</v>
       </c>
       <c r="D79" t="n">
-        <v>111.4835739135742</v>
+        <v>111.4835815429688</v>
       </c>
       <c r="E79" t="n">
-        <v>0.06033109378604407</v>
+        <v>0.06</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.0840295407378836</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.02015066448118774</v>
+        <v>-0.02</v>
       </c>
       <c r="H79" t="n">
-        <v>0.005750792504466196</v>
+        <v>0.005750730989306341</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.02796591135741355</v>
+        <v>-0.02796583792251206</v>
       </c>
       <c r="J79" t="n">
-        <v>0.006457638980677194</v>
+        <v>0.00645791582338151</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>252.3450622558594</v>
+        <v>252.3450775146484</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
@@ -5426,22 +5426,22 @@
         </is>
       </c>
       <c r="N79" t="n">
-        <v>0.5750792504466196</v>
+        <v>0.5750730989306341</v>
       </c>
       <c r="O79" t="n">
-        <v>0.7334057550244288</v>
+        <v>0.7334077303393316</v>
       </c>
       <c r="P79" t="n">
-        <v>0.005734319821067986</v>
+        <v>0.005734258657644408</v>
       </c>
       <c r="Q79" t="n">
-        <v>55.00881177913017</v>
+        <v>55.00892573477913</v>
       </c>
       <c r="R79" t="n">
-        <v>173.3405755024429</v>
+        <v>173.3407730339331</v>
       </c>
       <c r="S79" t="n">
-        <v>-5.572447241369939</v>
+        <v>-5.572440358574945</v>
       </c>
     </row>
     <row r="80">
@@ -5449,31 +5449,31 @@
         <v>43312</v>
       </c>
       <c r="B80" t="n">
-        <v>261.693603515625</v>
+        <v>261.6935729980469</v>
       </c>
       <c r="C80" t="n">
-        <v>104.8105163574219</v>
+        <v>104.8104934692383</v>
       </c>
       <c r="D80" t="n">
-        <v>109.8816909790039</v>
+        <v>109.881721496582</v>
       </c>
       <c r="E80" t="n">
-        <v>0.1183472828623617</v>
+        <v>0.118</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.06929379988787476</v>
+        <v>-0.06900000000000001</v>
       </c>
       <c r="G80" t="n">
-        <v>0.004903298315216742</v>
+        <v>0.005</v>
       </c>
       <c r="H80" t="n">
-        <v>0.03704665816003527</v>
+        <v>0.03704647451605525</v>
       </c>
       <c r="I80" t="n">
-        <v>0.009618095353723266</v>
+        <v>0.009617726478141186</v>
       </c>
       <c r="J80" t="n">
-        <v>-0.01436877988691088</v>
+        <v>-0.01436857359816091</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>261.693603515625</v>
+        <v>261.6935729980469</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.704665816003527</v>
+        <v>3.704647451605525</v>
       </c>
       <c r="O80" t="n">
-        <v>0.7976226454834567</v>
+        <v>0.7976243756472807</v>
       </c>
       <c r="P80" t="n">
-        <v>0.03637692163930159</v>
+        <v>0.03637674455566236</v>
       </c>
       <c r="Q80" t="n">
-        <v>58.64650394306034</v>
+        <v>58.64660019034535</v>
       </c>
       <c r="R80" t="n">
-        <v>179.7622645483457</v>
+        <v>179.7624375647281</v>
       </c>
       <c r="S80" t="n">
-        <v>-2.074221973432273</v>
+        <v>-2.07423217670561</v>
       </c>
     </row>
     <row r="81">
@@ -5515,28 +5515,28 @@
         <v>270.0468444824219</v>
       </c>
       <c r="C81" t="n">
-        <v>103.0114898681641</v>
+        <v>103.011474609375</v>
       </c>
       <c r="D81" t="n">
         <v>111.3233871459961</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1875696919796077</v>
+        <v>0.188</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.08427726981787353</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="G81" t="n">
-        <v>0.06564956746648498</v>
+        <v>0.066</v>
       </c>
       <c r="H81" t="n">
-        <v>0.03191992794083753</v>
+        <v>0.03192004827889816</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.01716456088359319</v>
+        <v>-0.01716449183965807</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01312044030399617</v>
+        <v>0.01312015892887985</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -5552,19 +5552,19 @@
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.191992794083753</v>
+        <v>3.192004827889816</v>
       </c>
       <c r="O81" t="n">
-        <v>0.8550026307921064</v>
+        <v>0.855004632505266</v>
       </c>
       <c r="P81" t="n">
-        <v>0.03142107484455815</v>
+        <v>0.03142119146024737</v>
       </c>
       <c r="Q81" t="n">
-        <v>61.78861142751615</v>
+        <v>61.78871933637009</v>
       </c>
       <c r="R81" t="n">
-        <v>185.5002630792106</v>
+        <v>185.5004632505266</v>
       </c>
       <c r="S81" t="n">
         <v>-0</v>
@@ -5575,31 +5575,31 @@
         <v>43373</v>
       </c>
       <c r="B82" t="n">
-        <v>271.65234375</v>
+        <v>271.6523742675781</v>
       </c>
       <c r="C82" t="n">
-        <v>101.2191848754883</v>
+        <v>101.2192153930664</v>
       </c>
       <c r="D82" t="n">
-        <v>108.1347503662109</v>
+        <v>108.1347579956055</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1931723688489337</v>
+        <v>0.193</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.1024670418806609</v>
+        <v>-0.102</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.08384324081809458</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="H82" t="n">
-        <v>0.005945262092046599</v>
+        <v>0.005945375100506967</v>
       </c>
       <c r="I82" t="n">
-        <v>-0.01739907844231359</v>
+        <v>-0.01739863663834473</v>
       </c>
       <c r="J82" t="n">
-        <v>-0.02864300899866967</v>
+        <v>-0.02864294046505134</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>271.65234375</v>
+        <v>271.6523742675781</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
@@ -5615,19 +5615,19 @@
         </is>
       </c>
       <c r="N82" t="n">
-        <v>0.5945262092046599</v>
+        <v>0.5945375100506967</v>
       </c>
       <c r="O82" t="n">
-        <v>0.8660311076136014</v>
+        <v>0.8660333308586878</v>
       </c>
       <c r="P82" t="n">
-        <v>0.005927658757873905</v>
+        <v>0.005927771098433851</v>
       </c>
       <c r="Q82" t="n">
-        <v>62.38137730330354</v>
+        <v>62.38149644621348</v>
       </c>
       <c r="R82" t="n">
-        <v>186.6031107613601</v>
+        <v>186.6033330858688</v>
       </c>
       <c r="S82" t="n">
         <v>-0</v>
@@ -5638,31 +5638,31 @@
         <v>43404</v>
       </c>
       <c r="B83" t="n">
-        <v>252.8799591064453</v>
+        <v>252.8800048828125</v>
       </c>
       <c r="C83" t="n">
         <v>90.98535919189453</v>
       </c>
       <c r="D83" t="n">
-        <v>104.9658279418945</v>
+        <v>104.9658432006836</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.083110985508417</v>
+        <v>-0.083</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.3776667744037219</v>
+        <v>-0.378</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.0950226836429976</v>
+        <v>-0.095</v>
       </c>
       <c r="H83" t="n">
-        <v>-0.06910444572063323</v>
+        <v>-0.06910438178712475</v>
       </c>
       <c r="I83" t="n">
-        <v>-0.1011055927409669</v>
+        <v>-0.1011058637574946</v>
       </c>
       <c r="J83" t="n">
-        <v>-0.02930531039822515</v>
+        <v>-0.0293052377760965</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>104.9658279418945</v>
+        <v>104.9658432006836</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
@@ -5678,22 +5678,22 @@
         </is>
       </c>
       <c r="N83" t="n">
-        <v>-6.910444572063323</v>
+        <v>-6.910438178712475</v>
       </c>
       <c r="O83" t="n">
-        <v>0.7370800622245042</v>
+        <v>0.7370822511355291</v>
       </c>
       <c r="P83" t="n">
-        <v>-0.07160819459419605</v>
+        <v>-0.07160812591462615</v>
       </c>
       <c r="Q83" t="n">
-        <v>55.22055784388393</v>
+        <v>55.22068385475086</v>
       </c>
       <c r="R83" t="n">
-        <v>173.7080062224504</v>
+        <v>173.7082251135529</v>
       </c>
       <c r="S83" t="n">
-        <v>-6.91044457206332</v>
+        <v>-6.910438178712472</v>
       </c>
     </row>
     <row r="84">
@@ -5701,31 +5701,31 @@
         <v>43434</v>
       </c>
       <c r="B84" t="n">
-        <v>257.57080078125</v>
+        <v>257.5707702636719</v>
       </c>
       <c r="C84" t="n">
-        <v>92.01415252685547</v>
+        <v>92.01417541503906</v>
       </c>
       <c r="D84" t="n">
-        <v>106.8417663574219</v>
+        <v>106.8417892456055</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.01105184237916201</v>
+        <v>-0.011</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.2389049662326796</v>
+        <v>-0.239</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.0527103039023703</v>
+        <v>-0.053</v>
       </c>
       <c r="H84" t="n">
-        <v>0.0185496774492524</v>
+        <v>0.01854937239119847</v>
       </c>
       <c r="I84" t="n">
-        <v>0.01130724046262377</v>
+        <v>0.01130749202159742</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01787189652394106</v>
+        <v>0.01787196661046453</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>106.8417663574219</v>
+        <v>106.8417892456055</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
@@ -5741,22 +5741,22 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>1.787189652394106</v>
+        <v>1.787196661046453</v>
       </c>
       <c r="O84" t="n">
-        <v>0.7681249773503815</v>
+        <v>0.7681273271274538</v>
       </c>
       <c r="P84" t="n">
-        <v>0.01771407182489046</v>
+        <v>0.01771414068082537</v>
       </c>
       <c r="Q84" t="n">
-        <v>56.99196502637298</v>
+        <v>56.99209792283339</v>
       </c>
       <c r="R84" t="n">
-        <v>176.8124977350382</v>
+        <v>176.8127327127454</v>
       </c>
       <c r="S84" t="n">
-        <v>-5.246757669995564</v>
+        <v>-5.246744638059647</v>
       </c>
     </row>
     <row r="85">
@@ -5764,31 +5764,31 @@
         <v>43465</v>
       </c>
       <c r="B85" t="n">
-        <v>234.8920440673828</v>
+        <v>234.8920593261719</v>
       </c>
       <c r="C85" t="n">
         <v>86.87265777587891</v>
       </c>
       <c r="D85" t="n">
-        <v>113.0958023071289</v>
+        <v>113.0957946777344</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.2937187817612746</v>
+        <v>-0.294</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.3478530927220844</v>
+        <v>-0.348</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1155937133107732</v>
+        <v>0.116</v>
       </c>
       <c r="H85" t="n">
-        <v>-0.08804863224045267</v>
+        <v>-0.08804846494920249</v>
       </c>
       <c r="I85" t="n">
-        <v>-0.0558772168170103</v>
+        <v>-0.05587745166403801</v>
       </c>
       <c r="J85" t="n">
-        <v>0.0585354975205592</v>
+        <v>0.05853519934744211</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>113.0958023071289</v>
+        <v>113.0957946777344</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
@@ -5804,19 +5804,19 @@
         </is>
       </c>
       <c r="N85" t="n">
-        <v>5.85354975205592</v>
+        <v>5.853519934744211</v>
       </c>
       <c r="O85" t="n">
-        <v>0.8716230525781137</v>
+        <v>0.8716250126925194</v>
       </c>
       <c r="P85" t="n">
-        <v>0.05688634671357232</v>
+        <v>0.05688606502896204</v>
       </c>
       <c r="Q85" t="n">
-        <v>62.68059969773021</v>
+        <v>62.68070442572959</v>
       </c>
       <c r="R85" t="n">
-        <v>187.1623052578114</v>
+        <v>187.1625012692519</v>
       </c>
       <c r="S85" t="n">
         <v>-0</v>
@@ -5827,31 +5827,31 @@
         <v>43496</v>
       </c>
       <c r="B86" t="n">
-        <v>253.6988067626953</v>
+        <v>253.6988983154297</v>
       </c>
       <c r="C86" t="n">
         <v>93.36883544921875</v>
       </c>
       <c r="D86" t="n">
-        <v>113.5239486694336</v>
+        <v>113.5239334106445</v>
       </c>
       <c r="E86" t="n">
-        <v>0.04034399535035271</v>
+        <v>0.04</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.02898625232047969</v>
+        <v>-0.029</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1329125126518398</v>
+        <v>0.133</v>
       </c>
       <c r="H86" t="n">
-        <v>0.08006555849936525</v>
+        <v>0.08006587810251431</v>
       </c>
       <c r="I86" t="n">
         <v>0.07477816196321752</v>
       </c>
       <c r="J86" t="n">
-        <v>0.003785696317375242</v>
+        <v>0.003785629113179034</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>253.6988067626953</v>
+        <v>253.6988983154297</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
@@ -5867,19 +5867,19 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>0.3785696317375242</v>
+        <v>0.3785629113179034</v>
       </c>
       <c r="O86" t="n">
-        <v>0.8787084490757733</v>
+        <v>0.8787102908295221</v>
       </c>
       <c r="P86" t="n">
-        <v>0.003778548602776597</v>
+        <v>0.003778481652033321</v>
       </c>
       <c r="Q86" t="n">
-        <v>63.05845455800787</v>
+        <v>63.05855259093293</v>
       </c>
       <c r="R86" t="n">
-        <v>187.8708449075773</v>
+        <v>187.8710290829522</v>
       </c>
       <c r="S86" t="n">
         <v>-0</v>
@@ -5890,31 +5890,31 @@
         <v>43524</v>
       </c>
       <c r="B87" t="n">
-        <v>261.9227294921875</v>
+        <v>261.9226989746094</v>
       </c>
       <c r="C87" t="n">
-        <v>95.30483245849609</v>
+        <v>95.30485534667969</v>
       </c>
       <c r="D87" t="n">
         <v>111.9613800048828</v>
       </c>
       <c r="E87" t="n">
-        <v>0.04478256923764512</v>
+        <v>0.045</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.002941237030571475</v>
+        <v>-0.003</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04762638631844218</v>
+        <v>0.048</v>
       </c>
       <c r="H87" t="n">
-        <v>0.03241608754267689</v>
+        <v>0.03241559468246025</v>
       </c>
       <c r="I87" t="n">
-        <v>0.02073493794757986</v>
+        <v>0.02073518308487299</v>
       </c>
       <c r="J87" t="n">
-        <v>-0.01376422052672577</v>
+        <v>-0.01376408796645168</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>261.9227294921875</v>
+        <v>261.9226989746094</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
@@ -5930,19 +5930,19 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.241608754267689</v>
+        <v>3.241559468246025</v>
       </c>
       <c r="O87" t="n">
-        <v>0.9396088266281803</v>
+        <v>0.939609802142819</v>
       </c>
       <c r="P87" t="n">
-        <v>0.03190177140526518</v>
+        <v>0.03190129401989679</v>
       </c>
       <c r="Q87" t="n">
-        <v>66.24863169853438</v>
+        <v>66.24868199292261</v>
       </c>
       <c r="R87" t="n">
-        <v>193.960882662818</v>
+        <v>193.9609802142819</v>
       </c>
       <c r="S87" t="n">
         <v>-0</v>
@@ -5953,31 +5953,31 @@
         <v>43555</v>
       </c>
       <c r="B88" t="n">
-        <v>266.6636657714844</v>
+        <v>266.6636962890625</v>
       </c>
       <c r="C88" t="n">
         <v>95.58411407470703</v>
       </c>
       <c r="D88" t="n">
-        <v>118.1995086669922</v>
+        <v>118.1995239257812</v>
       </c>
       <c r="E88" t="n">
-        <v>0.1430441402708869</v>
+        <v>0.143</v>
       </c>
       <c r="F88" t="n">
-        <v>0.04721874981301832</v>
+        <v>0.047</v>
       </c>
       <c r="G88" t="n">
-        <v>0.1942975116342489</v>
+        <v>0.194</v>
       </c>
       <c r="H88" t="n">
-        <v>0.01810051494381004</v>
+        <v>0.01810075008013223</v>
       </c>
       <c r="I88" t="n">
-        <v>0.002930403516868463</v>
+        <v>0.002930162655528035</v>
       </c>
       <c r="J88" t="n">
-        <v>0.05571678968084637</v>
+        <v>0.05571692596702893</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>266.6636657714844</v>
+        <v>266.6636962890625</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
@@ -5993,19 +5993,19 @@
         </is>
       </c>
       <c r="N88" t="n">
-        <v>1.810051494381004</v>
+        <v>1.810075008013223</v>
       </c>
       <c r="O88" t="n">
-        <v>0.9747167451797096</v>
+        <v>0.9747181944243808</v>
       </c>
       <c r="P88" t="n">
-        <v>0.01793865091991371</v>
+        <v>0.01793888187578848</v>
       </c>
       <c r="Q88" t="n">
-        <v>68.04249679052576</v>
+        <v>68.04257018050146</v>
       </c>
       <c r="R88" t="n">
-        <v>197.471674517971</v>
+        <v>197.4718194424381</v>
       </c>
       <c r="S88" t="n">
         <v>-0</v>
@@ -6016,31 +6016,31 @@
         <v>43585</v>
       </c>
       <c r="B89" t="n">
-        <v>277.5574951171875</v>
+        <v>277.5575256347656</v>
       </c>
       <c r="C89" t="n">
-        <v>97.95236206054688</v>
+        <v>97.95236968994141</v>
       </c>
       <c r="D89" t="n">
         <v>115.8460388183594</v>
       </c>
       <c r="E89" t="n">
-        <v>0.2305321736919284</v>
+        <v>0.231</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1293367016697062</v>
+        <v>0.129</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1119524747437526</v>
+        <v>0.112</v>
       </c>
       <c r="H89" t="n">
-        <v>0.04085231977212267</v>
+        <v>0.04085231509689358</v>
       </c>
       <c r="I89" t="n">
-        <v>0.02477658561535501</v>
+        <v>0.0247766654340007</v>
       </c>
       <c r="J89" t="n">
-        <v>-0.01991099519087958</v>
+        <v>-0.01991112171398979</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -6048,7 +6048,7 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>277.5574951171875</v>
+        <v>277.5575256347656</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
@@ -6056,19 +6056,19 @@
         </is>
       </c>
       <c r="N89" t="n">
-        <v>4.085231977212267</v>
+        <v>4.085231509689358</v>
       </c>
       <c r="O89" t="n">
-        <v>1.055388505113156</v>
+        <v>1.055390004330574</v>
       </c>
       <c r="P89" t="n">
-        <v>0.04003991575760786</v>
+        <v>0.04003991126587641</v>
       </c>
       <c r="Q89" t="n">
-        <v>72.04648836628655</v>
+        <v>72.04656130708909</v>
       </c>
       <c r="R89" t="n">
-        <v>205.5388505113156</v>
+        <v>205.5390004330574</v>
       </c>
       <c r="S89" t="n">
         <v>-0</v>
@@ -6079,31 +6079,31 @@
         <v>43616</v>
       </c>
       <c r="B90" t="n">
-        <v>259.8572998046875</v>
+        <v>259.8573608398438</v>
       </c>
       <c r="C90" t="n">
-        <v>92.78443145751953</v>
+        <v>92.784423828125</v>
       </c>
       <c r="D90" t="n">
-        <v>123.7690582275391</v>
+        <v>123.76904296875</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.06184531400972637</v>
+        <v>-0.062</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.06800025864940307</v>
+        <v>-0.068</v>
       </c>
       <c r="G90" t="n">
-        <v>0.3382119519766711</v>
+        <v>0.338</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.06377127486694889</v>
+        <v>-0.06377115790480603</v>
       </c>
       <c r="I90" t="n">
-        <v>-0.05275963227750358</v>
+        <v>-0.05275978394575886</v>
       </c>
       <c r="J90" t="n">
-        <v>0.06839266573113112</v>
+        <v>0.06839253401502554</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>123.7690582275391</v>
+        <v>123.76904296875</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
@@ -6119,22 +6119,22 @@
         </is>
       </c>
       <c r="N90" t="n">
-        <v>-6.377127486694889</v>
+        <v>-6.377115790480604</v>
       </c>
       <c r="O90" t="n">
-        <v>0.924313759795218</v>
+        <v>0.9243154038084491</v>
       </c>
       <c r="P90" t="n">
-        <v>-0.06589546789828823</v>
+        <v>-0.06589534296926991</v>
       </c>
       <c r="Q90" t="n">
-        <v>65.45694157645772</v>
+        <v>65.45702701016211</v>
       </c>
       <c r="R90" t="n">
-        <v>192.4313759795218</v>
+        <v>192.4315403808449</v>
       </c>
       <c r="S90" t="n">
-        <v>-6.377127486694895</v>
+        <v>-6.377115790480606</v>
       </c>
     </row>
     <row r="91">
@@ -6142,31 +6142,31 @@
         <v>43646</v>
       </c>
       <c r="B91" t="n">
-        <v>277.9398803710938</v>
+        <v>277.9398498535156</v>
       </c>
       <c r="C91" t="n">
-        <v>97.43116760253906</v>
+        <v>97.43118286132812</v>
       </c>
       <c r="D91" t="n">
-        <v>124.9449996948242</v>
+        <v>124.9449691772461</v>
       </c>
       <c r="E91" t="n">
-        <v>0.2939721855579269</v>
+        <v>0.294</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1959535048770156</v>
+        <v>0.196</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1969668055228218</v>
+        <v>0.197</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0695865791724819</v>
+        <v>0.06958621050883584</v>
       </c>
       <c r="I91" t="n">
-        <v>0.05008098958009999</v>
+        <v>0.05008124037942885</v>
       </c>
       <c r="J91" t="n">
-        <v>0.009501094087047912</v>
+        <v>0.009500971974009786</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>277.9398803710938</v>
+        <v>277.9398498535156</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
@@ -6182,22 +6182,22 @@
         </is>
       </c>
       <c r="N91" t="n">
-        <v>0.9501094087047912</v>
+        <v>0.9500971974009786</v>
       </c>
       <c r="O91" t="n">
-        <v>0.9425968458800333</v>
+        <v>0.9425982705291884</v>
       </c>
       <c r="P91" t="n">
-        <v>0.009456242561200931</v>
+        <v>0.009456121597443461</v>
       </c>
       <c r="Q91" t="n">
-        <v>66.40256583257782</v>
+        <v>66.40263916990645</v>
       </c>
       <c r="R91" t="n">
-        <v>194.2596845880033</v>
+        <v>194.2598270529188</v>
       </c>
       <c r="S91" t="n">
-        <v>-5.487607766246288</v>
+        <v>-5.487607391480003</v>
       </c>
     </row>
     <row r="92">
@@ -6214,22 +6214,22 @@
         <v>125.2654647827148</v>
       </c>
       <c r="E92" t="n">
-        <v>0.1439981715518694</v>
+        <v>0.144</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.02169032716909225</v>
+        <v>-0.022</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1970676949473478</v>
+        <v>0.197</v>
       </c>
       <c r="H92" t="n">
-        <v>0.01511946043791879</v>
+        <v>0.01511957189724145</v>
       </c>
       <c r="I92" t="n">
-        <v>-0.02156564293733887</v>
+        <v>-0.02156579617086252</v>
       </c>
       <c r="J92" t="n">
-        <v>0.002564849243053891</v>
+        <v>0.00256509411766781</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -6245,22 +6245,22 @@
         </is>
       </c>
       <c r="N92" t="n">
-        <v>1.511946043791879</v>
+        <v>1.511957189724145</v>
       </c>
       <c r="O92" t="n">
-        <v>0.9719678620381422</v>
+        <v>0.9719695247479114</v>
       </c>
       <c r="P92" t="n">
-        <v>0.01500630058096391</v>
+        <v>0.01500641038017561</v>
       </c>
       <c r="Q92" t="n">
-        <v>67.90319589067421</v>
+        <v>67.90328020792401</v>
       </c>
       <c r="R92" t="n">
-        <v>197.1967862038142</v>
+        <v>197.1969524747911</v>
       </c>
       <c r="S92" t="n">
-        <v>-4.058631390974991</v>
+        <v>-4.058620476255172</v>
       </c>
     </row>
     <row r="93">
@@ -6271,28 +6271,28 @@
         <v>277.4181518554688</v>
       </c>
       <c r="C93" t="n">
-        <v>92.8863525390625</v>
+        <v>92.88636016845703</v>
       </c>
       <c r="D93" t="n">
-        <v>139.1061859130859</v>
+        <v>139.1062316894531</v>
       </c>
       <c r="E93" t="n">
-        <v>0.103423593238839</v>
+        <v>0.103</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.05523067802561488</v>
+        <v>-0.055</v>
       </c>
       <c r="G93" t="n">
-        <v>0.488447523269723</v>
+        <v>0.488</v>
       </c>
       <c r="H93" t="n">
         <v>-0.01674343594294792</v>
       </c>
       <c r="I93" t="n">
-        <v>-0.02563358066774046</v>
+        <v>-0.02563350063632974</v>
       </c>
       <c r="J93" t="n">
-        <v>0.1104911170399534</v>
+        <v>0.1104914824748102</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -6311,19 +6311,19 @@
         <v>-1.674343594294792</v>
       </c>
       <c r="O93" t="n">
-        <v>0.9389503444585547</v>
+        <v>0.9389519793288494</v>
       </c>
       <c r="P93" t="n">
         <v>-0.01688519181449298</v>
       </c>
       <c r="Q93" t="n">
-        <v>66.2146767092249</v>
+        <v>66.2147610264747</v>
       </c>
       <c r="R93" t="n">
-        <v>193.8950344458555</v>
+        <v>193.8951979328849</v>
       </c>
       <c r="S93" t="n">
-        <v>-5.66501955055895</v>
+        <v>-5.665008818589043</v>
       </c>
     </row>
     <row r="94">
@@ -6331,31 +6331,31 @@
         <v>43738</v>
       </c>
       <c r="B94" t="n">
-        <v>282.8161010742188</v>
+        <v>282.8161315917969</v>
       </c>
       <c r="C94" t="n">
-        <v>94.88002014160156</v>
+        <v>94.88002777099609</v>
       </c>
       <c r="D94" t="n">
-        <v>135.3782958984375</v>
+        <v>135.3783264160156</v>
       </c>
       <c r="E94" t="n">
-        <v>0.07121103880953017</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.0407906872120738</v>
+        <v>-0.041</v>
       </c>
       <c r="G94" t="n">
-        <v>0.2207668495687762</v>
+        <v>0.221</v>
       </c>
       <c r="H94" t="n">
-        <v>0.01945780830362631</v>
+        <v>0.01945791830932686</v>
       </c>
       <c r="I94" t="n">
-        <v>0.02146351480106445</v>
+        <v>0.02146351303811866</v>
       </c>
       <c r="J94" t="n">
-        <v>-0.02679888022361299</v>
+        <v>-0.02679898109640289</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>282.8161010742188</v>
+        <v>282.8161315917969</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
@@ -6371,22 +6371,22 @@
         </is>
       </c>
       <c r="N94" t="n">
-        <v>1.945780830362631</v>
+        <v>1.945791830932686</v>
       </c>
       <c r="O94" t="n">
-        <v>0.9766780685712795</v>
+        <v>0.9766799485483377</v>
       </c>
       <c r="P94" t="n">
-        <v>0.0192709254811781</v>
+        <v>0.01927103338725691</v>
       </c>
       <c r="Q94" t="n">
-        <v>68.14176925734272</v>
+        <v>68.14186436520041</v>
       </c>
       <c r="R94" t="n">
-        <v>197.6678068571279</v>
+        <v>197.6679948548338</v>
       </c>
       <c r="S94" t="n">
-        <v>-3.829467584647392</v>
+        <v>-3.829446266470082</v>
       </c>
     </row>
     <row r="95">
@@ -6394,31 +6394,31 @@
         <v>43769</v>
       </c>
       <c r="B95" t="n">
-        <v>289.0676879882812</v>
+        <v>289.0677185058594</v>
       </c>
       <c r="C95" t="n">
-        <v>98.36066436767578</v>
+        <v>98.36067199707031</v>
       </c>
       <c r="D95" t="n">
-        <v>133.8712615966797</v>
+        <v>133.8712310791016</v>
       </c>
       <c r="E95" t="n">
-        <v>0.1172299890908037</v>
+        <v>0.117</v>
       </c>
       <c r="F95" t="n">
-        <v>0.095556312152975</v>
+        <v>0.096</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1772765519283956</v>
+        <v>0.177</v>
       </c>
       <c r="H95" t="n">
-        <v>0.02210477723975801</v>
+        <v>0.02210477485451823</v>
       </c>
       <c r="I95" t="n">
-        <v>0.03668469105381322</v>
+        <v>0.03668468810396175</v>
       </c>
       <c r="J95" t="n">
-        <v>-0.01113202298608051</v>
+        <v>-0.0111324713254527</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -6426,7 +6426,7 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>289.0676879882812</v>
+        <v>289.0677185058594</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
@@ -6434,22 +6434,22 @@
         </is>
       </c>
       <c r="N95" t="n">
-        <v>2.210477723975801</v>
+        <v>2.210477485451823</v>
       </c>
       <c r="O95" t="n">
-        <v>1.020372096951763</v>
+        <v>1.020374013770439</v>
       </c>
       <c r="P95" t="n">
-        <v>0.02186400828753178</v>
+        <v>0.02186400595387692</v>
       </c>
       <c r="Q95" t="n">
-        <v>70.32817008609589</v>
+        <v>70.3282649605881</v>
       </c>
       <c r="R95" t="n">
-        <v>202.0372096951763</v>
+        <v>202.0374013770439</v>
       </c>
       <c r="S95" t="n">
-        <v>-1.703639388577098</v>
+        <v>-1.703617828556059</v>
       </c>
     </row>
     <row r="96">
@@ -6457,31 +6457,31 @@
         <v>43799</v>
       </c>
       <c r="B96" t="n">
-        <v>299.5314636230469</v>
+        <v>299.5313415527344</v>
       </c>
       <c r="C96" t="n">
-        <v>100.0823822021484</v>
+        <v>100.0823669433594</v>
       </c>
       <c r="D96" t="n">
         <v>133.3262634277344</v>
       </c>
       <c r="E96" t="n">
-        <v>0.2658266792090396</v>
+        <v>0.266</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1719964462128294</v>
+        <v>0.172</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04503202344122237</v>
+        <v>0.045</v>
       </c>
       <c r="H96" t="n">
-        <v>0.03619835792643089</v>
+        <v>0.03619782624279066</v>
       </c>
       <c r="I96" t="n">
-        <v>0.01750412978136073</v>
+        <v>0.01750389572714939</v>
       </c>
       <c r="J96" t="n">
-        <v>-0.004071061723368685</v>
+        <v>-0.004070834689233416</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -6489,7 +6489,7 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>299.5314636230469</v>
+        <v>299.5313415527344</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
@@ -6497,19 +6497,19 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.619835792643089</v>
+        <v>3.619782624279066</v>
       </c>
       <c r="O96" t="n">
-        <v>1.093506249261796</v>
+        <v>1.093507161266351</v>
       </c>
       <c r="P96" t="n">
-        <v>0.03555859069012565</v>
+        <v>0.03555807758008975</v>
       </c>
       <c r="Q96" t="n">
-        <v>73.88402915510846</v>
+        <v>73.88407271859707</v>
       </c>
       <c r="R96" t="n">
-        <v>209.3506249261796</v>
+        <v>209.3507161266351</v>
       </c>
       <c r="S96" t="n">
         <v>-0</v>
@@ -6520,31 +6520,31 @@
         <v>43830</v>
       </c>
       <c r="B97" t="n">
-        <v>308.234375</v>
+        <v>308.2344360351562</v>
       </c>
       <c r="C97" t="n">
         <v>105.4338150024414</v>
       </c>
       <c r="D97" t="n">
-        <v>129.0632019042969</v>
+        <v>129.0631256103516</v>
       </c>
       <c r="E97" t="n">
-        <v>0.2393547606103397</v>
+        <v>0.239</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2538913279319983</v>
+        <v>0.254</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.06361724156379533</v>
+        <v>-0.064</v>
       </c>
       <c r="H97" t="n">
-        <v>0.02905508246674726</v>
+        <v>0.02905570561433102</v>
       </c>
       <c r="I97" t="n">
-        <v>0.05347027801040971</v>
+        <v>0.05347043862492407</v>
       </c>
       <c r="J97" t="n">
-        <v>-0.03197465685932288</v>
+        <v>-0.0319752290942551</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -6560,19 +6560,19 @@
         </is>
       </c>
       <c r="N97" t="n">
-        <v>2.905508246674726</v>
+        <v>2.905570561433102</v>
       </c>
       <c r="O97" t="n">
-        <v>1.154333245978748</v>
+        <v>1.1543354890456</v>
       </c>
       <c r="P97" t="n">
-        <v>0.02864098551324886</v>
+        <v>0.02864159106625151</v>
       </c>
       <c r="Q97" t="n">
-        <v>76.74812770643335</v>
+        <v>76.74823182522222</v>
       </c>
       <c r="R97" t="n">
-        <v>215.4333245978748</v>
+        <v>215.43354890456</v>
       </c>
       <c r="S97" t="n">
         <v>-0</v>
@@ -6583,31 +6583,31 @@
         <v>43861</v>
       </c>
       <c r="B98" t="n">
-        <v>308.1099853515625</v>
+        <v>308.1099243164062</v>
       </c>
       <c r="C98" t="n">
         <v>101.45751953125</v>
       </c>
       <c r="D98" t="n">
-        <v>138.9895782470703</v>
+        <v>138.9895935058594</v>
       </c>
       <c r="E98" t="n">
-        <v>0.1656764492460835</v>
+        <v>0.166</v>
       </c>
       <c r="F98" t="n">
-        <v>0.06283650586489664</v>
+        <v>0.063</v>
       </c>
       <c r="G98" t="n">
-        <v>0.1963410382651924</v>
+        <v>0.196</v>
       </c>
       <c r="H98" t="n">
-        <v>-0.0004035554062958857</v>
+        <v>-0.0004039513571280073</v>
       </c>
       <c r="I98" t="n">
         <v>-0.03771366398056764</v>
       </c>
       <c r="J98" t="n">
-        <v>0.07691097227026855</v>
+        <v>0.07691172709915883</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>308.1099853515625</v>
+        <v>308.1099243164062</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
@@ -6626,19 +6626,19 @@
         <v>-3.771366398056764</v>
       </c>
       <c r="O98" t="n">
-        <v>1.07308544583774</v>
+        <v>1.073087604310322</v>
       </c>
       <c r="P98" t="n">
         <v>-0.03844322601454236</v>
       </c>
       <c r="Q98" t="n">
-        <v>72.90380510497911</v>
+        <v>72.903909223768</v>
       </c>
       <c r="R98" t="n">
-        <v>207.308544583774</v>
+        <v>207.3087604310322</v>
       </c>
       <c r="S98" t="n">
-        <v>-3.771366398056759</v>
+        <v>-3.771366398056771</v>
       </c>
     </row>
     <row r="99">
@@ -6646,31 +6646,31 @@
         <v>43890</v>
       </c>
       <c r="B99" t="n">
-        <v>283.7182006835938</v>
+        <v>283.7182312011719</v>
       </c>
       <c r="C99" t="n">
         <v>93.56184387207031</v>
       </c>
       <c r="D99" t="n">
-        <v>148.1997222900391</v>
+        <v>148.19970703125</v>
       </c>
       <c r="E99" t="n">
-        <v>-0.1230357783459244</v>
+        <v>-0.123</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.1544614330033598</v>
+        <v>-0.154</v>
       </c>
       <c r="G99" t="n">
-        <v>0.2530769337241741</v>
+        <v>0.253</v>
       </c>
       <c r="H99" t="n">
-        <v>-0.07916583631697949</v>
+        <v>-0.07916555485627885</v>
       </c>
       <c r="I99" t="n">
         <v>-0.07782247876410708</v>
       </c>
       <c r="J99" t="n">
-        <v>0.06626499741294722</v>
+        <v>0.06626477057077196</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>148.1997222900391</v>
+        <v>148.19970703125</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
@@ -6686,22 +6686,22 @@
         </is>
       </c>
       <c r="N99" t="n">
-        <v>-7.916583631697948</v>
+        <v>-7.916555485627885</v>
       </c>
       <c r="O99" t="n">
-        <v>0.9089679027614372</v>
+        <v>0.9089704738494218</v>
       </c>
       <c r="P99" t="n">
-        <v>-0.08247532008742821</v>
+        <v>-0.08247501442907113</v>
       </c>
       <c r="Q99" t="n">
-        <v>64.65627309623629</v>
+        <v>64.65640778086087</v>
       </c>
       <c r="R99" t="n">
-        <v>190.8967902761437</v>
+        <v>190.8970473849422</v>
       </c>
       <c r="S99" t="n">
-        <v>-11.38938665479479</v>
+        <v>-11.38935957021617</v>
       </c>
     </row>
     <row r="100">
@@ -6709,31 +6709,31 @@
         <v>43921</v>
       </c>
       <c r="B100" t="n">
-        <v>248.2899322509766</v>
+        <v>248.2899627685547</v>
       </c>
       <c r="C100" t="n">
         <v>74.25919342041016</v>
       </c>
       <c r="D100" t="n">
-        <v>157.64990234375</v>
+        <v>157.6499176025391</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.4222326743659714</v>
+        <v>-0.422</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.7097664310966512</v>
+        <v>-0.71</v>
       </c>
       <c r="G100" t="n">
-        <v>0.4329796398913661</v>
+        <v>0.433</v>
       </c>
       <c r="H100" t="n">
-        <v>-0.1248713277726136</v>
+        <v>-0.1248713143410816</v>
       </c>
       <c r="I100" t="n">
         <v>-0.2063090000455015</v>
       </c>
       <c r="J100" t="n">
-        <v>0.06376651661476229</v>
+        <v>0.06376672910221304</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -6741,7 +6741,7 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>157.64990234375</v>
+        <v>157.6499176025391</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
@@ -6749,22 +6749,22 @@
         </is>
       </c>
       <c r="N100" t="n">
-        <v>6.376651661476229</v>
+        <v>6.376672910221304</v>
       </c>
       <c r="O100" t="n">
-        <v>1.030696136249922</v>
+        <v>1.030699276919501</v>
       </c>
       <c r="P100" t="n">
-        <v>0.06181592756729284</v>
+        <v>0.0618161273173566</v>
       </c>
       <c r="Q100" t="n">
-        <v>70.83786585296558</v>
+        <v>70.83802051259654</v>
       </c>
       <c r="R100" t="n">
-        <v>203.0696136249922</v>
+        <v>203.0699276919501</v>
       </c>
       <c r="S100" t="n">
-        <v>-5.738996506673493</v>
+        <v>-5.738948866356545</v>
       </c>
     </row>
     <row r="101">
@@ -6778,25 +6778,25 @@
         <v>82.88559722900391</v>
       </c>
       <c r="D101" t="n">
-        <v>159.5715942382812</v>
+        <v>159.5716400146484</v>
       </c>
       <c r="E101" t="n">
-        <v>-0.005719495001303088</v>
+        <v>-0.006</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.2336752088475933</v>
+        <v>-0.234</v>
       </c>
       <c r="G101" t="n">
-        <v>0.3559313237815849</v>
+        <v>0.356</v>
       </c>
       <c r="H101" t="n">
-        <v>0.1269836538741043</v>
+        <v>0.1269835153553687</v>
       </c>
       <c r="I101" t="n">
         <v>0.1161661393190245</v>
       </c>
       <c r="J101" t="n">
-        <v>0.01218961677718688</v>
+        <v>0.01218980917550705</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -6804,7 +6804,7 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>159.5715942382812</v>
+        <v>159.5716400146484</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
@@ -6812,22 +6812,22 @@
         </is>
       </c>
       <c r="N101" t="n">
-        <v>1.218961677718688</v>
+        <v>1.218980917550705</v>
       </c>
       <c r="O101" t="n">
-        <v>1.055449543941723</v>
+        <v>1.05545311359799</v>
       </c>
       <c r="P101" t="n">
-        <v>0.01211592167091959</v>
+        <v>0.01211611175220346</v>
       </c>
       <c r="Q101" t="n">
-        <v>72.04945802005753</v>
+        <v>72.0496316878169</v>
       </c>
       <c r="R101" t="n">
-        <v>205.5449543941723</v>
+        <v>205.545311359799</v>
       </c>
       <c r="S101" t="n">
-        <v>-4.589990997056761</v>
+        <v>-4.589924640354725</v>
       </c>
     </row>
     <row r="102">
@@ -6835,31 +6835,31 @@
         <v>43982</v>
       </c>
       <c r="B102" t="n">
-        <v>293.1507263183594</v>
+        <v>293.1506958007812</v>
       </c>
       <c r="C102" t="n">
-        <v>88.17152404785156</v>
+        <v>88.17153167724609</v>
       </c>
       <c r="D102" t="n">
-        <v>156.7600860595703</v>
+        <v>156.7601165771484</v>
       </c>
       <c r="E102" t="n">
-        <v>0.04983476963871092</v>
+        <v>0.05</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.1316335900669643</v>
+        <v>-0.132</v>
       </c>
       <c r="G102" t="n">
-        <v>0.2044352620104857</v>
+        <v>0.204</v>
       </c>
       <c r="H102" t="n">
-        <v>0.04764524845898155</v>
+        <v>0.04764513939701165</v>
       </c>
       <c r="I102" t="n">
-        <v>0.06377376764558029</v>
+        <v>0.06377385969286942</v>
       </c>
       <c r="J102" t="n">
-        <v>-0.01761910189674887</v>
+        <v>-0.01761919246579091</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>293.1507263183594</v>
+        <v>293.1506958007812</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
@@ -6875,22 +6875,22 @@
         </is>
       </c>
       <c r="N102" t="n">
-        <v>-1.761910189674887</v>
+        <v>-1.761919246579091</v>
       </c>
       <c r="O102" t="n">
-        <v>1.019234368983388</v>
+        <v>1.019237689585097</v>
       </c>
       <c r="P102" t="n">
-        <v>-0.01777616589143839</v>
+        <v>-0.01777625808484971</v>
       </c>
       <c r="Q102" t="n">
-        <v>70.2718414309137</v>
+        <v>70.27200587933193</v>
       </c>
       <c r="R102" t="n">
-        <v>201.9234368983388</v>
+        <v>201.9237689585098</v>
       </c>
       <c r="S102" t="n">
-        <v>-6.271029667649347</v>
+        <v>-6.270973121291934</v>
       </c>
     </row>
     <row r="103">
@@ -6904,25 +6904,25 @@
         <v>91.69231414794922</v>
       </c>
       <c r="D103" t="n">
-        <v>157.2877655029297</v>
+        <v>157.2878265380859</v>
       </c>
       <c r="E103" t="n">
-        <v>0.2349416170410505</v>
+        <v>0.235</v>
       </c>
       <c r="F103" t="n">
-        <v>0.1864498347187045</v>
+        <v>0.186</v>
       </c>
       <c r="G103" t="n">
-        <v>0.1923637939260334</v>
+        <v>0.192</v>
       </c>
       <c r="H103" t="n">
-        <v>0.01773440101736812</v>
+        <v>0.01773450696556989</v>
       </c>
       <c r="I103" t="n">
-        <v>0.03993114713755985</v>
+        <v>0.03993105715335687</v>
       </c>
       <c r="J103" t="n">
-        <v>0.003366159439073257</v>
+        <v>0.003366353460689142</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -6938,22 +6938,22 @@
         </is>
       </c>
       <c r="N103" t="n">
-        <v>1.773440101736812</v>
+        <v>1.773450696556989</v>
       </c>
       <c r="O103" t="n">
-        <v>1.055044281030991</v>
+        <v>1.055047874456186</v>
       </c>
       <c r="P103" t="n">
-        <v>0.01757898135386164</v>
+        <v>0.01757908545587111</v>
       </c>
       <c r="Q103" t="n">
-        <v>72.02973956629985</v>
+        <v>72.02991442491904</v>
       </c>
       <c r="R103" t="n">
-        <v>205.5044281030991</v>
+        <v>205.5047874456186</v>
       </c>
       <c r="S103" t="n">
-        <v>-4.608802520830443</v>
+        <v>-4.60873504123539</v>
       </c>
     </row>
     <row r="104">
@@ -6961,31 +6961,31 @@
         <v>44043</v>
       </c>
       <c r="B104" t="n">
-        <v>315.9200439453125</v>
+        <v>315.9200744628906</v>
       </c>
       <c r="C104" t="n">
-        <v>96.51322937011719</v>
+        <v>96.51322174072266</v>
       </c>
       <c r="D104" t="n">
         <v>164.2637634277344</v>
       </c>
       <c r="E104" t="n">
-        <v>0.2365930242705196</v>
+        <v>0.237</v>
       </c>
       <c r="F104" t="n">
-        <v>0.1893872254121018</v>
+        <v>0.189</v>
       </c>
       <c r="G104" t="n">
-        <v>0.2488908436535782</v>
+        <v>0.249</v>
       </c>
       <c r="H104" t="n">
-        <v>0.05889220677025775</v>
+        <v>0.05889230905824583</v>
       </c>
       <c r="I104" t="n">
-        <v>0.0525770918420625</v>
+        <v>0.05257700863558434</v>
       </c>
       <c r="J104" t="n">
-        <v>0.0443518153017104</v>
+        <v>0.04435141004354382</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -6993,7 +6993,7 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>315.9200439453125</v>
+        <v>315.9200744628906</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
@@ -7001,19 +7001,19 @@
         </is>
       </c>
       <c r="N104" t="n">
-        <v>5.889220677025775</v>
+        <v>5.889230905824583</v>
       </c>
       <c r="O104" t="n">
-        <v>1.176070373751504</v>
+        <v>1.17607438900815</v>
       </c>
       <c r="P104" t="n">
-        <v>0.05722327368619119</v>
+        <v>0.05722337028524299</v>
       </c>
       <c r="Q104" t="n">
-        <v>77.75206693491897</v>
+        <v>77.75225145344334</v>
       </c>
       <c r="R104" t="n">
-        <v>217.6070373751504</v>
+        <v>217.6074389008151</v>
       </c>
       <c r="S104" t="n">
         <v>-0</v>
@@ -7030,25 +7030,25 @@
         <v>102.159782409668</v>
       </c>
       <c r="D105" t="n">
-        <v>155.9741058349609</v>
+        <v>155.9740905761719</v>
       </c>
       <c r="E105" t="n">
-        <v>0.336628504665679</v>
+        <v>0.337</v>
       </c>
       <c r="F105" t="n">
-        <v>0.2394573321123425</v>
+        <v>0.239</v>
       </c>
       <c r="G105" t="n">
-        <v>0.01017539717135441</v>
+        <v>0.01</v>
       </c>
       <c r="H105" t="n">
-        <v>0.06979668217017121</v>
+        <v>0.06979657882883128</v>
       </c>
       <c r="I105" t="n">
-        <v>0.05850548237171616</v>
+        <v>0.05850556604684165</v>
       </c>
       <c r="J105" t="n">
-        <v>-0.05046552824427619</v>
+        <v>-0.05046562113627351</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -7064,19 +7064,19 @@
         </is>
       </c>
       <c r="N105" t="n">
-        <v>6.979668217017121</v>
+        <v>6.979657882883128</v>
       </c>
       <c r="O105" t="n">
-        <v>1.327952866008164</v>
+        <v>1.327956936637959</v>
       </c>
       <c r="P105" t="n">
-        <v>0.06746861375496997</v>
+        <v>0.06746851715591835</v>
       </c>
       <c r="Q105" t="n">
-        <v>84.49892831041596</v>
+        <v>84.49910316903517</v>
       </c>
       <c r="R105" t="n">
-        <v>232.7952866008164</v>
+        <v>232.7956936637959</v>
       </c>
       <c r="S105" t="n">
         <v>-0</v>
@@ -7087,31 +7087,31 @@
         <v>44104</v>
       </c>
       <c r="B106" t="n">
-        <v>325.3153991699219</v>
+        <v>325.3154296875</v>
       </c>
       <c r="C106" t="n">
-        <v>100.2369995117188</v>
+        <v>100.2369918823242</v>
       </c>
       <c r="D106" t="n">
         <v>157.180419921875</v>
       </c>
       <c r="E106" t="n">
-        <v>0.4001168277958528</v>
+        <v>0.4</v>
       </c>
       <c r="F106" t="n">
-        <v>0.4756829146985371</v>
+        <v>0.476</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.0173184187829819</v>
+        <v>-0.017</v>
       </c>
       <c r="H106" t="n">
-        <v>-0.03744358265321901</v>
+        <v>-0.03744349235656919</v>
       </c>
       <c r="I106" t="n">
-        <v>-0.01882132922169633</v>
+        <v>-0.01882140390269449</v>
       </c>
       <c r="J106" t="n">
-        <v>0.007734066372468762</v>
+        <v>0.007734164958083101</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -7119,7 +7119,7 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>100.2369995117188</v>
+        <v>100.2369918823242</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
@@ -7127,22 +7127,22 @@
         </is>
       </c>
       <c r="N106" t="n">
-        <v>-3.744358265321901</v>
+        <v>-3.744349235656919</v>
       </c>
       <c r="O106" t="n">
-        <v>1.240785970456989</v>
+        <v>1.240790098874533</v>
       </c>
       <c r="P106" t="n">
-        <v>-0.03816259911278767</v>
+        <v>-0.03816250530358962</v>
       </c>
       <c r="Q106" t="n">
-        <v>80.6826683991372</v>
+        <v>80.68285263867621</v>
       </c>
       <c r="R106" t="n">
-        <v>224.0785970456989</v>
+        <v>224.0790098874533</v>
       </c>
       <c r="S106" t="n">
-        <v>-3.744358265321905</v>
+        <v>-3.744349235656918</v>
       </c>
     </row>
     <row r="107">
@@ -7150,31 +7150,31 @@
         <v>44135</v>
       </c>
       <c r="B107" t="n">
-        <v>317.2041625976562</v>
+        <v>317.2041931152344</v>
       </c>
       <c r="C107" t="n">
-        <v>97.51425170898438</v>
+        <v>97.51425933837891</v>
       </c>
       <c r="D107" t="n">
-        <v>151.8595275878906</v>
+        <v>151.8595123291016</v>
       </c>
       <c r="E107" t="n">
-        <v>0.1435636083552321</v>
+        <v>0.144</v>
       </c>
       <c r="F107" t="n">
-        <v>0.1868496563735288</v>
+        <v>0.187</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.1657763056108382</v>
+        <v>-0.166</v>
       </c>
       <c r="H107" t="n">
-        <v>-0.0249334540970465</v>
+        <v>-0.02493345175805939</v>
       </c>
       <c r="I107" t="n">
-        <v>-0.02716310160916235</v>
+        <v>-0.02716295144951808</v>
       </c>
       <c r="J107" t="n">
-        <v>-0.03385213206981552</v>
+        <v>-0.03385222914799535</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -7182,7 +7182,7 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>97.51425170898438</v>
+        <v>97.51425933837891</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
@@ -7190,22 +7190,22 @@
         </is>
       </c>
       <c r="N107" t="n">
-        <v>-2.716310160916235</v>
+        <v>-2.716295144951808</v>
       </c>
       <c r="O107" t="n">
-        <v>1.17991927345708</v>
+        <v>1.179923626210243</v>
       </c>
       <c r="P107" t="n">
-        <v>-0.02753883840029647</v>
+        <v>-0.02753868404797602</v>
       </c>
       <c r="Q107" t="n">
-        <v>77.92878455910756</v>
+        <v>77.92898423387861</v>
       </c>
       <c r="R107" t="n">
-        <v>217.991927345708</v>
+        <v>217.9923626210243</v>
       </c>
       <c r="S107" t="n">
-        <v>-6.3589600422161</v>
+        <v>-6.358936804110538</v>
       </c>
     </row>
     <row r="108">
@@ -7216,28 +7216,28 @@
         <v>351.7086181640625</v>
       </c>
       <c r="C108" t="n">
-        <v>110.2616500854492</v>
+        <v>110.2616424560547</v>
       </c>
       <c r="D108" t="n">
-        <v>154.3863372802734</v>
+        <v>154.3863067626953</v>
       </c>
       <c r="E108" t="n">
-        <v>0.3092630297393797</v>
+        <v>0.309</v>
       </c>
       <c r="F108" t="n">
-        <v>0.3943638331322354</v>
+        <v>0.394</v>
       </c>
       <c r="G108" t="n">
-        <v>0.00382824021439343</v>
+        <v>0.004</v>
       </c>
       <c r="H108" t="n">
-        <v>0.1087768057135237</v>
+        <v>0.1087766990403349</v>
       </c>
       <c r="I108" t="n">
-        <v>0.1307234394261405</v>
+        <v>0.1307232727209853</v>
       </c>
       <c r="J108" t="n">
-        <v>0.0166391252002307</v>
+        <v>0.01663902639248449</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>110.2616500854492</v>
+        <v>110.2616424560547</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
@@ -7253,19 +7253,19 @@
         </is>
       </c>
       <c r="N108" t="n">
-        <v>13.07234394261405</v>
+        <v>13.07232727209853</v>
       </c>
       <c r="O108" t="n">
-        <v>1.464885818554723</v>
+        <v>1.464890376910244</v>
       </c>
       <c r="P108" t="n">
-        <v>0.122857639757589</v>
+        <v>0.12285749232528</v>
       </c>
       <c r="Q108" t="n">
-        <v>90.21454853486645</v>
+        <v>90.2147334664066</v>
       </c>
       <c r="R108" t="n">
-        <v>246.4885818554723</v>
+        <v>246.4890376910244</v>
       </c>
       <c r="S108" t="n">
         <v>-0</v>
@@ -7285,22 +7285,22 @@
         <v>152.4909973144531</v>
       </c>
       <c r="E109" t="n">
-        <v>0.3579090408357621</v>
+        <v>0.358</v>
       </c>
       <c r="F109" t="n">
-        <v>0.4871846671438302</v>
+        <v>0.487</v>
       </c>
       <c r="G109" t="n">
-        <v>-0.0549167224509538</v>
+        <v>-0.055</v>
       </c>
       <c r="H109" t="n">
         <v>0.03704831707099521</v>
       </c>
       <c r="I109" t="n">
-        <v>0.06915874141091871</v>
+        <v>0.06915881538980817</v>
       </c>
       <c r="J109" t="n">
-        <v>-0.01227660425921961</v>
+        <v>-0.01227640901570004</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -7316,19 +7316,19 @@
         </is>
       </c>
       <c r="N109" t="n">
-        <v>6.915874141091871</v>
+        <v>6.915881538980817</v>
       </c>
       <c r="O109" t="n">
-        <v>1.63535421948759</v>
+        <v>1.635359275443094</v>
       </c>
       <c r="P109" t="n">
-        <v>0.06687211625798158</v>
+        <v>0.06687218545152977</v>
       </c>
       <c r="Q109" t="n">
-        <v>96.90176016066462</v>
+        <v>96.90195201155957</v>
       </c>
       <c r="R109" t="n">
-        <v>263.535421948759</v>
+        <v>263.5359275443095</v>
       </c>
       <c r="S109" t="n">
         <v>-0</v>
@@ -7339,31 +7339,31 @@
         <v>44227</v>
       </c>
       <c r="B110" t="n">
-        <v>361.02197265625</v>
+        <v>361.0220031738281</v>
       </c>
       <c r="C110" t="n">
-        <v>117.1325225830078</v>
+        <v>117.1325149536133</v>
       </c>
       <c r="D110" t="n">
-        <v>146.9513092041016</v>
+        <v>146.9513397216797</v>
       </c>
       <c r="E110" t="n">
-        <v>0.2757399071347605</v>
+        <v>0.276</v>
       </c>
       <c r="F110" t="n">
-        <v>0.404282211611495</v>
+        <v>0.404</v>
       </c>
       <c r="G110" t="n">
-        <v>-0.1726357795089012</v>
+        <v>-0.173</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.01019046396673562</v>
+        <v>-0.01019038029706409</v>
       </c>
       <c r="I110" t="n">
-        <v>-0.006401750174996779</v>
+        <v>-0.006401814892744606</v>
       </c>
       <c r="J110" t="n">
-        <v>-0.03632796825984497</v>
+        <v>-0.03632776813276428</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>117.1325225830078</v>
+        <v>117.1325149536133</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
@@ -7379,22 +7379,22 @@
         </is>
       </c>
       <c r="N110" t="n">
-        <v>-0.6401750174996779</v>
+        <v>-0.6401814892744606</v>
       </c>
       <c r="O110" t="n">
-        <v>1.618483340151807</v>
+        <v>1.61848819318583</v>
       </c>
       <c r="P110" t="n">
-        <v>-0.006422329252739764</v>
+        <v>-0.006422394387465944</v>
       </c>
       <c r="Q110" t="n">
-        <v>96.25952723539064</v>
+        <v>96.25971257281299</v>
       </c>
       <c r="R110" t="n">
-        <v>261.8483340151807</v>
+        <v>261.848819318583</v>
       </c>
       <c r="S110" t="n">
-        <v>-0.6401750174996802</v>
+        <v>-0.6401814892744589</v>
       </c>
     </row>
     <row r="111">
@@ -7405,28 +7405,28 @@
         <v>371.0603637695312</v>
       </c>
       <c r="C111" t="n">
-        <v>121.8155059814453</v>
+        <v>121.8155136108398</v>
       </c>
       <c r="D111" t="n">
-        <v>138.5266723632812</v>
+        <v>138.5266418457031</v>
       </c>
       <c r="E111" t="n">
-        <v>0.1601741218887736</v>
+        <v>0.16</v>
       </c>
       <c r="F111" t="n">
-        <v>0.3100641116788985</v>
+        <v>0.31</v>
       </c>
       <c r="G111" t="n">
-        <v>-0.2779899768001205</v>
+        <v>-0.278</v>
       </c>
       <c r="H111" t="n">
-        <v>0.02780548518812553</v>
+        <v>0.02780539830662287</v>
       </c>
       <c r="I111" t="n">
-        <v>0.03998021467623425</v>
+        <v>0.03998034754979107</v>
       </c>
       <c r="J111" t="n">
-        <v>-0.05732944392566985</v>
+        <v>-0.05732984736262103</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>121.8155059814453</v>
+        <v>121.8155136108398</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
@@ -7442,19 +7442,19 @@
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.998021467623425</v>
+        <v>3.998034754979107</v>
       </c>
       <c r="O111" t="n">
-        <v>1.723170866217219</v>
+        <v>1.723176261204424</v>
       </c>
       <c r="P111" t="n">
-        <v>0.0392016886225413</v>
+        <v>0.0392018163879992</v>
       </c>
       <c r="Q111" t="n">
-        <v>100.1796960976448</v>
+        <v>100.1798942116129</v>
       </c>
       <c r="R111" t="n">
-        <v>272.3170866217219</v>
+        <v>272.3176261204424</v>
       </c>
       <c r="S111" t="n">
         <v>-0</v>
@@ -7468,28 +7468,28 @@
         <v>387.90625</v>
       </c>
       <c r="C112" t="n">
-        <v>124.2053604125977</v>
+        <v>124.2053756713867</v>
       </c>
       <c r="D112" t="n">
-        <v>131.2606048583984</v>
+        <v>131.2605438232422</v>
       </c>
       <c r="E112" t="n">
-        <v>0.2803271189873242</v>
+        <v>0.28</v>
       </c>
       <c r="F112" t="n">
-        <v>0.289465959828932</v>
+        <v>0.289</v>
       </c>
       <c r="G112" t="n">
-        <v>-0.3421489909641232</v>
+        <v>-0.342</v>
       </c>
       <c r="H112" t="n">
         <v>0.04539931470808312</v>
       </c>
       <c r="I112" t="n">
-        <v>0.01961863895649185</v>
+        <v>0.019618700358492</v>
       </c>
       <c r="J112" t="n">
-        <v>-0.05245247995149849</v>
+        <v>-0.05245271180798727</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>124.2053604125977</v>
+        <v>124.2053756713867</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
@@ -7505,19 +7505,19 @@
         </is>
       </c>
       <c r="N112" t="n">
-        <v>1.961863895649185</v>
+        <v>1.9618700358492</v>
       </c>
       <c r="O112" t="n">
-        <v>1.776595772258372</v>
+        <v>1.776601440296352</v>
       </c>
       <c r="P112" t="n">
-        <v>0.01942867400837546</v>
+        <v>0.01942873422892847</v>
       </c>
       <c r="Q112" t="n">
-        <v>102.1225634984823</v>
+        <v>102.1227676345058</v>
       </c>
       <c r="R112" t="n">
-        <v>277.6595772258372</v>
+        <v>277.6601440296352</v>
       </c>
       <c r="S112" t="n">
         <v>-0</v>
@@ -7531,28 +7531,28 @@
         <v>408.4305419921875</v>
       </c>
       <c r="C113" t="n">
-        <v>129.5075988769531</v>
+        <v>129.5075836181641</v>
       </c>
       <c r="D113" t="n">
-        <v>134.5356750488281</v>
+        <v>134.5356903076172</v>
       </c>
       <c r="E113" t="n">
-        <v>0.4718232803466198</v>
+        <v>0.472</v>
       </c>
       <c r="F113" t="n">
-        <v>0.4764284411733246</v>
+        <v>0.476</v>
       </c>
       <c r="G113" t="n">
-        <v>-0.1736153221389273</v>
+        <v>-0.174</v>
       </c>
       <c r="H113" t="n">
         <v>0.05291044419157331</v>
       </c>
       <c r="I113" t="n">
-        <v>0.04268928850366827</v>
+        <v>0.04268903755667974</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02495089973082765</v>
+        <v>0.02495149257331564</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -7560,7 +7560,7 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>129.5075988769531</v>
+        <v>129.5075836181641</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
@@ -7568,19 +7568,19 @@
         </is>
       </c>
       <c r="N113" t="n">
-        <v>4.268928850366827</v>
+        <v>4.268903755667974</v>
       </c>
       <c r="O113" t="n">
-        <v>1.895126670238375</v>
+        <v>1.895131883461094</v>
       </c>
       <c r="P113" t="n">
-        <v>0.04180322991482893</v>
+        <v>0.04180298924196359</v>
       </c>
       <c r="Q113" t="n">
-        <v>106.3028864899652</v>
+        <v>106.3030665587021</v>
       </c>
       <c r="R113" t="n">
-        <v>289.5126670238375</v>
+        <v>289.5131883461094</v>
       </c>
       <c r="S113" t="n">
         <v>-0</v>
@@ -7597,25 +7597,25 @@
         <v>132.7585906982422</v>
       </c>
       <c r="D114" t="n">
-        <v>134.5386047363281</v>
+        <v>134.5386199951172</v>
       </c>
       <c r="E114" t="n">
-        <v>0.2779896493139595</v>
+        <v>0.278</v>
       </c>
       <c r="F114" t="n">
-        <v>0.2902778766761056</v>
+        <v>0.29</v>
       </c>
       <c r="G114" t="n">
-        <v>-0.1590626263115335</v>
+        <v>-0.159</v>
       </c>
       <c r="H114" t="n">
         <v>0.006566093710352217</v>
       </c>
       <c r="I114" t="n">
-        <v>0.02510271095658156</v>
+        <v>0.02510283173580996</v>
       </c>
       <c r="J114" t="n">
-        <v>2.177628721100611e-05</v>
+        <v>2.177628474120397e-05</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -7631,19 +7631,19 @@
         </is>
       </c>
       <c r="N114" t="n">
-        <v>2.510271095658156</v>
+        <v>2.510283173580996</v>
       </c>
       <c r="O114" t="n">
-        <v>1.967802198224059</v>
+        <v>1.967807891984596</v>
       </c>
       <c r="P114" t="n">
-        <v>0.02479281338140365</v>
+        <v>0.02479293120298386</v>
       </c>
       <c r="Q114" t="n">
-        <v>108.7821678281056</v>
+        <v>108.7823596790005</v>
       </c>
       <c r="R114" t="n">
-        <v>296.7802198224059</v>
+        <v>296.7807891984597</v>
       </c>
       <c r="S114" t="n">
         <v>-0</v>
@@ -7654,7 +7654,7 @@
         <v>44377</v>
       </c>
       <c r="B115" t="n">
-        <v>420.3325500488281</v>
+        <v>420.3324890136719</v>
       </c>
       <c r="C115" t="n">
         <v>132.5716857910156</v>
@@ -7663,22 +7663,22 @@
         <v>140.4840087890625</v>
       </c>
       <c r="E115" t="n">
-        <v>0.2468643806196962</v>
+        <v>0.247</v>
       </c>
       <c r="F115" t="n">
-        <v>0.1734152382837367</v>
+        <v>0.173</v>
       </c>
       <c r="G115" t="n">
-        <v>0.01824686324509772</v>
+        <v>0.018</v>
       </c>
       <c r="H115" t="n">
-        <v>0.02242748284152207</v>
+        <v>0.02242733437807054</v>
       </c>
       <c r="I115" t="n">
         <v>-0.001407855463390617</v>
       </c>
       <c r="J115" t="n">
-        <v>0.04419106370536774</v>
+        <v>0.04419094527772827</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>420.3325500488281</v>
+        <v>420.3324890136719</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
@@ -7697,19 +7697,19 @@
         <v>-0.1407855463390617</v>
       </c>
       <c r="O115" t="n">
-        <v>1.963623961685027</v>
+        <v>1.963629647429572</v>
       </c>
       <c r="P115" t="n">
         <v>-0.00140884742302669</v>
       </c>
       <c r="Q115" t="n">
-        <v>108.6412830858029</v>
+        <v>108.6414749366978</v>
       </c>
       <c r="R115" t="n">
-        <v>296.3623961685027</v>
+        <v>296.3629647429572</v>
       </c>
       <c r="S115" t="n">
-        <v>-0.1407855463390601</v>
+        <v>-0.1407855463390598</v>
       </c>
     </row>
     <row r="116">
@@ -7717,31 +7717,31 @@
         <v>44408</v>
       </c>
       <c r="B116" t="n">
-        <v>430.5938720703125</v>
+        <v>430.5939025878906</v>
       </c>
       <c r="C116" t="n">
         <v>133.8055877685547</v>
       </c>
       <c r="D116" t="n">
-        <v>145.7052612304688</v>
+        <v>145.7053070068359</v>
       </c>
       <c r="E116" t="n">
-        <v>0.2713852279976803</v>
+        <v>0.271</v>
       </c>
       <c r="F116" t="n">
-        <v>0.1848381903207701</v>
+        <v>0.185</v>
       </c>
       <c r="G116" t="n">
-        <v>0.1117100729463946</v>
+        <v>0.112</v>
       </c>
       <c r="H116" t="n">
-        <v>0.02441238971450677</v>
+        <v>0.02441261106962633</v>
       </c>
       <c r="I116" t="n">
         <v>0.009307432203013333</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03716616920610516</v>
+        <v>0.03716649505363456</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>430.5938720703125</v>
+        <v>430.5939025878906</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
@@ -7757,19 +7757,19 @@
         </is>
       </c>
       <c r="N116" t="n">
-        <v>2.441238971450677</v>
+        <v>2.441261106962633</v>
       </c>
       <c r="O116" t="n">
-        <v>2.035973104804932</v>
+        <v>2.035979585366684</v>
       </c>
       <c r="P116" t="n">
-        <v>0.02411916987621147</v>
+        <v>0.02411938595627636</v>
       </c>
       <c r="Q116" t="n">
-        <v>111.0532000734241</v>
+        <v>111.0534135323255</v>
       </c>
       <c r="R116" t="n">
-        <v>303.5973104804932</v>
+        <v>303.5979585366684</v>
       </c>
       <c r="S116" t="n">
         <v>-0</v>
@@ -7786,25 +7786,25 @@
         <v>136.0790863037109</v>
       </c>
       <c r="D117" t="n">
-        <v>145.2096557617188</v>
+        <v>145.2096405029297</v>
       </c>
       <c r="E117" t="n">
-        <v>0.3141596808814717</v>
+        <v>0.314</v>
       </c>
       <c r="F117" t="n">
-        <v>0.1479148465551081</v>
+        <v>0.148</v>
       </c>
       <c r="G117" t="n">
-        <v>0.1544785876963237</v>
+        <v>0.154</v>
       </c>
       <c r="H117" t="n">
-        <v>0.02975988149996112</v>
+        <v>0.02975980851755833</v>
       </c>
       <c r="I117" t="n">
         <v>0.01699105824406044</v>
       </c>
       <c r="J117" t="n">
-        <v>-0.003401424660747665</v>
+        <v>-0.003401842486650097</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -7820,19 +7820,19 @@
         </is>
       </c>
       <c r="N117" t="n">
-        <v>2.975988149996112</v>
+        <v>2.975980851755833</v>
       </c>
       <c r="O117" t="n">
-        <v>2.126323304640996</v>
+        <v>2.126329756490413</v>
       </c>
       <c r="P117" t="n">
-        <v>0.0293256503064249</v>
+        <v>0.02932557943319835</v>
       </c>
       <c r="Q117" t="n">
-        <v>113.9857651040666</v>
+        <v>113.9859714756453</v>
       </c>
       <c r="R117" t="n">
-        <v>312.6323304640996</v>
+        <v>312.6329756490413</v>
       </c>
       <c r="S117" t="n">
         <v>-0</v>
@@ -7852,13 +7852,13 @@
         <v>140.9883880615234</v>
       </c>
       <c r="E118" t="n">
-        <v>0.02416864469905211</v>
+        <v>0.024</v>
       </c>
       <c r="F118" t="n">
-        <v>-0.03132800634288146</v>
+        <v>-0.031</v>
       </c>
       <c r="G118" t="n">
-        <v>0.02502003961497556</v>
+        <v>0.025</v>
       </c>
       <c r="H118" t="n">
         <v>-0.04660547160166728</v>
@@ -7867,7 +7867,7 @@
         <v>-0.04130923262734043</v>
       </c>
       <c r="J118" t="n">
-        <v>-0.02907015844126914</v>
+        <v>-0.02907005641489124</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -7886,19 +7886,19 @@
         <v>-4.660547160166728</v>
       </c>
       <c r="O118" t="n">
-        <v>1.980619532648919</v>
+        <v>1.980625683806851</v>
       </c>
       <c r="P118" t="n">
         <v>-0.04772647526885691</v>
       </c>
       <c r="Q118" t="n">
-        <v>109.2131175771809</v>
+        <v>109.2133239487596</v>
       </c>
       <c r="R118" t="n">
-        <v>298.0619532648919</v>
+        <v>298.0625683806851</v>
       </c>
       <c r="S118" t="n">
-        <v>-4.660547160166731</v>
+        <v>-4.660547160166725</v>
       </c>
     </row>
     <row r="119">
@@ -7906,28 +7906,28 @@
         <v>44500</v>
       </c>
       <c r="B119" t="n">
-        <v>452.4041748046875</v>
+        <v>452.4042053222656</v>
       </c>
       <c r="C119" t="n">
-        <v>134.6440124511719</v>
+        <v>134.6440277099609</v>
       </c>
       <c r="D119" t="n">
         <v>144.4637908935547</v>
       </c>
       <c r="E119" t="n">
-        <v>0.2154001970293404</v>
+        <v>0.215</v>
       </c>
       <c r="F119" t="n">
-        <v>0.08204611839658038</v>
+        <v>0.082</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08978323203611238</v>
+        <v>0.09</v>
       </c>
       <c r="H119" t="n">
-        <v>0.07016350327783316</v>
+        <v>0.07016357546726049</v>
       </c>
       <c r="I119" t="n">
-        <v>0.03208892028707511</v>
+        <v>0.03208903725051693</v>
       </c>
       <c r="J119" t="n">
         <v>0.02465027708888101</v>
@@ -7938,7 +7938,7 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>452.4041748046875</v>
+        <v>452.4042053222656</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
@@ -7946,19 +7946,19 @@
         </is>
       </c>
       <c r="N119" t="n">
-        <v>7.016350327783316</v>
+        <v>7.016357546726049</v>
       </c>
       <c r="O119" t="n">
-        <v>2.189750240997905</v>
+        <v>2.189757038912288</v>
       </c>
       <c r="P119" t="n">
-        <v>0.06781144360175792</v>
+        <v>0.06781151105820235</v>
       </c>
       <c r="Q119" t="n">
-        <v>115.9942619373567</v>
+        <v>115.9944750545798</v>
       </c>
       <c r="R119" t="n">
-        <v>318.9750240997905</v>
+        <v>318.9757038912288</v>
       </c>
       <c r="S119" t="n">
         <v>-0</v>
@@ -7969,31 +7969,31 @@
         <v>44530</v>
       </c>
       <c r="B120" t="n">
-        <v>448.7691955566406</v>
+        <v>448.7692260742188</v>
       </c>
       <c r="C120" t="n">
         <v>128.5451354980469</v>
       </c>
       <c r="D120" t="n">
-        <v>148.4675750732422</v>
+        <v>148.4675903320312</v>
       </c>
       <c r="E120" t="n">
-        <v>0.09842586900140493</v>
+        <v>0.098</v>
       </c>
       <c r="F120" t="n">
-        <v>-0.1423568480042905</v>
+        <v>-0.142</v>
       </c>
       <c r="G120" t="n">
-        <v>0.1538197239983214</v>
+        <v>0.154</v>
       </c>
       <c r="H120" t="n">
-        <v>-0.008034804828262687</v>
+        <v>-0.008034804286263242</v>
       </c>
       <c r="I120" t="n">
-        <v>-0.04529631018933522</v>
+        <v>-0.0452964183829363</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02771479382427122</v>
+        <v>0.02771489944789485</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -8001,7 +8001,7 @@
         </is>
       </c>
       <c r="L120" t="n">
-        <v>448.7691955566406</v>
+        <v>448.7692260742188</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
@@ -8009,22 +8009,22 @@
         </is>
       </c>
       <c r="N120" t="n">
-        <v>-0.8034804828262687</v>
+        <v>-0.8034804286263242</v>
       </c>
       <c r="O120" t="n">
-        <v>2.164121220360583</v>
+        <v>2.164127965383897</v>
       </c>
       <c r="P120" t="n">
-        <v>-0.008067257825136825</v>
+        <v>-0.008067257278747245</v>
       </c>
       <c r="Q120" t="n">
-        <v>115.187536154843</v>
+        <v>115.1877493267051</v>
       </c>
       <c r="R120" t="n">
-        <v>316.4121220360583</v>
+        <v>316.4127965383897</v>
       </c>
       <c r="S120" t="n">
-        <v>-0.8034804828262666</v>
+        <v>-0.8034804286263252</v>
       </c>
     </row>
     <row r="121">
@@ -8032,31 +8032,31 @@
         <v>44561</v>
       </c>
       <c r="B121" t="n">
-        <v>469.5238037109375</v>
+        <v>469.5237731933594</v>
       </c>
       <c r="C121" t="n">
-        <v>133.2667999267578</v>
+        <v>133.2668151855469</v>
       </c>
       <c r="D121" t="n">
-        <v>145.4777069091797</v>
+        <v>145.4777221679688</v>
       </c>
       <c r="E121" t="n">
-        <v>0.2580673898119132</v>
+        <v>0.258</v>
       </c>
       <c r="F121" t="n">
-        <v>0.059766714067232</v>
+        <v>0.06</v>
       </c>
       <c r="G121" t="n">
-        <v>0.02636303788401118</v>
+        <v>0.026</v>
       </c>
       <c r="H121" t="n">
-        <v>0.04624784490511535</v>
+        <v>0.04624770575446768</v>
       </c>
       <c r="I121" t="n">
-        <v>0.03673156833525359</v>
+        <v>0.03673168703899909</v>
       </c>
       <c r="J121" t="n">
-        <v>-0.02013818951772828</v>
+        <v>-0.02013818744802143</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -8064,7 +8064,7 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>469.5238037109375</v>
+        <v>469.5237731933594</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
@@ -8072,19 +8072,19 @@
         </is>
       </c>
       <c r="N121" t="n">
-        <v>4.624784490511535</v>
+        <v>4.624770575446768</v>
       </c>
       <c r="O121" t="n">
-        <v>2.310455007820804</v>
+        <v>2.310461624496454</v>
       </c>
       <c r="P121" t="n">
-        <v>0.04521028299157984</v>
+        <v>0.04521014999187274</v>
       </c>
       <c r="Q121" t="n">
-        <v>119.708564454001</v>
+        <v>119.7087643258924</v>
       </c>
       <c r="R121" t="n">
-        <v>331.0455007820804</v>
+        <v>331.0461624496454</v>
       </c>
       <c r="S121" t="n">
         <v>-0</v>
@@ -8098,28 +8098,28 @@
         <v>444.760498046875</v>
       </c>
       <c r="C122" t="n">
-        <v>125.5370101928711</v>
+        <v>125.5370025634766</v>
       </c>
       <c r="D122" t="n">
-        <v>139.7839050292969</v>
+        <v>139.7838592529297</v>
       </c>
       <c r="E122" t="n">
-        <v>-0.04348295290007786</v>
+        <v>-0.043</v>
       </c>
       <c r="F122" t="n">
-        <v>-0.1927206154806743</v>
+        <v>-0.193</v>
       </c>
       <c r="G122" t="n">
-        <v>-0.1203984959763681</v>
+        <v>-0.12</v>
       </c>
       <c r="H122" t="n">
-        <v>-0.05274132103280549</v>
+        <v>-0.05274125946395125</v>
       </c>
       <c r="I122" t="n">
-        <v>-0.05800236621675425</v>
+        <v>-0.0580025313226562</v>
       </c>
       <c r="J122" t="n">
-        <v>-0.03913865568033315</v>
+        <v>-0.03913907112502713</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>139.7839050292969</v>
+        <v>139.7838592529297</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
@@ -8135,22 +8135,22 @@
         </is>
       </c>
       <c r="N122" t="n">
-        <v>-5.274132103280548</v>
+        <v>-5.274125946395126</v>
       </c>
       <c r="O122" t="n">
-        <v>2.135857237488668</v>
+        <v>2.135863709013433</v>
       </c>
       <c r="P122" t="n">
-        <v>-0.05418306684807696</v>
+        <v>-0.05418300185120377</v>
       </c>
       <c r="Q122" t="n">
-        <v>114.2902577691933</v>
+        <v>114.290464140772</v>
       </c>
       <c r="R122" t="n">
-        <v>313.5857237488668</v>
+        <v>313.5863709013433</v>
       </c>
       <c r="S122" t="n">
-        <v>-5.274132103280553</v>
+        <v>-5.274125946395118</v>
       </c>
     </row>
     <row r="123">
@@ -8167,22 +8167,22 @@
         <v>137.5012054443359</v>
       </c>
       <c r="E123" t="n">
-        <v>-0.07729808155170725</v>
+        <v>-0.077</v>
       </c>
       <c r="F123" t="n">
-        <v>-0.1382357610219419</v>
+        <v>-0.138</v>
       </c>
       <c r="G123" t="n">
-        <v>-0.1499478197293801</v>
+        <v>-0.15</v>
       </c>
       <c r="H123" t="n">
         <v>-0.02951698898689659</v>
       </c>
       <c r="I123" t="n">
-        <v>-0.01949443634697545</v>
+        <v>-0.01949437675766208</v>
       </c>
       <c r="J123" t="n">
-        <v>-0.01633020328400836</v>
+        <v>-0.01632988115218248</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -8198,22 +8198,22 @@
         </is>
       </c>
       <c r="N123" t="n">
-        <v>-1.633020328400836</v>
+        <v>-1.632988115218248</v>
       </c>
       <c r="O123" t="n">
-        <v>2.084648051330849</v>
+        <v>2.084655427335802</v>
       </c>
       <c r="P123" t="n">
-        <v>-0.01646501069001315</v>
+        <v>-0.01646468321043188</v>
       </c>
       <c r="Q123" t="n">
-        <v>112.643756700192</v>
+        <v>112.6439958197288</v>
       </c>
       <c r="R123" t="n">
-        <v>308.4648051330849</v>
+        <v>308.4655427335802</v>
       </c>
       <c r="S123" t="n">
-        <v>-6.821024782288108</v>
+        <v>-6.820988211727089</v>
       </c>
     </row>
     <row r="124">
@@ -8221,31 +8221,31 @@
         <v>44651</v>
       </c>
       <c r="B124" t="n">
-        <v>447.8577575683594</v>
+        <v>447.8577270507812</v>
       </c>
       <c r="C124" t="n">
         <v>123.248908996582</v>
       </c>
       <c r="D124" t="n">
-        <v>130.01513671875</v>
+        <v>130.0151214599609</v>
       </c>
       <c r="E124" t="n">
-        <v>0.05445934165430211</v>
+        <v>0.054</v>
       </c>
       <c r="F124" t="n">
-        <v>-0.1149047092889954</v>
+        <v>-0.115</v>
       </c>
       <c r="G124" t="n">
-        <v>-0.2570660898104637</v>
+        <v>-0.257</v>
       </c>
       <c r="H124" t="n">
-        <v>0.0375904269692855</v>
+        <v>0.03759035626659823</v>
       </c>
       <c r="I124" t="n">
         <v>0.001293138340079603</v>
       </c>
       <c r="J124" t="n">
-        <v>-0.05444365888571423</v>
+        <v>-0.05444376985775268</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         </is>
       </c>
       <c r="L124" t="n">
-        <v>447.8577575683594</v>
+        <v>447.8577270507812</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
@@ -8261,22 +8261,22 @@
         </is>
       </c>
       <c r="N124" t="n">
-        <v>-5.444365888571423</v>
+        <v>-5.444376985775268</v>
       </c>
       <c r="O124" t="n">
-        <v>1.916708525041709</v>
+        <v>1.916715157159464</v>
       </c>
       <c r="P124" t="n">
-        <v>-0.05598180396061522</v>
+        <v>-0.05598192132225739</v>
       </c>
       <c r="Q124" t="n">
-        <v>107.0455763041304</v>
+        <v>107.0458036875031</v>
       </c>
       <c r="R124" t="n">
-        <v>291.6708525041709</v>
+        <v>291.6715157159464</v>
       </c>
       <c r="S124" t="n">
-        <v>-11.89402912436164</v>
+        <v>-11.89400488510064</v>
       </c>
     </row>
     <row r="125">
@@ -8290,25 +8290,25 @@
         <v>114.1164093017578</v>
       </c>
       <c r="D125" t="n">
-        <v>117.7626647949219</v>
+        <v>117.7626495361328</v>
       </c>
       <c r="E125" t="n">
-        <v>-0.2636178430017235</v>
+        <v>-0.264</v>
       </c>
       <c r="F125" t="n">
-        <v>-0.3065475426101194</v>
+        <v>-0.307</v>
       </c>
       <c r="G125" t="n">
-        <v>-0.4387611446707258</v>
+        <v>-0.439</v>
       </c>
       <c r="H125" t="n">
-        <v>-0.0877691058978074</v>
+        <v>-0.08776904373726868</v>
       </c>
       <c r="I125" t="n">
         <v>-0.07409801651937931</v>
       </c>
       <c r="J125" t="n">
-        <v>-0.09423881121113453</v>
+        <v>-0.09423882227115676</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         </is>
       </c>
       <c r="L125" t="n">
-        <v>117.7626647949219</v>
+        <v>117.7626495361328</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
@@ -8324,22 +8324,22 @@
         </is>
       </c>
       <c r="N125" t="n">
-        <v>-8.776910589780741</v>
+        <v>-8.776904373726868</v>
       </c>
       <c r="O125" t="n">
-        <v>1.660711625634286</v>
+        <v>1.66071785696158</v>
       </c>
       <c r="P125" t="n">
-        <v>-0.09186214759310468</v>
+        <v>-0.09186207945187312</v>
       </c>
       <c r="Q125" t="n">
-        <v>97.85936154481998</v>
+        <v>97.85959574231576</v>
       </c>
       <c r="R125" t="n">
-        <v>266.0711625634286</v>
+        <v>266.071785696158</v>
       </c>
       <c r="S125" t="n">
-        <v>-19.62701141237467</v>
+        <v>-19.62698382385583</v>
       </c>
     </row>
     <row r="126">
@@ -8353,16 +8353,16 @@
         <v>115.0217056274414</v>
       </c>
       <c r="D126" t="n">
-        <v>115.1091079711914</v>
+        <v>115.1091156005859</v>
       </c>
       <c r="E126" t="n">
-        <v>-0.1430511765459584</v>
+        <v>-0.143</v>
       </c>
       <c r="F126" t="n">
-        <v>-0.1585089100325984</v>
+        <v>-0.159</v>
       </c>
       <c r="G126" t="n">
-        <v>-0.396059772635865</v>
+        <v>-0.396</v>
       </c>
       <c r="H126" t="n">
         <v>0.002257279181938632</v>
@@ -8371,7 +8371,7 @@
         <v>0.007933095084421415</v>
       </c>
       <c r="J126" t="n">
-        <v>-0.02253309084293831</v>
+        <v>-0.02253289940400582</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>115.1091079711914</v>
+        <v>115.1091156005859</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
@@ -8387,22 +8387,22 @@
         </is>
       </c>
       <c r="N126" t="n">
-        <v>-2.253309084293831</v>
+        <v>-2.253289940400582</v>
       </c>
       <c r="O126" t="n">
-        <v>1.600757568867006</v>
+        <v>1.600764169148223</v>
       </c>
       <c r="P126" t="n">
-        <v>-0.02279084022037094</v>
+        <v>-0.0227906443683048</v>
       </c>
       <c r="Q126" t="n">
-        <v>95.58027752278289</v>
+        <v>95.58053130548528</v>
       </c>
       <c r="R126" t="n">
-        <v>260.0757568867006</v>
+        <v>260.0764169148223</v>
       </c>
       <c r="S126" t="n">
-        <v>-21.43806326553808</v>
+        <v>-21.43802091214941</v>
       </c>
     </row>
     <row r="127">
@@ -8419,13 +8419,13 @@
         <v>113.6419677734375</v>
       </c>
       <c r="E127" t="n">
-        <v>-0.4457472754392729</v>
+        <v>-0.446</v>
       </c>
       <c r="F127" t="n">
-        <v>-0.5033098895358928</v>
+        <v>-0.503</v>
       </c>
       <c r="G127" t="n">
-        <v>-0.360828621550256</v>
+        <v>-0.361</v>
       </c>
       <c r="H127" t="n">
         <v>-0.0824604296976168</v>
@@ -8434,7 +8434,7 @@
         <v>-0.1041005563432248</v>
       </c>
       <c r="J127" t="n">
-        <v>-0.01274564822551738</v>
+        <v>-0.01274571366041288</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -8450,22 +8450,22 @@
         </is>
       </c>
       <c r="N127" t="n">
-        <v>-1.274564822551738</v>
+        <v>-1.274571366041288</v>
       </c>
       <c r="O127" t="n">
-        <v>1.567609227774375</v>
+        <v>1.567615573749999</v>
       </c>
       <c r="P127" t="n">
-        <v>-0.01282757084891445</v>
+        <v>-0.01282763712858955</v>
       </c>
       <c r="Q127" t="n">
-        <v>94.29752043789144</v>
+        <v>94.29776759262633</v>
       </c>
       <c r="R127" t="n">
-        <v>256.7609227774375</v>
+        <v>256.7615573749999</v>
       </c>
       <c r="S127" t="n">
-        <v>-22.43938607507089</v>
+        <v>-22.43934940219849</v>
       </c>
     </row>
     <row r="128">
@@ -8482,13 +8482,13 @@
         <v>116.4046249389648</v>
       </c>
       <c r="E128" t="n">
-        <v>0.02665517820524399</v>
+        <v>0.027</v>
       </c>
       <c r="F128" t="n">
-        <v>-0.09743571200625889</v>
+        <v>-0.097</v>
       </c>
       <c r="G128" t="n">
-        <v>-0.14978470292364</v>
+        <v>-0.15</v>
       </c>
       <c r="H128" t="n">
         <v>0.09208745303852872</v>
@@ -8516,19 +8516,19 @@
         <v>2.431018416572228</v>
       </c>
       <c r="O128" t="n">
-        <v>1.630028280967178</v>
+        <v>1.630034781214638</v>
       </c>
       <c r="P128" t="n">
         <v>0.02401939497240329</v>
       </c>
       <c r="Q128" t="n">
-        <v>96.69945993513176</v>
+        <v>96.69970708986665</v>
       </c>
       <c r="R128" t="n">
-        <v>263.0028280967178</v>
+        <v>263.0034781214638</v>
       </c>
       <c r="S128" t="n">
-        <v>-20.55387326654938</v>
+        <v>-20.5538357021527</v>
       </c>
     </row>
     <row r="129">
@@ -8545,13 +8545,13 @@
         <v>111.104606628418</v>
       </c>
       <c r="E129" t="n">
-        <v>-0.1658633263710658</v>
+        <v>-0.166</v>
       </c>
       <c r="F129" t="n">
-        <v>-0.27057131135854</v>
+        <v>-0.271</v>
       </c>
       <c r="G129" t="n">
-        <v>-0.2973315775401615</v>
+        <v>-0.297</v>
       </c>
       <c r="H129" t="n">
         <v>-0.04080198981633054</v>
@@ -8579,19 +8579,19 @@
         <v>-4.080198981633054</v>
       </c>
       <c r="O129" t="n">
-        <v>1.522717893830494</v>
+        <v>1.522724128854923</v>
       </c>
       <c r="P129" t="n">
         <v>-0.04165774972504027</v>
       </c>
       <c r="Q129" t="n">
-        <v>92.53368496262773</v>
+        <v>92.53393211736262</v>
       </c>
       <c r="R129" t="n">
-        <v>252.2717893830494</v>
+        <v>252.2724128854923</v>
       </c>
       <c r="S129" t="n">
-        <v>-23.79543332047454</v>
+        <v>-23.79539728877999</v>
       </c>
     </row>
     <row r="130">
@@ -8605,16 +8605,16 @@
         <v>92.80999755859375</v>
       </c>
       <c r="D130" t="n">
-        <v>101.9550247192383</v>
+        <v>101.9550323486328</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.3564310042934408</v>
+        <v>-0.356</v>
       </c>
       <c r="F130" t="n">
-        <v>-0.4603546198885502</v>
+        <v>-0.46</v>
       </c>
       <c r="G130" t="n">
-        <v>-0.4131036949993427</v>
+        <v>-0.413</v>
       </c>
       <c r="H130" t="n">
         <v>-0.0924458692823249</v>
@@ -8623,7 +8623,7 @@
         <v>-0.1079933812197169</v>
       </c>
       <c r="J130" t="n">
-        <v>-0.08235105804190335</v>
+        <v>-0.08235098937333274</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>101.9550247192383</v>
+        <v>101.9550323486328</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
@@ -8639,22 +8639,22 @@
         </is>
       </c>
       <c r="N130" t="n">
-        <v>-8.235105804190335</v>
+        <v>-8.235098937333273</v>
       </c>
       <c r="O130" t="n">
-        <v>1.314969406132311</v>
+        <v>1.314975300927741</v>
       </c>
       <c r="P130" t="n">
-        <v>-0.08594037766900707</v>
+        <v>-0.0859403028380288</v>
       </c>
       <c r="Q130" t="n">
-        <v>83.93964719572702</v>
+        <v>83.93990183355974</v>
       </c>
       <c r="R130" t="n">
-        <v>231.4969406132311</v>
+        <v>231.4975300927741</v>
       </c>
       <c r="S130" t="n">
-        <v>-30.07096001415824</v>
+        <v>-30.07092171685072</v>
       </c>
     </row>
     <row r="131">
@@ -8671,13 +8671,13 @@
         <v>95.87400054931641</v>
       </c>
       <c r="E131" t="n">
-        <v>-0.06065028287883767</v>
+        <v>-0.061</v>
       </c>
       <c r="F131" t="n">
-        <v>-0.2373809828817286</v>
+        <v>-0.237</v>
       </c>
       <c r="G131" t="n">
-        <v>-0.4195684521966075</v>
+        <v>-0.42</v>
       </c>
       <c r="H131" t="n">
         <v>0.08127554559207328</v>
@@ -8686,7 +8686,7 @@
         <v>0.03663400081152224</v>
       </c>
       <c r="J131" t="n">
-        <v>-0.05964418317456821</v>
+        <v>-0.05964425354231129</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -8702,22 +8702,22 @@
         </is>
       </c>
       <c r="N131" t="n">
-        <v>-5.964418317456821</v>
+        <v>-5.964425354231128</v>
       </c>
       <c r="O131" t="n">
-        <v>1.176894946829434</v>
+        <v>1.176900327135018</v>
       </c>
       <c r="P131" t="n">
-        <v>-0.06149694680424712</v>
+        <v>-0.06149702163522541</v>
       </c>
       <c r="Q131" t="n">
-        <v>77.7899525153023</v>
+        <v>77.79019967003721</v>
       </c>
       <c r="R131" t="n">
-        <v>217.6894946829434</v>
+        <v>217.6900327135018</v>
       </c>
       <c r="S131" t="n">
-        <v>-34.24182048429549</v>
+        <v>-34.241789391951</v>
       </c>
     </row>
     <row r="132">
@@ -8725,31 +8725,31 @@
         <v>44895</v>
       </c>
       <c r="B132" t="n">
-        <v>372.6900939941406</v>
+        <v>376.3500061035156</v>
       </c>
       <c r="C132" t="n">
-        <v>95.72049713134766</v>
+        <v>98.87000274658203</v>
       </c>
       <c r="D132" t="n">
-        <v>95.73999786376953</v>
+        <v>94.22000122070312</v>
       </c>
       <c r="E132" t="n">
-        <v>-0.1952040636336121</v>
+        <v>-0.165</v>
       </c>
       <c r="F132" t="n">
-        <v>-0.2770571914211851</v>
+        <v>-0.172</v>
       </c>
       <c r="G132" t="n">
-        <v>-0.3924271231632637</v>
+        <v>-0.425</v>
       </c>
       <c r="H132" t="n">
-        <v>-0.03500659682573248</v>
+        <v>-0.02553011462602039</v>
       </c>
       <c r="I132" t="n">
-        <v>-0.005087849057094584</v>
+        <v>0.02764789198027007</v>
       </c>
       <c r="J132" t="n">
-        <v>-0.001397695775487651</v>
+        <v>-0.0172518025652062</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="L132" t="n">
-        <v>95.73999786376953</v>
+        <v>94.22000122070312</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
@@ -8765,22 +8765,22 @@
         </is>
       </c>
       <c r="N132" t="n">
-        <v>-0.1397695775487651</v>
+        <v>-1.72518025652062</v>
       </c>
       <c r="O132" t="n">
-        <v>1.17385230995857</v>
+        <v>1.139344872487152</v>
       </c>
       <c r="P132" t="n">
-        <v>-0.001398673463341035</v>
+        <v>-0.01740234888709621</v>
       </c>
       <c r="Q132" t="n">
-        <v>77.6500851689682</v>
+        <v>76.04996478132759</v>
       </c>
       <c r="R132" t="n">
-        <v>217.385230995857</v>
+        <v>213.9344872487152</v>
       </c>
       <c r="S132" t="n">
-        <v>-34.33373041400834</v>
+        <v>-35.37623705840232</v>
       </c>
     </row>
   </sheetData>
